--- a/spreadsheets/Calculations.xlsx
+++ b/spreadsheets/Calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming_Folder\Cardano\Youtube\Delegation-rewards video\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC48161F-350F-43D3-AB18-8247FF76DD52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E18737-FCF3-49E0-A829-09012B1998BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{31B7AC9D-9D33-4366-AB5F-0B01405C06D7}"/>
   </bookViews>
@@ -379,13 +379,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
-    <numFmt numFmtId="172" formatCode="0.000000"/>
-    <numFmt numFmtId="173" formatCode="0.0000000"/>
-    <numFmt numFmtId="176" formatCode="0.000000000"/>
-    <numFmt numFmtId="177" formatCode="0.0000000000"/>
-    <numFmt numFmtId="187" formatCode="_-* #,##0.00000000_-;\-* #,##0.00000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.0000000"/>
+    <numFmt numFmtId="168" formatCode="0.000000000"/>
+    <numFmt numFmtId="169" formatCode="0.0000000000"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.00000000_-;\-* #,##0.00000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -549,23 +549,20 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="6" fillId="6" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="7" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="7" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -583,47 +580,53 @@
     <xf numFmtId="43" fontId="8" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="7" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="7" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="7" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="6" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="11" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="43" fontId="10" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="187" fontId="10" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="10" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2020,6 +2023,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="669968751"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3516,8 +3520,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -5899,7 +5904,7 @@
   <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5925,16 +5930,16 @@
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="N1" s="5"/>
@@ -5949,7 +5954,7 @@
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="5"/>
@@ -5965,15 +5970,15 @@
     </row>
     <row r="3" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <f>21600 * (1-C7)</f>
         <v>2159.9999999999995</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
         <v>95</v>
       </c>
       <c r="F3" s="5"/>
@@ -5989,19 +5994,19 @@
     </row>
     <row r="4" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>29</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -6016,24 +6021,24 @@
     </row>
     <row r="5" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>0.2</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <f>C8-C9</f>
         <v>13300000000</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <f>G5*C4</f>
         <v>39900000</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="11">
         <f>H5*(1-C5)</f>
         <v>31920000</v>
       </c>
@@ -6046,18 +6051,18 @@
     </row>
     <row r="6" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>150</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="N6" s="5"/>
@@ -6067,22 +6072,22 @@
     </row>
     <row r="7" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>0.9</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="N7" s="5"/>
@@ -6092,23 +6097,23 @@
     </row>
     <row r="8" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>45000000000</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <f>IF(C16 &gt; 0, (I5/(1+C25)) * (C26 + (C28 * C25) * (C26 - (C28 * ((C27 - C26)/C27)))/C27), 0)</f>
-        <v>309.82771172045739</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+        <v>309.86764237060783</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="N8" s="5"/>
@@ -6118,20 +6123,20 @@
     </row>
     <row r="9" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>31700000000</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="N9" s="5"/>
@@ -6141,14 +6146,14 @@
     </row>
     <row r="10" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="N10" s="5"/>
@@ -6158,20 +6163,20 @@
     </row>
     <row r="11" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>9870000000</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="5"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="N11" s="5"/>
@@ -6181,20 +6186,20 @@
     </row>
     <row r="12" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>400000</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="N12" s="5"/>
@@ -6204,20 +6209,20 @@
     </row>
     <row r="13" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>139000</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F13" s="5"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="N13" s="5"/>
@@ -6227,14 +6232,14 @@
     </row>
     <row r="14" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="N14" s="5"/>
@@ -6244,21 +6249,21 @@
     </row>
     <row r="15" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="14">
         <f>C3*C18</f>
         <v>8.7537993920972626E-2</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8" t="s">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F15" s="5"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="N15" s="5"/>
@@ -6268,20 +6273,20 @@
     </row>
     <row r="16" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>1</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8" t="s">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F16" s="5"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="N16" s="5"/>
@@ -6291,21 +6296,21 @@
     </row>
     <row r="17" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="16">
         <f>C16/2160</f>
         <v>4.6296296296296298E-4</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8" t="s">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="N17" s="5"/>
@@ -6315,21 +6320,21 @@
     </row>
     <row r="18" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="16">
         <f>C12/C11</f>
         <v>4.0526849037487334E-5</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8" t="s">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="5"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="N18" s="5"/>
@@ -6339,21 +6344,21 @@
     </row>
     <row r="19" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <f>IF(C7 &lt; 0.8, C17/C18, 1)</f>
         <v>1</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8" t="s">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="5"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="N19" s="5"/>
@@ -6363,16 +6368,16 @@
     </row>
     <row r="20" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="N20" s="5"/>
@@ -6382,17 +6387,17 @@
     </row>
     <row r="21" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="14">
+      <c r="G21" s="13">
         <f>C19*G8</f>
-        <v>309.82771172045739</v>
-      </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
+        <v>309.86764237060783</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="N21" s="5"/>
@@ -6402,20 +6407,20 @@
     </row>
     <row r="22" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8" t="s">
+      <c r="D22" s="7"/>
+      <c r="E22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F22" s="5"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="N22" s="5"/>
@@ -6425,23 +6430,23 @@
     </row>
     <row r="23" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <f>C4*(C8-C9) / 1000000</f>
         <v>39.9</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F23" s="5"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="N23" s="5"/>
@@ -6451,14 +6456,14 @@
     </row>
     <row r="24" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="N24" s="5"/>
@@ -6468,18 +6473,18 @@
     </row>
     <row r="25" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>0.3</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="N25" s="5"/>
@@ -6489,23 +6494,23 @@
     </row>
     <row r="26" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="18">
         <f>C12/C9</f>
         <v>1.2618296529968454E-5</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8" t="s">
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F26" s="5"/>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="N26" s="5"/>
@@ -6515,22 +6520,22 @@
     </row>
     <row r="27" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="7">
-        <f>1/C6*C9</f>
-        <v>211333333.33333334</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8" t="s">
+      <c r="C27" s="35">
+        <f>1/C6</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="9">
         <f>IF(G21-340 &gt; 0, G21-340, 0)</f>
         <v>0</v>
       </c>
@@ -6544,22 +6549,22 @@
     </row>
     <row r="28" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="20">
         <f>C13/C9</f>
         <v>4.3848580441640381E-6</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8" t="s">
+      <c r="D28" s="7"/>
+      <c r="E28" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="H28" s="22">
+      <c r="H28" s="21">
         <f>H27*0.98</f>
         <v>0</v>
       </c>
@@ -6915,7 +6920,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="1">
-        <f>B2 - C2</f>
+        <f t="shared" ref="B3:B34" si="0">B2 - C2</f>
         <v>13260100000</v>
       </c>
       <c r="C3" s="1">
@@ -6932,7 +6937,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="1">
-        <f>B3 - C3</f>
+        <f t="shared" si="0"/>
         <v>13220319700</v>
       </c>
       <c r="C4" s="1">
@@ -6949,7 +6954,7 @@
         <v>33</v>
       </c>
       <c r="B5" s="1">
-        <f>B4 - C4</f>
+        <f t="shared" si="0"/>
         <v>13180658740.9</v>
       </c>
       <c r="C5" s="1">
@@ -6966,7 +6971,7 @@
         <v>34</v>
       </c>
       <c r="B6" s="1">
-        <f>B5 - C5</f>
+        <f t="shared" si="0"/>
         <v>13141116764.677299</v>
       </c>
       <c r="C6" s="1">
@@ -6983,7 +6988,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="1">
-        <f>B6 - C6</f>
+        <f t="shared" si="0"/>
         <v>13101693414.383268</v>
       </c>
       <c r="C7" s="1">
@@ -7000,7 +7005,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="1">
-        <f>B7 - C7</f>
+        <f t="shared" si="0"/>
         <v>13062388334.140118</v>
       </c>
       <c r="C8" s="1">
@@ -7017,7 +7022,7 @@
         <v>37</v>
       </c>
       <c r="B9" s="1">
-        <f>B8 - C8</f>
+        <f t="shared" si="0"/>
         <v>13023201169.137697</v>
       </c>
       <c r="C9" s="1">
@@ -7034,7 +7039,7 @@
         <v>38</v>
       </c>
       <c r="B10" s="1">
-        <f>B9 - C9</f>
+        <f t="shared" si="0"/>
         <v>12984131565.630283</v>
       </c>
       <c r="C10" s="1">
@@ -7051,7 +7056,7 @@
         <v>39</v>
       </c>
       <c r="B11" s="1">
-        <f>B10 - C10</f>
+        <f t="shared" si="0"/>
         <v>12945179170.933392</v>
       </c>
       <c r="C11" s="1">
@@ -7068,7 +7073,7 @@
         <v>40</v>
       </c>
       <c r="B12" s="1">
-        <f>B11 - C11</f>
+        <f t="shared" si="0"/>
         <v>12906343633.420591</v>
       </c>
       <c r="C12" s="1">
@@ -7085,7 +7090,7 @@
         <v>41</v>
       </c>
       <c r="B13" s="1">
-        <f>B12 - C12</f>
+        <f t="shared" si="0"/>
         <v>12867624602.52033</v>
       </c>
       <c r="C13" s="1">
@@ -7102,7 +7107,7 @@
         <v>42</v>
       </c>
       <c r="B14" s="1">
-        <f>B13 - C13</f>
+        <f t="shared" si="0"/>
         <v>12829021728.712769</v>
       </c>
       <c r="C14" s="1">
@@ -7119,7 +7124,7 @@
         <v>43</v>
       </c>
       <c r="B15" s="1">
-        <f>B14 - C14</f>
+        <f t="shared" si="0"/>
         <v>12790534663.52663</v>
       </c>
       <c r="C15" s="1">
@@ -7136,7 +7141,7 @@
         <v>44</v>
       </c>
       <c r="B16" s="1">
-        <f>B15 - C15</f>
+        <f t="shared" si="0"/>
         <v>12752163059.536051</v>
       </c>
       <c r="C16" s="1">
@@ -7153,7 +7158,7 @@
         <v>45</v>
       </c>
       <c r="B17" s="1">
-        <f>B16 - C16</f>
+        <f t="shared" si="0"/>
         <v>12713906570.357443</v>
       </c>
       <c r="C17" s="1">
@@ -7170,7 +7175,7 @@
         <v>46</v>
       </c>
       <c r="B18" s="1">
-        <f>B17 - C17</f>
+        <f t="shared" si="0"/>
         <v>12675764850.64637</v>
       </c>
       <c r="C18" s="1">
@@ -7187,7 +7192,7 @@
         <v>47</v>
       </c>
       <c r="B19" s="1">
-        <f>B18 - C18</f>
+        <f t="shared" si="0"/>
         <v>12637737556.094431</v>
       </c>
       <c r="C19" s="1">
@@ -7204,7 +7209,7 @@
         <v>48</v>
       </c>
       <c r="B20" s="1">
-        <f>B19 - C19</f>
+        <f t="shared" si="0"/>
         <v>12599824343.426147</v>
       </c>
       <c r="C20" s="1">
@@ -7221,7 +7226,7 @@
         <v>49</v>
       </c>
       <c r="B21" s="1">
-        <f>B20 - C20</f>
+        <f t="shared" si="0"/>
         <v>12562024870.395868</v>
       </c>
       <c r="C21" s="1">
@@ -7238,7 +7243,7 @@
         <v>50</v>
       </c>
       <c r="B22" s="1">
-        <f>B21 - C21</f>
+        <f t="shared" si="0"/>
         <v>12524338795.784681</v>
       </c>
       <c r="C22" s="1">
@@ -7255,7 +7260,7 @@
         <v>51</v>
       </c>
       <c r="B23" s="1">
-        <f>B22 - C22</f>
+        <f t="shared" si="0"/>
         <v>12486765779.397327</v>
       </c>
       <c r="C23" s="1">
@@ -7272,7 +7277,7 @@
         <v>52</v>
       </c>
       <c r="B24" s="1">
-        <f>B23 - C23</f>
+        <f t="shared" si="0"/>
         <v>12449305482.059135</v>
       </c>
       <c r="C24" s="1">
@@ -7289,7 +7294,7 @@
         <v>53</v>
       </c>
       <c r="B25" s="1">
-        <f>B24 - C24</f>
+        <f t="shared" si="0"/>
         <v>12411957565.612959</v>
       </c>
       <c r="C25" s="1">
@@ -7306,7 +7311,7 @@
         <v>54</v>
       </c>
       <c r="B26" s="1">
-        <f>B25 - C25</f>
+        <f t="shared" si="0"/>
         <v>12374721692.916121</v>
       </c>
       <c r="C26" s="1">
@@ -7323,7 +7328,7 @@
         <v>55</v>
       </c>
       <c r="B27" s="1">
-        <f>B26 - C26</f>
+        <f t="shared" si="0"/>
         <v>12337597527.837372</v>
       </c>
       <c r="C27" s="1">
@@ -7340,7 +7345,7 @@
         <v>56</v>
       </c>
       <c r="B28" s="1">
-        <f>B27 - C27</f>
+        <f t="shared" si="0"/>
         <v>12300584735.25386</v>
       </c>
       <c r="C28" s="1">
@@ -7357,7 +7362,7 @@
         <v>57</v>
       </c>
       <c r="B29" s="1">
-        <f>B28 - C28</f>
+        <f t="shared" si="0"/>
         <v>12263682981.0481</v>
       </c>
       <c r="C29" s="1">
@@ -7374,7 +7379,7 @@
         <v>58</v>
       </c>
       <c r="B30" s="1">
-        <f>B29 - C29</f>
+        <f t="shared" si="0"/>
         <v>12226891932.104956</v>
       </c>
       <c r="C30" s="1">
@@ -7391,7 +7396,7 @@
         <v>59</v>
       </c>
       <c r="B31" s="1">
-        <f>B30 - C30</f>
+        <f t="shared" si="0"/>
         <v>12190211256.308641</v>
       </c>
       <c r="C31" s="1">
@@ -7408,7 +7413,7 @@
         <v>60</v>
       </c>
       <c r="B32" s="1">
-        <f>B31 - C31</f>
+        <f t="shared" si="0"/>
         <v>12153640622.539715</v>
       </c>
       <c r="C32" s="1">
@@ -7425,7 +7430,7 @@
         <v>61</v>
       </c>
       <c r="B33" s="1">
-        <f>B32 - C32</f>
+        <f t="shared" si="0"/>
         <v>12117179700.672096</v>
       </c>
       <c r="C33" s="1">
@@ -7442,7 +7447,7 @@
         <v>62</v>
       </c>
       <c r="B34" s="1">
-        <f>B33 - C33</f>
+        <f t="shared" si="0"/>
         <v>12080828161.57008</v>
       </c>
       <c r="C34" s="1">
@@ -7459,7 +7464,7 @@
         <v>63</v>
       </c>
       <c r="B35" s="1">
-        <f>B34 - C34</f>
+        <f t="shared" ref="B35:B53" si="1">B34 - C34</f>
         <v>12044585677.085369</v>
       </c>
       <c r="C35" s="1">
@@ -7476,7 +7481,7 @@
         <v>64</v>
       </c>
       <c r="B36" s="1">
-        <f>B35 - C35</f>
+        <f t="shared" si="1"/>
         <v>12008451920.054113</v>
       </c>
       <c r="C36" s="1">
@@ -7493,7 +7498,7 @@
         <v>65</v>
       </c>
       <c r="B37" s="1">
-        <f>B36 - C36</f>
+        <f t="shared" si="1"/>
         <v>11972426564.293951</v>
       </c>
       <c r="C37" s="1">
@@ -7510,7 +7515,7 @@
         <v>66</v>
       </c>
       <c r="B38" s="1">
-        <f>B37 - C37</f>
+        <f t="shared" si="1"/>
         <v>11936509284.601068</v>
       </c>
       <c r="C38" s="1">
@@ -7527,7 +7532,7 @@
         <v>67</v>
       </c>
       <c r="B39" s="1">
-        <f>B38 - C38</f>
+        <f t="shared" si="1"/>
         <v>11900699756.747265</v>
       </c>
       <c r="C39" s="1">
@@ -7544,7 +7549,7 @@
         <v>68</v>
       </c>
       <c r="B40" s="1">
-        <f>B39 - C39</f>
+        <f t="shared" si="1"/>
         <v>11864997657.477022</v>
       </c>
       <c r="C40" s="1">
@@ -7561,7 +7566,7 @@
         <v>69</v>
       </c>
       <c r="B41" s="1">
-        <f>B40 - C40</f>
+        <f t="shared" si="1"/>
         <v>11829402664.504591</v>
       </c>
       <c r="C41" s="1">
@@ -7578,7 +7583,7 @@
         <v>70</v>
       </c>
       <c r="B42" s="1">
-        <f>B41 - C41</f>
+        <f t="shared" si="1"/>
         <v>11793914456.511078</v>
       </c>
       <c r="C42" s="1">
@@ -7595,7 +7600,7 @@
         <v>71</v>
       </c>
       <c r="B43" s="1">
-        <f>B42 - C42</f>
+        <f t="shared" si="1"/>
         <v>11758532713.141544</v>
       </c>
       <c r="C43" s="1">
@@ -7612,7 +7617,7 @@
         <v>72</v>
       </c>
       <c r="B44" s="1">
-        <f>B43 - C43</f>
+        <f t="shared" si="1"/>
         <v>11723257115.002119</v>
       </c>
       <c r="C44" s="1">
@@ -7629,7 +7634,7 @@
         <v>73</v>
       </c>
       <c r="B45" s="1">
-        <f>B44 - C44</f>
+        <f t="shared" si="1"/>
         <v>11688087343.657112</v>
       </c>
       <c r="C45" s="1">
@@ -7646,7 +7651,7 @@
         <v>74</v>
       </c>
       <c r="B46" s="1">
-        <f>B45 - C45</f>
+        <f t="shared" si="1"/>
         <v>11653023081.626141</v>
       </c>
       <c r="C46" s="1">
@@ -7663,7 +7668,7 @@
         <v>75</v>
       </c>
       <c r="B47" s="1">
-        <f>B46 - C46</f>
+        <f t="shared" si="1"/>
         <v>11618064012.381262</v>
       </c>
       <c r="C47" s="1">
@@ -7680,7 +7685,7 @@
         <v>76</v>
       </c>
       <c r="B48" s="1">
-        <f>B47 - C47</f>
+        <f t="shared" si="1"/>
         <v>11583209820.344118</v>
       </c>
       <c r="C48" s="1">
@@ -7697,7 +7702,7 @@
         <v>77</v>
       </c>
       <c r="B49" s="1">
-        <f>B48 - C48</f>
+        <f t="shared" si="1"/>
         <v>11548460190.883085</v>
       </c>
       <c r="C49" s="1">
@@ -7714,7 +7719,7 @@
         <v>78</v>
       </c>
       <c r="B50" s="1">
-        <f>B49 - C49</f>
+        <f t="shared" si="1"/>
         <v>11513814810.310436</v>
       </c>
       <c r="C50" s="1">
@@ -7731,7 +7736,7 @@
         <v>79</v>
       </c>
       <c r="B51" s="1">
-        <f>B50 - C50</f>
+        <f t="shared" si="1"/>
         <v>11479273365.879505</v>
       </c>
       <c r="C51" s="1">
@@ -7748,7 +7753,7 @@
         <v>80</v>
       </c>
       <c r="B52" s="1">
-        <f>B51 - C51</f>
+        <f t="shared" si="1"/>
         <v>11444835545.781866</v>
       </c>
       <c r="C52" s="1">
@@ -7765,7 +7770,7 @@
         <v>81</v>
       </c>
       <c r="B53" s="1">
-        <f>B52 - C52</f>
+        <f t="shared" si="1"/>
         <v>11410501039.14452</v>
       </c>
       <c r="C53" s="1">
@@ -7802,2450 +7807,2450 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:31" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="28">
         <v>0.8</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="26"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="24"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="24"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:31" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="28">
         <v>4260000</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="26"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="24"/>
-      <c r="AE3" s="32"/>
+      <c r="F3" s="22"/>
+      <c r="AE3" s="30"/>
     </row>
     <row r="4" spans="1:31" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="28">
         <v>12171428571.428572</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="26"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="24"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="24"/>
-      <c r="AE4" s="33">
+      <c r="F4" s="22"/>
+      <c r="AE4" s="31">
         <v>4260000</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="28">
         <f>21600*(1-B2)</f>
         <v>4319.9999999999991</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="26"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="24"/>
-      <c r="AE5" s="32"/>
+      <c r="F5" s="22"/>
+      <c r="AE5" s="30"/>
     </row>
     <row r="6" spans="1:31" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="29"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="26"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="24"/>
-      <c r="AE6" s="34">
+      <c r="F6" s="22"/>
+      <c r="AE6" s="32">
         <v>3.5E-4</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="29">
         <f>B3/B4</f>
         <v>3.5E-4</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="24"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:31" ht="21" x14ac:dyDescent="0.35">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="10" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="24"/>
+      <c r="F8" s="22"/>
       <c r="AE8" s="2">
         <f>AE4/AE6</f>
         <v>12171428571.428572</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="21" x14ac:dyDescent="0.35">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="24">
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="22">
         <v>0</v>
       </c>
-      <c r="D9" s="26">
-        <f>_xlfn.BINOM.DIST(C9,$B$5,$B$7,FALSE)</f>
+      <c r="D9" s="24">
+        <f t="shared" ref="D9:D40" si="0">_xlfn.BINOM.DIST(C9,$B$5,$B$7,FALSE)</f>
         <v>0.22048742824293371</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="25">
         <f>D9*100</f>
         <v>22.04874282429337</v>
       </c>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:31" ht="21" x14ac:dyDescent="0.35">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="24">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="22">
         <v>1</v>
       </c>
-      <c r="D10" s="26">
-        <f>_xlfn.BINOM.DIST(C10,$B$5,$B$7,FALSE)</f>
+      <c r="D10" s="24">
+        <f t="shared" si="0"/>
         <v>0.3334165166842703</v>
       </c>
-      <c r="E10" s="28">
-        <f t="shared" ref="E10:E73" si="0">D10*100</f>
+      <c r="E10" s="26">
+        <f t="shared" ref="E10:E73" si="1">D10*100</f>
         <v>33.341651668427033</v>
       </c>
-      <c r="F10" s="24"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:31" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="24">
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="22">
         <v>2</v>
       </c>
-      <c r="D11" s="26">
-        <f>_xlfn.BINOM.DIST(C11,$B$5,$B$7,FALSE)</f>
+      <c r="D11" s="24">
+        <f t="shared" si="0"/>
         <v>0.25203440287347439</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="26">
+        <f t="shared" si="1"/>
+        <v>25.203440287347441</v>
+      </c>
+      <c r="F11" s="22"/>
+    </row>
+    <row r="12" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="22">
+        <v>3</v>
+      </c>
+      <c r="D12" s="24">
         <f t="shared" si="0"/>
-        <v>25.203440287347441</v>
-      </c>
-      <c r="F11" s="24"/>
-    </row>
-    <row r="12" spans="1:31" ht="21" x14ac:dyDescent="0.35">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="24">
-        <v>3</v>
-      </c>
-      <c r="D12" s="26">
-        <f>_xlfn.BINOM.DIST(C12,$B$5,$B$7,FALSE)</f>
         <v>0.12698157055692025</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="26">
+        <f t="shared" si="1"/>
+        <v>12.698157055692025</v>
+      </c>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="22">
+        <v>4</v>
+      </c>
+      <c r="D13" s="24">
         <f t="shared" si="0"/>
-        <v>12.698157055692025</v>
-      </c>
-      <c r="F12" s="24"/>
-    </row>
-    <row r="13" spans="1:31" ht="21" x14ac:dyDescent="0.35">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="24">
-        <v>4</v>
-      </c>
-      <c r="D13" s="26">
-        <f>_xlfn.BINOM.DIST(C13,$B$5,$B$7,FALSE)</f>
         <v>4.7971380103857285E-2</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="26">
+        <f t="shared" si="1"/>
+        <v>4.7971380103857282</v>
+      </c>
+      <c r="F13" s="22"/>
+    </row>
+    <row r="14" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="22">
+        <v>5</v>
+      </c>
+      <c r="D14" s="24">
         <f t="shared" si="0"/>
-        <v>4.7971380103857282</v>
-      </c>
-      <c r="F13" s="24"/>
-    </row>
-    <row r="14" spans="1:31" ht="21" x14ac:dyDescent="0.35">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="24">
-        <v>5</v>
-      </c>
-      <c r="D14" s="26">
-        <f>_xlfn.BINOM.DIST(C14,$B$5,$B$7,FALSE)</f>
         <v>1.4494828550362708E-2</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="26">
+        <f t="shared" si="1"/>
+        <v>1.4494828550362708</v>
+      </c>
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="22">
+        <v>6</v>
+      </c>
+      <c r="D15" s="24">
         <f t="shared" si="0"/>
-        <v>1.4494828550362708</v>
-      </c>
-      <c r="F14" s="24"/>
-    </row>
-    <row r="15" spans="1:31" ht="21" x14ac:dyDescent="0.35">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="24">
-        <v>6</v>
-      </c>
-      <c r="D15" s="26">
-        <f>_xlfn.BINOM.DIST(C15,$B$5,$B$7,FALSE)</f>
         <v>3.6489007199507584E-3</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="26">
+        <f t="shared" si="1"/>
+        <v>0.36489007199507584</v>
+      </c>
+      <c r="F15" s="22"/>
+    </row>
+    <row r="16" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="22">
+        <v>7</v>
+      </c>
+      <c r="D16" s="24">
         <f t="shared" si="0"/>
-        <v>0.36489007199507584</v>
-      </c>
-      <c r="F15" s="24"/>
-    </row>
-    <row r="16" spans="1:31" ht="21" x14ac:dyDescent="0.35">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="24">
-        <v>7</v>
-      </c>
-      <c r="D16" s="26">
-        <f>_xlfn.BINOM.DIST(C16,$B$5,$B$7,FALSE)</f>
         <v>7.8716094658868815E-4</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="26">
+        <f t="shared" si="1"/>
+        <v>7.8716094658868821E-2</v>
+      </c>
+      <c r="F16" s="22"/>
+    </row>
+    <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="22">
+        <v>8</v>
+      </c>
+      <c r="D17" s="24">
         <f t="shared" si="0"/>
-        <v>7.8716094658868821E-2</v>
-      </c>
-      <c r="F16" s="24"/>
-    </row>
-    <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="24">
-        <v>8</v>
-      </c>
-      <c r="D17" s="26">
-        <f>_xlfn.BINOM.DIST(C17,$B$5,$B$7,FALSE)</f>
         <v>1.4854990504072015E-4</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="26">
+        <f t="shared" si="1"/>
+        <v>1.4854990504072015E-2</v>
+      </c>
+      <c r="F17" s="22"/>
+    </row>
+    <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="22">
+        <v>9</v>
+      </c>
+      <c r="D18" s="24">
         <f t="shared" si="0"/>
-        <v>1.4854990504072015E-2</v>
-      </c>
-      <c r="F17" s="24"/>
-    </row>
-    <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="24">
-        <v>9</v>
-      </c>
-      <c r="D18" s="26">
-        <f>_xlfn.BINOM.DIST(C18,$B$5,$B$7,FALSE)</f>
         <v>2.4913111168985845E-5</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="26">
+        <f t="shared" si="1"/>
+        <v>2.4913111168985845E-3</v>
+      </c>
+      <c r="F18" s="22"/>
+    </row>
+    <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="22">
+        <v>10</v>
+      </c>
+      <c r="D19" s="24">
         <f t="shared" si="0"/>
-        <v>2.4913111168985845E-3</v>
-      </c>
-      <c r="F18" s="24"/>
-    </row>
-    <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="24">
-        <v>10</v>
-      </c>
-      <c r="D19" s="26">
-        <f>_xlfn.BINOM.DIST(C19,$B$5,$B$7,FALSE)</f>
         <v>3.7594586303621394E-6</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="26">
+        <f t="shared" si="1"/>
+        <v>3.7594586303621393E-4</v>
+      </c>
+      <c r="F19" s="22"/>
+    </row>
+    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="22">
+        <v>11</v>
+      </c>
+      <c r="D20" s="24">
         <f t="shared" si="0"/>
-        <v>3.7594586303621393E-4</v>
-      </c>
-      <c r="F19" s="24"/>
-    </row>
-    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="24">
-        <v>11</v>
-      </c>
-      <c r="D20" s="26">
-        <f>_xlfn.BINOM.DIST(C20,$B$5,$B$7,FALSE)</f>
         <v>5.1561933343767179E-7</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="26">
+        <f t="shared" si="1"/>
+        <v>5.1561933343767179E-5</v>
+      </c>
+      <c r="F20" s="22"/>
+    </row>
+    <row r="21" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="22">
+        <v>12</v>
+      </c>
+      <c r="D21" s="24">
         <f t="shared" si="0"/>
-        <v>5.1561933343767179E-5</v>
-      </c>
-      <c r="F20" s="24"/>
-    </row>
-    <row r="21" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="24">
-        <v>12</v>
-      </c>
-      <c r="D21" s="26">
-        <f>_xlfn.BINOM.DIST(C21,$B$5,$B$7,FALSE)</f>
         <v>6.4810252834935858E-8</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="26">
+        <f t="shared" si="1"/>
+        <v>6.4810252834935854E-6</v>
+      </c>
+      <c r="F21" s="22"/>
+    </row>
+    <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="22">
+        <v>13</v>
+      </c>
+      <c r="D22" s="24">
         <f t="shared" si="0"/>
-        <v>6.4810252834935854E-6</v>
-      </c>
-      <c r="F21" s="24"/>
-    </row>
-    <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="24">
-        <v>13</v>
-      </c>
-      <c r="D22" s="26">
-        <f>_xlfn.BINOM.DIST(C22,$B$5,$B$7,FALSE)</f>
         <v>7.5178786141321831E-9</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="26">
+        <f t="shared" si="1"/>
+        <v>7.5178786141321831E-7</v>
+      </c>
+      <c r="F22" s="22"/>
+    </row>
+    <row r="23" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="22">
+        <v>14</v>
+      </c>
+      <c r="D23" s="24">
         <f t="shared" si="0"/>
-        <v>7.5178786141321831E-7</v>
-      </c>
-      <c r="F22" s="24"/>
-    </row>
-    <row r="23" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A23" s="24"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="24">
-        <v>14</v>
-      </c>
-      <c r="D23" s="26">
-        <f>_xlfn.BINOM.DIST(C23,$B$5,$B$7,FALSE)</f>
         <v>8.0958298685673403E-10</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="26">
+        <f t="shared" si="1"/>
+        <v>8.0958298685673407E-8</v>
+      </c>
+      <c r="F23" s="22"/>
+    </row>
+    <row r="24" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="22">
+        <v>15</v>
+      </c>
+      <c r="D24" s="24">
         <f t="shared" si="0"/>
-        <v>8.0958298685673407E-8</v>
-      </c>
-      <c r="F23" s="24"/>
-    </row>
-    <row r="24" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A24" s="24"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="24">
-        <v>15</v>
-      </c>
-      <c r="D24" s="26">
-        <f>_xlfn.BINOM.DIST(C24,$B$5,$B$7,FALSE)</f>
         <v>8.1351083909126844E-11</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="26">
+        <f t="shared" si="1"/>
+        <v>8.1351083909126843E-9</v>
+      </c>
+      <c r="F24" s="22"/>
+    </row>
+    <row r="25" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="22">
+        <v>16</v>
+      </c>
+      <c r="D25" s="24">
         <f t="shared" si="0"/>
-        <v>8.1351083909126843E-9</v>
-      </c>
-      <c r="F24" s="24"/>
-    </row>
-    <row r="25" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="24">
-        <v>16</v>
-      </c>
-      <c r="D25" s="26">
-        <f>_xlfn.BINOM.DIST(C25,$B$5,$B$7,FALSE)</f>
         <v>7.6618862102178657E-12</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="26">
+        <f t="shared" si="1"/>
+        <v>7.6618862102178661E-10</v>
+      </c>
+      <c r="F25" s="22"/>
+    </row>
+    <row r="26" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A26" s="22"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="22">
+        <v>17</v>
+      </c>
+      <c r="D26" s="24">
         <f t="shared" si="0"/>
-        <v>7.6618862102178661E-10</v>
-      </c>
-      <c r="F25" s="24"/>
-    </row>
-    <row r="26" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A26" s="24"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="24">
-        <v>17</v>
-      </c>
-      <c r="D26" s="26">
-        <f>_xlfn.BINOM.DIST(C26,$B$5,$B$7,FALSE)</f>
         <v>6.7901316795576178E-13</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="26">
+        <f t="shared" si="1"/>
+        <v>6.7901316795576177E-11</v>
+      </c>
+      <c r="F26" s="22"/>
+    </row>
+    <row r="27" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A27" s="22"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="22">
+        <v>18</v>
+      </c>
+      <c r="D27" s="24">
         <f t="shared" si="0"/>
-        <v>6.7901316795576177E-11</v>
-      </c>
-      <c r="F26" s="24"/>
-    </row>
-    <row r="27" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A27" s="24"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="24">
-        <v>18</v>
-      </c>
-      <c r="D27" s="26">
-        <f>_xlfn.BINOM.DIST(C27,$B$5,$B$7,FALSE)</f>
         <v>5.6819338267892825E-14</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27" s="26">
+        <f t="shared" si="1"/>
+        <v>5.6819338267892821E-12</v>
+      </c>
+      <c r="F27" s="22"/>
+    </row>
+    <row r="28" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="22">
+        <v>19</v>
+      </c>
+      <c r="D28" s="24">
         <f t="shared" si="0"/>
-        <v>5.6819338267892821E-12</v>
-      </c>
-      <c r="F27" s="24"/>
-    </row>
-    <row r="28" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A28" s="24"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="24">
-        <v>19</v>
-      </c>
-      <c r="D28" s="26">
-        <f>_xlfn.BINOM.DIST(C28,$B$5,$B$7,FALSE)</f>
         <v>4.503312520517573E-15</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="26">
+        <f t="shared" si="1"/>
+        <v>4.5033125205175732E-13</v>
+      </c>
+      <c r="F28" s="22"/>
+    </row>
+    <row r="29" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="22">
+        <v>20</v>
+      </c>
+      <c r="D29" s="24">
         <f t="shared" si="0"/>
-        <v>4.5033125205175732E-13</v>
-      </c>
-      <c r="F28" s="24"/>
-    </row>
-    <row r="29" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A29" s="24"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="24">
-        <v>20</v>
-      </c>
-      <c r="D29" s="26">
-        <f>_xlfn.BINOM.DIST(C29,$B$5,$B$7,FALSE)</f>
         <v>3.3899291468909116E-16</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E29" s="26">
+        <f t="shared" si="1"/>
+        <v>3.3899291468909115E-14</v>
+      </c>
+      <c r="F29" s="22"/>
+    </row>
+    <row r="30" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A30" s="22"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="22">
+        <v>21</v>
+      </c>
+      <c r="D30" s="24">
         <f t="shared" si="0"/>
-        <v>3.3899291468909115E-14</v>
-      </c>
-      <c r="F29" s="24"/>
-    </row>
-    <row r="30" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A30" s="24"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="24">
-        <v>21</v>
-      </c>
-      <c r="D30" s="26">
-        <f>_xlfn.BINOM.DIST(C30,$B$5,$B$7,FALSE)</f>
         <v>2.4297346408716622E-17</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E30" s="26">
+        <f t="shared" si="1"/>
+        <v>2.4297346408716622E-15</v>
+      </c>
+      <c r="F30" s="22"/>
+    </row>
+    <row r="31" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A31" s="22"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="22">
+        <v>22</v>
+      </c>
+      <c r="D31" s="24">
         <f t="shared" si="0"/>
-        <v>2.4297346408716622E-15</v>
-      </c>
-      <c r="F30" s="24"/>
-    </row>
-    <row r="31" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A31" s="24"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="24">
-        <v>22</v>
-      </c>
-      <c r="D31" s="26">
-        <f>_xlfn.BINOM.DIST(C31,$B$5,$B$7,FALSE)</f>
         <v>1.6619679707275736E-18</v>
       </c>
-      <c r="E31" s="28">
+      <c r="E31" s="26">
+        <f t="shared" si="1"/>
+        <v>1.6619679707275737E-16</v>
+      </c>
+      <c r="F31" s="22"/>
+    </row>
+    <row r="32" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A32" s="22"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="22">
+        <v>23</v>
+      </c>
+      <c r="D32" s="24">
         <f t="shared" si="0"/>
-        <v>1.6619679707275737E-16</v>
-      </c>
-      <c r="F31" s="24"/>
-    </row>
-    <row r="32" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A32" s="24"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="24">
-        <v>23</v>
-      </c>
-      <c r="D32" s="26">
-        <f>_xlfn.BINOM.DIST(C32,$B$5,$B$7,FALSE)</f>
         <v>1.0871268985778672E-19</v>
       </c>
-      <c r="E32" s="28">
+      <c r="E32" s="26">
+        <f t="shared" si="1"/>
+        <v>1.0871268985778671E-17</v>
+      </c>
+      <c r="F32" s="22"/>
+    </row>
+    <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A33" s="22"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="22">
+        <v>24</v>
+      </c>
+      <c r="D33" s="24">
         <f t="shared" si="0"/>
-        <v>1.0871268985778671E-17</v>
-      </c>
-      <c r="F32" s="24"/>
-    </row>
-    <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A33" s="24"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="24">
-        <v>24</v>
-      </c>
-      <c r="D33" s="26">
-        <f>_xlfn.BINOM.DIST(C33,$B$5,$B$7,FALSE)</f>
         <v>6.8132346517183502E-21</v>
       </c>
-      <c r="E33" s="28">
+      <c r="E33" s="26">
+        <f t="shared" si="1"/>
+        <v>6.8132346517183502E-19</v>
+      </c>
+      <c r="F33" s="22"/>
+    </row>
+    <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A34" s="22"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="22">
+        <v>25</v>
+      </c>
+      <c r="D34" s="24">
         <f t="shared" si="0"/>
-        <v>6.8132346517183502E-19</v>
-      </c>
-      <c r="F33" s="24"/>
-    </row>
-    <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A34" s="24"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="24">
-        <v>25</v>
-      </c>
-      <c r="D34" s="26">
-        <f>_xlfn.BINOM.DIST(C34,$B$5,$B$7,FALSE)</f>
         <v>4.0982323774103544E-22</v>
       </c>
-      <c r="E34" s="28">
+      <c r="E34" s="26">
+        <f t="shared" si="1"/>
+        <v>4.0982323774103542E-20</v>
+      </c>
+      <c r="F34" s="22"/>
+    </row>
+    <row r="35" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A35" s="22"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="22">
+        <v>26</v>
+      </c>
+      <c r="D35" s="24">
         <f t="shared" si="0"/>
-        <v>4.0982323774103542E-20</v>
-      </c>
-      <c r="F34" s="24"/>
-    </row>
-    <row r="35" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A35" s="24"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="24">
-        <v>26</v>
-      </c>
-      <c r="D35" s="26">
-        <f>_xlfn.BINOM.DIST(C35,$B$5,$B$7,FALSE)</f>
         <v>2.3697653563401112E-23</v>
       </c>
-      <c r="E35" s="28">
+      <c r="E35" s="26">
+        <f t="shared" si="1"/>
+        <v>2.3697653563401112E-21</v>
+      </c>
+      <c r="F35" s="22"/>
+    </row>
+    <row r="36" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A36" s="22"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="22">
+        <v>27</v>
+      </c>
+      <c r="D36" s="24">
         <f t="shared" si="0"/>
-        <v>2.3697653563401112E-21</v>
-      </c>
-      <c r="F35" s="24"/>
-    </row>
-    <row r="36" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A36" s="24"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="24">
-        <v>27</v>
-      </c>
-      <c r="D36" s="26">
-        <f>_xlfn.BINOM.DIST(C36,$B$5,$B$7,FALSE)</f>
         <v>1.3192361534569751E-24</v>
       </c>
-      <c r="E36" s="28">
+      <c r="E36" s="26">
+        <f t="shared" si="1"/>
+        <v>1.319236153456975E-22</v>
+      </c>
+      <c r="F36" s="22"/>
+    </row>
+    <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A37" s="22"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="22">
+        <v>28</v>
+      </c>
+      <c r="D37" s="24">
         <f t="shared" si="0"/>
-        <v>1.319236153456975E-22</v>
-      </c>
-      <c r="F36" s="24"/>
-    </row>
-    <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A37" s="24"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="24">
-        <v>28</v>
-      </c>
-      <c r="D37" s="26">
-        <f>_xlfn.BINOM.DIST(C37,$B$5,$B$7,FALSE)</f>
         <v>7.0801800263059569E-26</v>
       </c>
-      <c r="E37" s="28">
+      <c r="E37" s="26">
+        <f t="shared" si="1"/>
+        <v>7.0801800263059573E-24</v>
+      </c>
+      <c r="F37" s="22"/>
+    </row>
+    <row r="38" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A38" s="22"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="22">
+        <v>29</v>
+      </c>
+      <c r="D38" s="24">
         <f t="shared" si="0"/>
-        <v>7.0801800263059573E-24</v>
-      </c>
-      <c r="F37" s="24"/>
-    </row>
-    <row r="38" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A38" s="24"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="24">
-        <v>29</v>
-      </c>
-      <c r="D38" s="26">
-        <f>_xlfn.BINOM.DIST(C38,$B$5,$B$7,FALSE)</f>
         <v>3.6679625360281311E-27</v>
       </c>
-      <c r="E38" s="28">
+      <c r="E38" s="26">
+        <f t="shared" si="1"/>
+        <v>3.6679625360281311E-25</v>
+      </c>
+      <c r="F38" s="22"/>
+    </row>
+    <row r="39" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A39" s="22"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="22">
+        <v>30</v>
+      </c>
+      <c r="D39" s="24">
         <f t="shared" si="0"/>
-        <v>3.6679625360281311E-25</v>
-      </c>
-      <c r="F38" s="24"/>
-    </row>
-    <row r="39" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A39" s="24"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="24">
-        <v>30</v>
-      </c>
-      <c r="D39" s="26">
-        <f>_xlfn.BINOM.DIST(C39,$B$5,$B$7,FALSE)</f>
         <v>1.8364580095854267E-28</v>
       </c>
-      <c r="E39" s="28">
+      <c r="E39" s="26">
+        <f t="shared" si="1"/>
+        <v>1.8364580095854268E-26</v>
+      </c>
+      <c r="F39" s="22"/>
+    </row>
+    <row r="40" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A40" s="22"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="22">
+        <v>31</v>
+      </c>
+      <c r="D40" s="24">
         <f t="shared" si="0"/>
-        <v>1.8364580095854268E-26</v>
-      </c>
-      <c r="F39" s="24"/>
-    </row>
-    <row r="40" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A40" s="24"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="24">
-        <v>31</v>
-      </c>
-      <c r="D40" s="26">
-        <f>_xlfn.BINOM.DIST(C40,$B$5,$B$7,FALSE)</f>
         <v>8.8960134146603584E-30</v>
       </c>
-      <c r="E40" s="28">
-        <f t="shared" si="0"/>
+      <c r="E40" s="26">
+        <f t="shared" si="1"/>
         <v>8.8960134146603584E-28</v>
       </c>
-      <c r="F40" s="24"/>
+      <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A41" s="24"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="24">
+      <c r="A41" s="22"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="22">
         <v>32</v>
       </c>
-      <c r="D41" s="26">
-        <f>_xlfn.BINOM.DIST(C41,$B$5,$B$7,FALSE)</f>
+      <c r="D41" s="24">
+        <f t="shared" ref="D41:D72" si="2">_xlfn.BINOM.DIST(C41,$B$5,$B$7,FALSE)</f>
         <v>4.173691083354898E-31</v>
       </c>
-      <c r="E41" s="28">
-        <f t="shared" si="0"/>
+      <c r="E41" s="26">
+        <f t="shared" si="1"/>
         <v>4.1736910833548978E-29</v>
       </c>
-      <c r="F41" s="24"/>
+      <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A42" s="24"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="24">
+      <c r="A42" s="22"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="22">
         <v>33</v>
       </c>
-      <c r="D42" s="26">
-        <f>_xlfn.BINOM.DIST(C42,$B$5,$B$7,FALSE)</f>
+      <c r="D42" s="24">
+        <f t="shared" si="2"/>
         <v>1.8983658783664369E-32</v>
       </c>
-      <c r="E42" s="28">
-        <f t="shared" si="0"/>
+      <c r="E42" s="26">
+        <f t="shared" si="1"/>
         <v>1.8983658783664369E-30</v>
       </c>
-      <c r="F42" s="24"/>
+      <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A43" s="24"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="24">
+      <c r="A43" s="22"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="22">
         <v>34</v>
       </c>
-      <c r="D43" s="26">
-        <f>_xlfn.BINOM.DIST(C43,$B$5,$B$7,FALSE)</f>
+      <c r="D43" s="24">
+        <f t="shared" si="2"/>
         <v>8.3786344459899075E-34</v>
       </c>
-      <c r="E43" s="28">
-        <f t="shared" si="0"/>
+      <c r="E43" s="26">
+        <f t="shared" si="1"/>
         <v>8.3786344459899072E-32</v>
       </c>
-      <c r="F43" s="24"/>
+      <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A44" s="24"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="24">
+      <c r="A44" s="22"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="22">
         <v>35</v>
       </c>
-      <c r="D44" s="26">
-        <f>_xlfn.BINOM.DIST(C44,$B$5,$B$7,FALSE)</f>
+      <c r="D44" s="24">
+        <f t="shared" si="2"/>
         <v>3.5915018857666425E-35</v>
       </c>
-      <c r="E44" s="28">
-        <f t="shared" si="0"/>
+      <c r="E44" s="26">
+        <f t="shared" si="1"/>
         <v>3.5915018857666422E-33</v>
       </c>
-      <c r="F44" s="24"/>
+      <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A45" s="24"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="24">
+      <c r="A45" s="22"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="22">
         <v>36</v>
       </c>
-      <c r="D45" s="26">
-        <f>_xlfn.BINOM.DIST(C45,$B$5,$B$7,FALSE)</f>
+      <c r="D45" s="24">
+        <f t="shared" si="2"/>
         <v>1.4963842699163115E-36</v>
       </c>
-      <c r="E45" s="28">
-        <f t="shared" si="0"/>
+      <c r="E45" s="26">
+        <f t="shared" si="1"/>
         <v>1.4963842699163114E-34</v>
       </c>
-      <c r="F45" s="24"/>
+      <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A46" s="24"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="24">
+      <c r="A46" s="22"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="22">
         <v>37</v>
       </c>
-      <c r="D46" s="26">
-        <f>_xlfn.BINOM.DIST(C46,$B$5,$B$7,FALSE)</f>
+      <c r="D46" s="24">
+        <f t="shared" si="2"/>
         <v>6.0647032943099109E-38</v>
       </c>
-      <c r="E46" s="28">
-        <f t="shared" si="0"/>
+      <c r="E46" s="26">
+        <f t="shared" si="1"/>
         <v>6.0647032943099103E-36</v>
       </c>
-      <c r="F46" s="24"/>
+      <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A47" s="24"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="24">
+      <c r="A47" s="22"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="22">
         <v>38</v>
       </c>
-      <c r="D47" s="26">
-        <f>_xlfn.BINOM.DIST(C47,$B$5,$B$7,FALSE)</f>
+      <c r="D47" s="24">
+        <f t="shared" si="2"/>
         <v>2.392724513364463E-39</v>
       </c>
-      <c r="E47" s="28">
-        <f t="shared" si="0"/>
+      <c r="E47" s="26">
+        <f t="shared" si="1"/>
         <v>2.3927245133644632E-37</v>
       </c>
-      <c r="F47" s="24"/>
+      <c r="F47" s="22"/>
     </row>
     <row r="48" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A48" s="24"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="24">
+      <c r="A48" s="22"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="22">
         <v>39</v>
       </c>
-      <c r="D48" s="26">
-        <f>_xlfn.BINOM.DIST(C48,$B$5,$B$7,FALSE)</f>
+      <c r="D48" s="24">
+        <f t="shared" si="2"/>
         <v>9.1958820833434412E-41</v>
       </c>
-      <c r="E48" s="28">
-        <f t="shared" si="0"/>
+      <c r="E48" s="26">
+        <f t="shared" si="1"/>
         <v>9.1958820833434414E-39</v>
       </c>
-      <c r="F48" s="24"/>
+      <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A49" s="24"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="24">
+      <c r="A49" s="22"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="22">
         <v>40</v>
       </c>
-      <c r="D49" s="26">
-        <f>_xlfn.BINOM.DIST(C49,$B$5,$B$7,FALSE)</f>
+      <c r="D49" s="24">
+        <f t="shared" si="2"/>
         <v>3.4450636124765756E-42</v>
       </c>
-      <c r="E49" s="28">
-        <f t="shared" si="0"/>
+      <c r="E49" s="26">
+        <f t="shared" si="1"/>
         <v>3.4450636124765755E-40</v>
       </c>
-      <c r="F49" s="24"/>
+      <c r="F49" s="22"/>
     </row>
     <row r="50" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A50" s="24"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="24">
+      <c r="A50" s="22"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="22">
         <v>41</v>
       </c>
-      <c r="D50" s="26">
-        <f>_xlfn.BINOM.DIST(C50,$B$5,$B$7,FALSE)</f>
+      <c r="D50" s="24">
+        <f t="shared" si="2"/>
         <v>1.2588551161749334E-43</v>
       </c>
-      <c r="E50" s="28">
-        <f t="shared" si="0"/>
+      <c r="E50" s="26">
+        <f t="shared" si="1"/>
         <v>1.2588551161749335E-41</v>
       </c>
-      <c r="F50" s="24"/>
+      <c r="F50" s="22"/>
     </row>
     <row r="51" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A51" s="24"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="24">
+      <c r="A51" s="22"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="22">
         <v>42</v>
       </c>
-      <c r="D51" s="26">
-        <f>_xlfn.BINOM.DIST(C51,$B$5,$B$7,FALSE)</f>
+      <c r="D51" s="24">
+        <f t="shared" si="2"/>
         <v>4.4893897755850553E-45</v>
       </c>
-      <c r="E51" s="28">
-        <f t="shared" si="0"/>
+      <c r="E51" s="26">
+        <f t="shared" si="1"/>
         <v>4.489389775585055E-43</v>
       </c>
-      <c r="F51" s="24"/>
+      <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A52" s="24"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="24">
+      <c r="A52" s="22"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="22">
         <v>43</v>
       </c>
-      <c r="D52" s="26">
-        <f>_xlfn.BINOM.DIST(C52,$B$5,$B$7,FALSE)</f>
+      <c r="D52" s="24">
+        <f t="shared" si="2"/>
         <v>1.5634290663504611E-46</v>
       </c>
-      <c r="E52" s="28">
-        <f t="shared" si="0"/>
+      <c r="E52" s="26">
+        <f t="shared" si="1"/>
         <v>1.5634290663504612E-44</v>
       </c>
-      <c r="F52" s="24"/>
+      <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A53" s="24"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="24">
+      <c r="A53" s="22"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="22">
         <v>44</v>
       </c>
-      <c r="D53" s="26">
-        <f>_xlfn.BINOM.DIST(C53,$B$5,$B$7,FALSE)</f>
+      <c r="D53" s="24">
+        <f t="shared" si="2"/>
         <v>5.319652652746889E-48</v>
       </c>
-      <c r="E53" s="28">
-        <f t="shared" si="0"/>
+      <c r="E53" s="26">
+        <f t="shared" si="1"/>
         <v>5.3196526527468888E-46</v>
       </c>
-      <c r="F53" s="24"/>
+      <c r="F53" s="22"/>
     </row>
     <row r="54" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A54" s="24"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="24">
+      <c r="A54" s="22"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="22">
         <v>45</v>
       </c>
-      <c r="D54" s="26">
-        <f>_xlfn.BINOM.DIST(C54,$B$5,$B$7,FALSE)</f>
+      <c r="D54" s="24">
+        <f t="shared" si="2"/>
         <v>1.7694037983677853E-49</v>
       </c>
-      <c r="E54" s="28">
-        <f t="shared" si="0"/>
+      <c r="E54" s="26">
+        <f t="shared" si="1"/>
         <v>1.7694037983677854E-47</v>
       </c>
-      <c r="F54" s="24"/>
+      <c r="F54" s="22"/>
     </row>
     <row r="55" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A55" s="24"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="24">
+      <c r="A55" s="22"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="22">
         <v>46</v>
       </c>
-      <c r="D55" s="26">
-        <f>_xlfn.BINOM.DIST(C55,$B$5,$B$7,FALSE)</f>
+      <c r="D55" s="24">
+        <f t="shared" si="2"/>
         <v>5.7560388352842642E-51</v>
       </c>
-      <c r="E55" s="28">
-        <f t="shared" si="0"/>
+      <c r="E55" s="26">
+        <f t="shared" si="1"/>
         <v>5.7560388352842643E-49</v>
       </c>
-      <c r="F55" s="24"/>
+      <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A56" s="24"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="24">
+      <c r="A56" s="22"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="22">
         <v>47</v>
       </c>
-      <c r="D56" s="26">
-        <f>_xlfn.BINOM.DIST(C56,$B$5,$B$7,FALSE)</f>
+      <c r="D56" s="24">
+        <f t="shared" si="2"/>
         <v>1.8322250830576939E-52</v>
       </c>
-      <c r="E56" s="28">
-        <f t="shared" si="0"/>
+      <c r="E56" s="26">
+        <f t="shared" si="1"/>
         <v>1.8322250830576939E-50</v>
       </c>
-      <c r="F56" s="24"/>
+      <c r="F56" s="22"/>
     </row>
     <row r="57" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A57" s="24"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="24">
+      <c r="A57" s="22"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="22">
         <v>48</v>
       </c>
-      <c r="D57" s="26">
-        <f>_xlfn.BINOM.DIST(C57,$B$5,$B$7,FALSE)</f>
+      <c r="D57" s="24">
+        <f t="shared" si="2"/>
         <v>5.7093794165205334E-54</v>
       </c>
-      <c r="E57" s="28">
-        <f t="shared" si="0"/>
+      <c r="E57" s="26">
+        <f t="shared" si="1"/>
         <v>5.7093794165205334E-52</v>
       </c>
-      <c r="F57" s="24"/>
+      <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A58" s="24"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="24">
+      <c r="A58" s="22"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="22">
         <v>49</v>
       </c>
-      <c r="D58" s="26">
-        <f>_xlfn.BINOM.DIST(C58,$B$5,$B$7,FALSE)</f>
+      <c r="D58" s="24">
+        <f t="shared" si="2"/>
         <v>1.7423783672827291E-55</v>
       </c>
-      <c r="E58" s="28">
-        <f t="shared" si="0"/>
+      <c r="E58" s="26">
+        <f t="shared" si="1"/>
         <v>1.7423783672827292E-53</v>
       </c>
-      <c r="F58" s="24"/>
+      <c r="F58" s="22"/>
     </row>
     <row r="59" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A59" s="24"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="24">
+      <c r="A59" s="22"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="22">
         <v>50</v>
       </c>
-      <c r="D59" s="26">
-        <f>_xlfn.BINOM.DIST(C59,$B$5,$B$7,FALSE)</f>
+      <c r="D59" s="24">
+        <f t="shared" si="2"/>
         <v>5.2097923671365363E-57</v>
       </c>
-      <c r="E59" s="28">
-        <f t="shared" si="0"/>
+      <c r="E59" s="26">
+        <f t="shared" si="1"/>
         <v>5.2097923671365366E-55</v>
       </c>
-      <c r="F59" s="24"/>
+      <c r="F59" s="22"/>
     </row>
     <row r="60" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A60" s="24"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="24">
+      <c r="A60" s="22"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="22">
         <v>51</v>
       </c>
-      <c r="D60" s="26">
-        <f>_xlfn.BINOM.DIST(C60,$B$5,$B$7,FALSE)</f>
+      <c r="D60" s="24">
+        <f t="shared" si="2"/>
         <v>1.526850331999952E-58</v>
       </c>
-      <c r="E60" s="28">
-        <f t="shared" si="0"/>
+      <c r="E60" s="26">
+        <f t="shared" si="1"/>
         <v>1.526850331999952E-56</v>
       </c>
-      <c r="F60" s="24"/>
+      <c r="F60" s="22"/>
     </row>
     <row r="61" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A61" s="24"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="24">
+      <c r="A61" s="22"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="22">
         <v>52</v>
       </c>
-      <c r="D61" s="26">
-        <f>_xlfn.BINOM.DIST(C61,$B$5,$B$7,FALSE)</f>
+      <c r="D61" s="24">
+        <f t="shared" si="2"/>
         <v>4.38770690114916E-60</v>
       </c>
-      <c r="E61" s="28">
-        <f t="shared" si="0"/>
+      <c r="E61" s="26">
+        <f t="shared" si="1"/>
         <v>4.3877069011491599E-58</v>
       </c>
-      <c r="F61" s="24"/>
+      <c r="F61" s="22"/>
     </row>
     <row r="62" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A62" s="24"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="24">
+      <c r="A62" s="22"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="22">
         <v>53</v>
       </c>
-      <c r="D62" s="26">
-        <f>_xlfn.BINOM.DIST(C62,$B$5,$B$7,FALSE)</f>
+      <c r="D62" s="24">
+        <f t="shared" si="2"/>
         <v>1.2368141814769635E-61</v>
       </c>
-      <c r="E62" s="28">
-        <f t="shared" si="0"/>
+      <c r="E62" s="26">
+        <f t="shared" si="1"/>
         <v>1.2368141814769634E-59</v>
       </c>
-      <c r="F62" s="24"/>
+      <c r="F62" s="22"/>
     </row>
     <row r="63" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A63" s="24"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="24">
+      <c r="A63" s="22"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="22">
         <v>54</v>
       </c>
-      <c r="D63" s="26">
-        <f>_xlfn.BINOM.DIST(C63,$B$5,$B$7,FALSE)</f>
+      <c r="D63" s="24">
+        <f t="shared" si="2"/>
         <v>3.4209885577790952E-63</v>
       </c>
-      <c r="E63" s="28">
-        <f t="shared" si="0"/>
+      <c r="E63" s="26">
+        <f t="shared" si="1"/>
         <v>3.4209885577790953E-61</v>
       </c>
-      <c r="F63" s="24"/>
+      <c r="F63" s="22"/>
     </row>
     <row r="64" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A64" s="24"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="24">
+      <c r="A64" s="22"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="22">
         <v>55</v>
       </c>
-      <c r="D64" s="26">
-        <f>_xlfn.BINOM.DIST(C64,$B$5,$B$7,FALSE)</f>
+      <c r="D64" s="24">
+        <f t="shared" si="2"/>
         <v>9.2881247884481973E-65</v>
       </c>
-      <c r="E64" s="28">
-        <f t="shared" si="0"/>
+      <c r="E64" s="26">
+        <f t="shared" si="1"/>
         <v>9.2881247884481971E-63</v>
       </c>
-      <c r="F64" s="24"/>
+      <c r="F64" s="22"/>
     </row>
     <row r="65" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A65" s="24"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="24">
+      <c r="A65" s="22"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="22">
         <v>56</v>
       </c>
-      <c r="D65" s="26">
-        <f>_xlfn.BINOM.DIST(C65,$B$5,$B$7,FALSE)</f>
+      <c r="D65" s="24">
+        <f t="shared" si="2"/>
         <v>2.4761519092896728E-66</v>
       </c>
-      <c r="E65" s="28">
-        <f t="shared" si="0"/>
+      <c r="E65" s="26">
+        <f t="shared" si="1"/>
         <v>2.4761519092896727E-64</v>
       </c>
-      <c r="F65" s="24"/>
+      <c r="F65" s="22"/>
     </row>
     <row r="66" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A66" s="24"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="24">
+      <c r="A66" s="22"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="22">
         <v>57</v>
       </c>
-      <c r="D66" s="26">
-        <f>_xlfn.BINOM.DIST(C66,$B$5,$B$7,FALSE)</f>
+      <c r="D66" s="24">
+        <f t="shared" si="2"/>
         <v>6.4839228050092924E-68</v>
       </c>
-      <c r="E66" s="28">
-        <f t="shared" si="0"/>
+      <c r="E66" s="26">
+        <f t="shared" si="1"/>
         <v>6.4839228050092921E-66</v>
       </c>
-      <c r="F66" s="24"/>
+      <c r="F66" s="22"/>
     </row>
     <row r="67" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A67" s="24"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="24">
+      <c r="A67" s="22"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="22">
         <v>58</v>
       </c>
-      <c r="D67" s="26">
-        <f>_xlfn.BINOM.DIST(C67,$B$5,$B$7,FALSE)</f>
+      <c r="D67" s="24">
+        <f t="shared" si="2"/>
         <v>1.6681817339917529E-69</v>
       </c>
-      <c r="E67" s="28">
-        <f t="shared" si="0"/>
+      <c r="E67" s="26">
+        <f t="shared" si="1"/>
         <v>1.6681817339917528E-67</v>
       </c>
-      <c r="F67" s="24"/>
+      <c r="F67" s="22"/>
     </row>
     <row r="68" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A68" s="24"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="24">
+      <c r="A68" s="22"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="22">
         <v>59</v>
       </c>
-      <c r="D68" s="26">
-        <f>_xlfn.BINOM.DIST(C68,$B$5,$B$7,FALSE)</f>
+      <c r="D68" s="24">
+        <f t="shared" si="2"/>
         <v>4.2181591166884081E-71</v>
       </c>
-      <c r="E68" s="28">
-        <f t="shared" si="0"/>
+      <c r="E68" s="26">
+        <f t="shared" si="1"/>
         <v>4.2181591166884083E-69</v>
       </c>
-      <c r="F68" s="24"/>
+      <c r="F68" s="22"/>
     </row>
     <row r="69" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A69" s="24"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="24">
+      <c r="A69" s="22"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="22">
         <v>60</v>
       </c>
-      <c r="D69" s="26">
-        <f>_xlfn.BINOM.DIST(C69,$B$5,$B$7,FALSE)</f>
+      <c r="D69" s="24">
+        <f t="shared" si="2"/>
         <v>1.048579543337254E-72</v>
       </c>
-      <c r="E69" s="28">
-        <f t="shared" si="0"/>
+      <c r="E69" s="26">
+        <f t="shared" si="1"/>
         <v>1.048579543337254E-70</v>
       </c>
-      <c r="F69" s="24"/>
+      <c r="F69" s="22"/>
     </row>
     <row r="70" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A70" s="24"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="24">
+      <c r="A70" s="22"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="22">
         <v>61</v>
       </c>
-      <c r="D70" s="26">
-        <f>_xlfn.BINOM.DIST(C70,$B$5,$B$7,FALSE)</f>
+      <c r="D70" s="24">
+        <f t="shared" si="2"/>
         <v>2.5632989518063377E-74</v>
       </c>
-      <c r="E70" s="28">
-        <f t="shared" si="0"/>
+      <c r="E70" s="26">
+        <f t="shared" si="1"/>
         <v>2.5632989518063375E-72</v>
       </c>
-      <c r="F70" s="24"/>
+      <c r="F70" s="22"/>
     </row>
     <row r="71" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A71" s="24"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="24">
+      <c r="A71" s="22"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="22">
         <v>62</v>
       </c>
-      <c r="D71" s="26">
-        <f>_xlfn.BINOM.DIST(C71,$B$5,$B$7,FALSE)</f>
+      <c r="D71" s="24">
+        <f t="shared" si="2"/>
         <v>6.1635837508884475E-76</v>
       </c>
-      <c r="E71" s="28">
-        <f t="shared" si="0"/>
+      <c r="E71" s="26">
+        <f t="shared" si="1"/>
         <v>6.1635837508884474E-74</v>
       </c>
-      <c r="F71" s="24"/>
+      <c r="F71" s="22"/>
     </row>
     <row r="72" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A72" s="24"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="24">
+      <c r="A72" s="22"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="22">
         <v>63</v>
       </c>
-      <c r="D72" s="26">
-        <f>_xlfn.BINOM.DIST(C72,$B$5,$B$7,FALSE)</f>
+      <c r="D72" s="24">
+        <f t="shared" si="2"/>
         <v>1.4581979263594061E-77</v>
       </c>
-      <c r="E72" s="28">
-        <f t="shared" si="0"/>
+      <c r="E72" s="26">
+        <f t="shared" si="1"/>
         <v>1.4581979263594062E-75</v>
       </c>
-      <c r="F72" s="24"/>
+      <c r="F72" s="22"/>
     </row>
     <row r="73" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A73" s="24"/>
-      <c r="B73" s="25"/>
-      <c r="C73" s="24">
+      <c r="A73" s="22"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="22">
         <v>64</v>
       </c>
-      <c r="D73" s="26">
-        <f>_xlfn.BINOM.DIST(C73,$B$5,$B$7,FALSE)</f>
+      <c r="D73" s="24">
+        <f t="shared" ref="D73:D104" si="3">_xlfn.BINOM.DIST(C73,$B$5,$B$7,FALSE)</f>
         <v>3.395143973992404E-79</v>
       </c>
-      <c r="E73" s="28">
-        <f t="shared" si="0"/>
+      <c r="E73" s="26">
+        <f t="shared" si="1"/>
         <v>3.3951439739924042E-77</v>
       </c>
-      <c r="F73" s="24"/>
+      <c r="F73" s="22"/>
     </row>
     <row r="74" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A74" s="24"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="24">
+      <c r="A74" s="22"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="22">
         <v>65</v>
       </c>
-      <c r="D74" s="26">
-        <f>_xlfn.BINOM.DIST(C74,$B$5,$B$7,FALSE)</f>
+      <c r="D74" s="24">
+        <f t="shared" si="3"/>
         <v>7.7815207065059143E-81</v>
       </c>
-      <c r="E74" s="28">
-        <f t="shared" ref="E74:E109" si="1">D74*100</f>
+      <c r="E74" s="26">
+        <f t="shared" ref="E74:E109" si="4">D74*100</f>
         <v>7.781520706505914E-79</v>
       </c>
-      <c r="F74" s="24"/>
+      <c r="F74" s="22"/>
     </row>
     <row r="75" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A75" s="24"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="24">
+      <c r="A75" s="22"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="22">
         <v>66</v>
       </c>
-      <c r="D75" s="26">
-        <f>_xlfn.BINOM.DIST(C75,$B$5,$B$7,FALSE)</f>
+      <c r="D75" s="24">
+        <f t="shared" si="3"/>
         <v>1.7560549495227774E-82</v>
       </c>
-      <c r="E75" s="28">
-        <f t="shared" si="1"/>
+      <c r="E75" s="26">
+        <f t="shared" si="4"/>
         <v>1.7560549495227775E-80</v>
       </c>
-      <c r="F75" s="24"/>
+      <c r="F75" s="22"/>
     </row>
     <row r="76" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A76" s="24"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="24">
+      <c r="A76" s="22"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="22">
         <v>67</v>
       </c>
-      <c r="D76" s="26">
-        <f>_xlfn.BINOM.DIST(C76,$B$5,$B$7,FALSE)</f>
+      <c r="D76" s="24">
+        <f t="shared" si="3"/>
         <v>3.9028220998425747E-84</v>
       </c>
-      <c r="E76" s="28">
-        <f t="shared" si="1"/>
+      <c r="E76" s="26">
+        <f t="shared" si="4"/>
         <v>3.9028220998425749E-82</v>
       </c>
-      <c r="F76" s="24"/>
+      <c r="F76" s="22"/>
     </row>
     <row r="77" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A77" s="24"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="24">
+      <c r="A77" s="22"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="22">
         <v>68</v>
       </c>
-      <c r="D77" s="26">
-        <f>_xlfn.BINOM.DIST(C77,$B$5,$B$7,FALSE)</f>
+      <c r="D77" s="24">
+        <f t="shared" si="3"/>
         <v>8.5444315054174741E-86</v>
       </c>
-      <c r="E77" s="28">
-        <f t="shared" si="1"/>
+      <c r="E77" s="26">
+        <f t="shared" si="4"/>
         <v>8.5444315054174741E-84</v>
       </c>
-      <c r="F77" s="24"/>
+      <c r="F77" s="22"/>
     </row>
     <row r="78" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A78" s="24"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="24">
+      <c r="A78" s="22"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="22">
         <v>69</v>
       </c>
-      <c r="D78" s="26">
-        <f>_xlfn.BINOM.DIST(C78,$B$5,$B$7,FALSE)</f>
+      <c r="D78" s="24">
+        <f t="shared" si="3"/>
         <v>1.8430845600793779E-87</v>
       </c>
-      <c r="E78" s="28">
-        <f t="shared" si="1"/>
+      <c r="E78" s="26">
+        <f t="shared" si="4"/>
         <v>1.843084560079378E-85</v>
       </c>
-      <c r="F78" s="24"/>
+      <c r="F78" s="22"/>
     </row>
     <row r="79" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A79" s="24"/>
-      <c r="B79" s="25"/>
-      <c r="C79" s="24">
+      <c r="A79" s="22"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="22">
         <v>70</v>
       </c>
-      <c r="D79" s="26">
-        <f>_xlfn.BINOM.DIST(C79,$B$5,$B$7,FALSE)</f>
+      <c r="D79" s="24">
+        <f t="shared" si="3"/>
         <v>3.9179259642561988E-89</v>
       </c>
-      <c r="E79" s="28">
-        <f t="shared" si="1"/>
+      <c r="E79" s="26">
+        <f t="shared" si="4"/>
         <v>3.9179259642561988E-87</v>
       </c>
-      <c r="F79" s="24"/>
+      <c r="F79" s="22"/>
     </row>
     <row r="80" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A80" s="24"/>
-      <c r="B80" s="25"/>
-      <c r="C80" s="24">
+      <c r="A80" s="22"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="22">
         <v>71</v>
       </c>
-      <c r="D80" s="26">
-        <f>_xlfn.BINOM.DIST(C80,$B$5,$B$7,FALSE)</f>
+      <c r="D80" s="24">
+        <f t="shared" si="3"/>
         <v>8.2092726788795676E-91</v>
       </c>
-      <c r="E80" s="28">
-        <f t="shared" si="1"/>
+      <c r="E80" s="26">
+        <f t="shared" si="4"/>
         <v>8.2092726788795677E-89</v>
       </c>
-      <c r="F80" s="24"/>
+      <c r="F80" s="22"/>
     </row>
     <row r="81" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A81" s="24"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="24">
+      <c r="A81" s="22"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="22">
         <v>72</v>
       </c>
-      <c r="D81" s="26">
-        <f>_xlfn.BINOM.DIST(C81,$B$5,$B$7,FALSE)</f>
+      <c r="D81" s="24">
+        <f t="shared" si="3"/>
         <v>1.6958083411080109E-92</v>
       </c>
-      <c r="E81" s="28">
-        <f t="shared" si="1"/>
+      <c r="E81" s="26">
+        <f t="shared" si="4"/>
         <v>1.6958083411080109E-90</v>
       </c>
-      <c r="F81" s="24"/>
+      <c r="F81" s="22"/>
     </row>
     <row r="82" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A82" s="24"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="24">
+      <c r="A82" s="22"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="22">
         <v>73</v>
       </c>
-      <c r="D82" s="26">
-        <f>_xlfn.BINOM.DIST(C82,$B$5,$B$7,FALSE)</f>
+      <c r="D82" s="24">
+        <f t="shared" si="3"/>
         <v>3.4542696911591388E-94</v>
       </c>
-      <c r="E82" s="28">
-        <f t="shared" si="1"/>
+      <c r="E82" s="26">
+        <f t="shared" si="4"/>
         <v>3.4542696911591385E-92</v>
       </c>
-      <c r="F82" s="24"/>
+      <c r="F82" s="22"/>
     </row>
     <row r="83" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A83" s="24"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="24">
+      <c r="A83" s="22"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="22">
         <v>74</v>
       </c>
-      <c r="D83" s="26">
-        <f>_xlfn.BINOM.DIST(C83,$B$5,$B$7,FALSE)</f>
+      <c r="D83" s="24">
+        <f t="shared" si="3"/>
         <v>6.9394425725105386E-96</v>
       </c>
-      <c r="E83" s="28">
-        <f t="shared" si="1"/>
+      <c r="E83" s="26">
+        <f t="shared" si="4"/>
         <v>6.9394425725105391E-94</v>
       </c>
-      <c r="F83" s="24"/>
+      <c r="F83" s="22"/>
     </row>
     <row r="84" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A84" s="24"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="24">
+      <c r="A84" s="22"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="22">
         <v>75</v>
       </c>
-      <c r="D84" s="26">
-        <f>_xlfn.BINOM.DIST(C84,$B$5,$B$7,FALSE)</f>
+      <c r="D84" s="24">
+        <f t="shared" si="3"/>
         <v>1.3751848883252407E-97</v>
       </c>
-      <c r="E84" s="28">
-        <f t="shared" si="1"/>
+      <c r="E84" s="26">
+        <f t="shared" si="4"/>
         <v>1.3751848883252407E-95</v>
       </c>
-      <c r="F84" s="24"/>
+      <c r="F84" s="22"/>
     </row>
     <row r="85" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A85" s="24"/>
-      <c r="B85" s="25"/>
-      <c r="C85" s="24">
+      <c r="A85" s="22"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="22">
         <v>76</v>
       </c>
-      <c r="D85" s="26">
-        <f>_xlfn.BINOM.DIST(C85,$B$5,$B$7,FALSE)</f>
+      <c r="D85" s="24">
+        <f t="shared" si="3"/>
         <v>2.6887037214582029E-99</v>
       </c>
-      <c r="E85" s="28">
-        <f t="shared" si="1"/>
+      <c r="E85" s="26">
+        <f t="shared" si="4"/>
         <v>2.6887037214582031E-97</v>
       </c>
-      <c r="F85" s="24"/>
+      <c r="F85" s="22"/>
     </row>
     <row r="86" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A86" s="24"/>
-      <c r="B86" s="25"/>
-      <c r="C86" s="24">
+      <c r="A86" s="22"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="22">
         <v>77</v>
       </c>
-      <c r="D86" s="26">
-        <f>_xlfn.BINOM.DIST(C86,$B$5,$B$7,FALSE)</f>
+      <c r="D86" s="24">
+        <f t="shared" si="3"/>
         <v>5.1873473398173952E-101</v>
       </c>
-      <c r="E86" s="28">
-        <f t="shared" si="1"/>
+      <c r="E86" s="26">
+        <f t="shared" si="4"/>
         <v>5.1873473398173952E-99</v>
       </c>
-      <c r="F86" s="24"/>
+      <c r="F86" s="22"/>
     </row>
     <row r="87" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A87" s="24"/>
-      <c r="B87" s="25"/>
-      <c r="C87" s="24">
+      <c r="A87" s="22"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="22">
         <v>78</v>
       </c>
-      <c r="D87" s="26">
-        <f>_xlfn.BINOM.DIST(C87,$B$5,$B$7,FALSE)</f>
+      <c r="D87" s="24">
+        <f t="shared" si="3"/>
         <v>9.8773732286133277E-103</v>
       </c>
-      <c r="E87" s="28">
-        <f t="shared" si="1"/>
+      <c r="E87" s="26">
+        <f t="shared" si="4"/>
         <v>9.8773732286133282E-101</v>
       </c>
-      <c r="F87" s="24"/>
+      <c r="F87" s="22"/>
     </row>
     <row r="88" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A88" s="24"/>
-      <c r="B88" s="25"/>
-      <c r="C88" s="24">
+      <c r="A88" s="22"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="22">
         <v>79</v>
       </c>
-      <c r="D88" s="26">
-        <f>_xlfn.BINOM.DIST(C88,$B$5,$B$7,FALSE)</f>
+      <c r="D88" s="24">
+        <f t="shared" si="3"/>
         <v>1.856533198251311E-104</v>
       </c>
-      <c r="E88" s="28">
-        <f t="shared" si="1"/>
+      <c r="E88" s="26">
+        <f t="shared" si="4"/>
         <v>1.8565331982513111E-102</v>
       </c>
-      <c r="F88" s="24"/>
+      <c r="F88" s="22"/>
     </row>
     <row r="89" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A89" s="24"/>
-      <c r="B89" s="25"/>
-      <c r="C89" s="24">
+      <c r="A89" s="22"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="22">
         <v>80</v>
       </c>
-      <c r="D89" s="26">
-        <f>_xlfn.BINOM.DIST(C89,$B$5,$B$7,FALSE)</f>
+      <c r="D89" s="24">
+        <f t="shared" si="3"/>
         <v>3.4450748589569779E-106</v>
       </c>
-      <c r="E89" s="28">
-        <f t="shared" si="1"/>
+      <c r="E89" s="26">
+        <f t="shared" si="4"/>
         <v>3.4450748589569778E-104</v>
       </c>
-      <c r="F89" s="24"/>
+      <c r="F89" s="22"/>
     </row>
     <row r="90" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A90" s="24"/>
-      <c r="B90" s="25"/>
-      <c r="C90" s="24">
+      <c r="A90" s="22"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="22">
         <v>81</v>
       </c>
-      <c r="D90" s="26">
-        <f>_xlfn.BINOM.DIST(C90,$B$5,$B$7,FALSE)</f>
+      <c r="D90" s="24">
+        <f t="shared" si="3"/>
         <v>6.3124381366704938E-108</v>
       </c>
-      <c r="E90" s="28">
-        <f t="shared" si="1"/>
+      <c r="E90" s="26">
+        <f t="shared" si="4"/>
         <v>6.3124381366704938E-106</v>
       </c>
-      <c r="F90" s="24"/>
+      <c r="F90" s="22"/>
     </row>
     <row r="91" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A91" s="24"/>
-      <c r="B91" s="25"/>
-      <c r="C91" s="24">
+      <c r="A91" s="22"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="22">
         <v>82</v>
       </c>
-      <c r="D91" s="26">
-        <f>_xlfn.BINOM.DIST(C91,$B$5,$B$7,FALSE)</f>
+      <c r="D91" s="24">
+        <f t="shared" si="3"/>
         <v>1.1422582645539701E-109</v>
       </c>
-      <c r="E91" s="28">
-        <f t="shared" si="1"/>
+      <c r="E91" s="26">
+        <f t="shared" si="4"/>
         <v>1.1422582645539701E-107</v>
       </c>
-      <c r="F91" s="24"/>
+      <c r="F91" s="22"/>
     </row>
     <row r="92" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A92" s="24"/>
-      <c r="B92" s="25"/>
-      <c r="C92" s="24">
+      <c r="A92" s="22"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="22">
         <v>83</v>
       </c>
-      <c r="D92" s="26">
-        <f>_xlfn.BINOM.DIST(C92,$B$5,$B$7,FALSE)</f>
+      <c r="D92" s="24">
+        <f t="shared" si="3"/>
         <v>2.0415722532047731E-111</v>
       </c>
-      <c r="E92" s="28">
-        <f t="shared" si="1"/>
+      <c r="E92" s="26">
+        <f t="shared" si="4"/>
         <v>2.0415722532047732E-109</v>
       </c>
-      <c r="F92" s="24"/>
+      <c r="F92" s="22"/>
     </row>
     <row r="93" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A93" s="24"/>
-      <c r="B93" s="25"/>
-      <c r="C93" s="24">
+      <c r="A93" s="22"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="22">
         <v>84</v>
       </c>
-      <c r="D93" s="26">
-        <f>_xlfn.BINOM.DIST(C93,$B$5,$B$7,FALSE)</f>
+      <c r="D93" s="24">
+        <f t="shared" si="3"/>
         <v>3.6046366497337488E-113</v>
       </c>
-      <c r="E93" s="28">
-        <f t="shared" si="1"/>
+      <c r="E93" s="26">
+        <f t="shared" si="4"/>
         <v>3.6046366497337485E-111</v>
       </c>
-      <c r="F93" s="24"/>
+      <c r="F93" s="22"/>
     </row>
     <row r="94" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A94" s="24"/>
-      <c r="B94" s="25"/>
-      <c r="C94" s="24">
+      <c r="A94" s="22"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="22">
         <v>85</v>
       </c>
-      <c r="D94" s="26">
-        <f>_xlfn.BINOM.DIST(C94,$B$5,$B$7,FALSE)</f>
+      <c r="D94" s="24">
+        <f t="shared" si="3"/>
         <v>6.2880510226433899E-115</v>
       </c>
-      <c r="E94" s="28">
-        <f t="shared" si="1"/>
+      <c r="E94" s="26">
+        <f t="shared" si="4"/>
         <v>6.2880510226433904E-113</v>
       </c>
-      <c r="F94" s="24"/>
+      <c r="F94" s="22"/>
     </row>
     <row r="95" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A95" s="24"/>
-      <c r="B95" s="25"/>
-      <c r="C95" s="24">
+      <c r="A95" s="22"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="22">
         <v>86</v>
       </c>
-      <c r="D95" s="26">
-        <f>_xlfn.BINOM.DIST(C95,$B$5,$B$7,FALSE)</f>
+      <c r="D95" s="24">
+        <f t="shared" si="3"/>
         <v>1.0838982958518373E-116</v>
       </c>
-      <c r="E95" s="28">
-        <f t="shared" si="1"/>
+      <c r="E95" s="26">
+        <f t="shared" si="4"/>
         <v>1.0838982958518374E-114</v>
       </c>
-      <c r="F95" s="24"/>
+      <c r="F95" s="22"/>
     </row>
     <row r="96" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A96" s="24"/>
-      <c r="B96" s="25"/>
-      <c r="C96" s="24">
+      <c r="A96" s="22"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="22">
         <v>87</v>
       </c>
-      <c r="D96" s="26">
-        <f>_xlfn.BINOM.DIST(C96,$B$5,$B$7,FALSE)</f>
+      <c r="D96" s="24">
+        <f t="shared" si="3"/>
         <v>1.8464503038354872E-118</v>
       </c>
-      <c r="E96" s="28">
-        <f t="shared" si="1"/>
+      <c r="E96" s="26">
+        <f t="shared" si="4"/>
         <v>1.8464503038354871E-116</v>
       </c>
-      <c r="F96" s="24"/>
+      <c r="F96" s="22"/>
     </row>
     <row r="97" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A97" s="24"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="24">
+      <c r="A97" s="22"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="22">
         <v>88</v>
       </c>
-      <c r="D97" s="26">
-        <f>_xlfn.BINOM.DIST(C97,$B$5,$B$7,FALSE)</f>
+      <c r="D97" s="24">
+        <f t="shared" si="3"/>
         <v>3.1089997294974397E-120</v>
       </c>
-      <c r="E97" s="28">
-        <f t="shared" si="1"/>
+      <c r="E97" s="26">
+        <f t="shared" si="4"/>
         <v>3.1089997294974396E-118</v>
       </c>
-      <c r="F97" s="24"/>
+      <c r="F97" s="22"/>
     </row>
     <row r="98" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A98" s="24"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="24">
+      <c r="A98" s="22"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="22">
         <v>89</v>
       </c>
-      <c r="D98" s="26">
-        <f>_xlfn.BINOM.DIST(C98,$B$5,$B$7,FALSE)</f>
+      <c r="D98" s="24">
+        <f t="shared" si="3"/>
         <v>5.1748024723550508E-122</v>
       </c>
-      <c r="E98" s="28">
-        <f t="shared" si="1"/>
+      <c r="E98" s="26">
+        <f t="shared" si="4"/>
         <v>5.1748024723550506E-120</v>
       </c>
-      <c r="F98" s="24"/>
+      <c r="F98" s="22"/>
     </row>
     <row r="99" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A99" s="24"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="24">
+      <c r="A99" s="22"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="22">
         <v>90</v>
       </c>
-      <c r="D99" s="26">
-        <f>_xlfn.BINOM.DIST(C99,$B$5,$B$7,FALSE)</f>
+      <c r="D99" s="24">
+        <f t="shared" si="3"/>
         <v>8.5155305027002863E-124</v>
       </c>
-      <c r="E99" s="28">
-        <f t="shared" si="1"/>
+      <c r="E99" s="26">
+        <f t="shared" si="4"/>
         <v>8.515530502700286E-122</v>
       </c>
-      <c r="F99" s="24"/>
+      <c r="F99" s="22"/>
     </row>
     <row r="100" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A100" s="24"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="24">
+      <c r="A100" s="22"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="22">
         <v>91</v>
       </c>
-      <c r="D100" s="26">
-        <f>_xlfn.BINOM.DIST(C100,$B$5,$B$7,FALSE)</f>
+      <c r="D100" s="24">
+        <f t="shared" si="3"/>
         <v>1.3855687373626904E-125</v>
       </c>
-      <c r="E100" s="28">
-        <f t="shared" si="1"/>
+      <c r="E100" s="26">
+        <f t="shared" si="4"/>
         <v>1.3855687373626905E-123</v>
       </c>
-      <c r="F100" s="24"/>
+      <c r="F100" s="22"/>
     </row>
     <row r="101" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A101" s="24"/>
-      <c r="B101" s="25"/>
-      <c r="C101" s="24">
+      <c r="A101" s="22"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="22">
         <v>92</v>
       </c>
-      <c r="D101" s="26">
-        <f>_xlfn.BINOM.DIST(C101,$B$5,$B$7,FALSE)</f>
+      <c r="D101" s="24">
+        <f t="shared" si="3"/>
         <v>2.2294374961123272E-127</v>
       </c>
-      <c r="E101" s="28">
-        <f t="shared" si="1"/>
+      <c r="E101" s="26">
+        <f t="shared" si="4"/>
         <v>2.2294374961123273E-125</v>
       </c>
-      <c r="F101" s="24"/>
+      <c r="F101" s="22"/>
     </row>
     <row r="102" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A102" s="24"/>
-      <c r="B102" s="25"/>
-      <c r="C102" s="24">
+      <c r="A102" s="22"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="22">
         <v>93</v>
       </c>
-      <c r="D102" s="26">
-        <f>_xlfn.BINOM.DIST(C102,$B$5,$B$7,FALSE)</f>
+      <c r="D102" s="24">
+        <f t="shared" si="3"/>
         <v>3.5478452981373982E-129</v>
       </c>
-      <c r="E102" s="28">
-        <f t="shared" si="1"/>
+      <c r="E102" s="26">
+        <f t="shared" si="4"/>
         <v>3.5478452981373981E-127</v>
       </c>
-      <c r="F102" s="24"/>
+      <c r="F102" s="22"/>
     </row>
     <row r="103" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A103" s="24"/>
-      <c r="B103" s="25"/>
-      <c r="C103" s="24">
+      <c r="A103" s="22"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="22">
         <v>94</v>
       </c>
-      <c r="D103" s="26">
-        <f>_xlfn.BINOM.DIST(C103,$B$5,$B$7,FALSE)</f>
+      <c r="D103" s="24">
+        <f t="shared" si="3"/>
         <v>5.5845269040703051E-131</v>
       </c>
-      <c r="E103" s="28">
-        <f t="shared" si="1"/>
+      <c r="E103" s="26">
+        <f t="shared" si="4"/>
         <v>5.5845269040703054E-129</v>
       </c>
-      <c r="F103" s="24"/>
+      <c r="F103" s="22"/>
     </row>
     <row r="104" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A104" s="24"/>
-      <c r="B104" s="25"/>
-      <c r="C104" s="24">
+      <c r="A104" s="22"/>
+      <c r="B104" s="23"/>
+      <c r="C104" s="22">
         <v>95</v>
       </c>
-      <c r="D104" s="26">
-        <f>_xlfn.BINOM.DIST(C104,$B$5,$B$7,FALSE)</f>
+      <c r="D104" s="24">
+        <f t="shared" si="3"/>
         <v>8.6958005400773098E-133</v>
       </c>
-      <c r="E104" s="28">
-        <f t="shared" si="1"/>
+      <c r="E104" s="26">
+        <f t="shared" si="4"/>
         <v>8.6958005400773103E-131</v>
       </c>
-      <c r="F104" s="24"/>
+      <c r="F104" s="22"/>
     </row>
     <row r="105" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A105" s="24"/>
-      <c r="B105" s="25"/>
-      <c r="C105" s="24">
+      <c r="A105" s="22"/>
+      <c r="B105" s="23"/>
+      <c r="C105" s="22">
         <v>96</v>
       </c>
-      <c r="D105" s="26">
-        <f>_xlfn.BINOM.DIST(C105,$B$5,$B$7,FALSE)</f>
+      <c r="D105" s="24">
+        <f t="shared" ref="D105:D136" si="5">_xlfn.BINOM.DIST(C105,$B$5,$B$7,FALSE)</f>
         <v>1.3396221509245956E-134</v>
       </c>
-      <c r="E105" s="28">
-        <f t="shared" si="1"/>
+      <c r="E105" s="26">
+        <f t="shared" si="4"/>
         <v>1.3396221509245957E-132</v>
       </c>
-      <c r="F105" s="24"/>
+      <c r="F105" s="22"/>
     </row>
     <row r="106" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A106" s="24"/>
-      <c r="B106" s="25"/>
-      <c r="C106" s="24">
+      <c r="A106" s="22"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="22">
         <v>97</v>
       </c>
-      <c r="D106" s="26">
-        <f>_xlfn.BINOM.DIST(C106,$B$5,$B$7,FALSE)</f>
+      <c r="D106" s="24">
+        <f t="shared" si="5"/>
         <v>2.0419812090668565E-136</v>
       </c>
-      <c r="E106" s="28">
-        <f t="shared" si="1"/>
+      <c r="E106" s="26">
+        <f t="shared" si="4"/>
         <v>2.0419812090668565E-134</v>
       </c>
-      <c r="F106" s="24"/>
+      <c r="F106" s="22"/>
     </row>
     <row r="107" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A107" s="24"/>
-      <c r="B107" s="25"/>
-      <c r="C107" s="24">
+      <c r="A107" s="22"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="22">
         <v>98</v>
       </c>
-      <c r="D107" s="26">
-        <f>_xlfn.BINOM.DIST(C107,$B$5,$B$7,FALSE)</f>
+      <c r="D107" s="24">
+        <f t="shared" si="5"/>
         <v>3.0800939845661061E-138</v>
       </c>
-      <c r="E107" s="28">
-        <f t="shared" si="1"/>
+      <c r="E107" s="26">
+        <f t="shared" si="4"/>
         <v>3.0800939845661062E-136</v>
       </c>
-      <c r="F107" s="24"/>
+      <c r="F107" s="22"/>
     </row>
     <row r="108" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A108" s="24"/>
-      <c r="B108" s="25"/>
-      <c r="C108" s="24">
+      <c r="A108" s="22"/>
+      <c r="B108" s="23"/>
+      <c r="C108" s="22">
         <v>99</v>
       </c>
-      <c r="D108" s="26">
-        <f>_xlfn.BINOM.DIST(C108,$B$5,$B$7,FALSE)</f>
+      <c r="D108" s="24">
+        <f t="shared" si="5"/>
         <v>4.5979495329410354E-140</v>
       </c>
-      <c r="E108" s="28">
-        <f t="shared" si="1"/>
+      <c r="E108" s="26">
+        <f t="shared" si="4"/>
         <v>4.5979495329410352E-138</v>
       </c>
-      <c r="F108" s="24"/>
+      <c r="F108" s="22"/>
     </row>
     <row r="109" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A109" s="24"/>
-      <c r="B109" s="25"/>
-      <c r="C109" s="24">
+      <c r="A109" s="22"/>
+      <c r="B109" s="23"/>
+      <c r="C109" s="22">
         <v>100</v>
       </c>
-      <c r="D109" s="26">
-        <f>_xlfn.BINOM.DIST(C109,$B$5,$B$7,FALSE)</f>
+      <c r="D109" s="24">
+        <f t="shared" si="5"/>
         <v>6.7935492023750554E-142</v>
       </c>
-      <c r="E109" s="28">
-        <f t="shared" si="1"/>
+      <c r="E109" s="26">
+        <f t="shared" si="4"/>
         <v>6.7935492023750555E-140</v>
       </c>
-      <c r="F109" s="24"/>
+      <c r="F109" s="22"/>
     </row>
     <row r="110" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A110" s="24"/>
-      <c r="B110" s="25"/>
-      <c r="C110" s="24"/>
-      <c r="D110" s="26"/>
-      <c r="E110" s="28"/>
-      <c r="F110" s="24"/>
+      <c r="A110" s="22"/>
+      <c r="B110" s="23"/>
+      <c r="C110" s="22"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="22"/>
     </row>
     <row r="111" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A111" s="24"/>
-      <c r="B111" s="25"/>
-      <c r="C111" s="24"/>
-      <c r="D111" s="26"/>
-      <c r="E111" s="28"/>
-      <c r="F111" s="24"/>
+      <c r="A111" s="22"/>
+      <c r="B111" s="23"/>
+      <c r="C111" s="22"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="26"/>
+      <c r="F111" s="22"/>
     </row>
     <row r="112" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A112" s="24"/>
-      <c r="B112" s="25"/>
-      <c r="C112" s="24"/>
-      <c r="D112" s="26"/>
-      <c r="E112" s="28"/>
-      <c r="F112" s="24"/>
+      <c r="A112" s="22"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="26"/>
+      <c r="F112" s="22"/>
     </row>
     <row r="113" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A113" s="24"/>
-      <c r="B113" s="25"/>
-      <c r="C113" s="24"/>
-      <c r="D113" s="26"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="24"/>
+      <c r="A113" s="22"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="26"/>
+      <c r="F113" s="22"/>
     </row>
     <row r="114" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A114" s="24"/>
-      <c r="B114" s="25"/>
-      <c r="C114" s="24"/>
-      <c r="D114" s="26"/>
-      <c r="E114" s="28"/>
-      <c r="F114" s="24"/>
+      <c r="A114" s="22"/>
+      <c r="B114" s="23"/>
+      <c r="C114" s="22"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="26"/>
+      <c r="F114" s="22"/>
     </row>
     <row r="115" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A115" s="24"/>
-      <c r="B115" s="25"/>
-      <c r="C115" s="24"/>
-      <c r="D115" s="26"/>
-      <c r="E115" s="28"/>
-      <c r="F115" s="24"/>
+      <c r="A115" s="22"/>
+      <c r="B115" s="23"/>
+      <c r="C115" s="22"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="26"/>
+      <c r="F115" s="22"/>
     </row>
     <row r="116" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A116" s="24"/>
-      <c r="B116" s="25"/>
-      <c r="C116" s="24"/>
-      <c r="D116" s="26"/>
-      <c r="E116" s="28"/>
-      <c r="F116" s="24"/>
+      <c r="A116" s="22"/>
+      <c r="B116" s="23"/>
+      <c r="C116" s="22"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="26"/>
+      <c r="F116" s="22"/>
     </row>
     <row r="117" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A117" s="24"/>
-      <c r="B117" s="25"/>
-      <c r="C117" s="24"/>
-      <c r="D117" s="26"/>
-      <c r="E117" s="28"/>
-      <c r="F117" s="24"/>
+      <c r="A117" s="22"/>
+      <c r="B117" s="23"/>
+      <c r="C117" s="22"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="26"/>
+      <c r="F117" s="22"/>
     </row>
     <row r="118" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A118" s="24"/>
-      <c r="B118" s="25"/>
-      <c r="C118" s="24"/>
-      <c r="D118" s="26"/>
-      <c r="E118" s="28"/>
-      <c r="F118" s="24"/>
+      <c r="A118" s="22"/>
+      <c r="B118" s="23"/>
+      <c r="C118" s="22"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="26"/>
+      <c r="F118" s="22"/>
     </row>
     <row r="119" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A119" s="24"/>
-      <c r="B119" s="25"/>
-      <c r="C119" s="24"/>
-      <c r="D119" s="26"/>
-      <c r="E119" s="28"/>
-      <c r="F119" s="24"/>
+      <c r="A119" s="22"/>
+      <c r="B119" s="23"/>
+      <c r="C119" s="22"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="26"/>
+      <c r="F119" s="22"/>
     </row>
     <row r="120" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A120" s="24"/>
-      <c r="B120" s="25"/>
-      <c r="C120" s="24"/>
-      <c r="D120" s="26"/>
-      <c r="E120" s="28"/>
-      <c r="F120" s="24"/>
+      <c r="A120" s="22"/>
+      <c r="B120" s="23"/>
+      <c r="C120" s="22"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="26"/>
+      <c r="F120" s="22"/>
     </row>
     <row r="121" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A121" s="24"/>
-      <c r="B121" s="25"/>
-      <c r="C121" s="24"/>
-      <c r="D121" s="26"/>
-      <c r="E121" s="28"/>
-      <c r="F121" s="24"/>
+      <c r="A121" s="22"/>
+      <c r="B121" s="23"/>
+      <c r="C121" s="22"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="26"/>
+      <c r="F121" s="22"/>
     </row>
     <row r="122" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A122" s="24"/>
-      <c r="B122" s="25"/>
-      <c r="C122" s="24"/>
-      <c r="D122" s="26"/>
-      <c r="E122" s="28"/>
-      <c r="F122" s="24"/>
+      <c r="A122" s="22"/>
+      <c r="B122" s="23"/>
+      <c r="C122" s="22"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="26"/>
+      <c r="F122" s="22"/>
     </row>
     <row r="123" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A123" s="24"/>
-      <c r="B123" s="25"/>
-      <c r="C123" s="24"/>
-      <c r="D123" s="26"/>
-      <c r="E123" s="28"/>
-      <c r="F123" s="24"/>
+      <c r="A123" s="22"/>
+      <c r="B123" s="23"/>
+      <c r="C123" s="22"/>
+      <c r="D123" s="24"/>
+      <c r="E123" s="26"/>
+      <c r="F123" s="22"/>
     </row>
     <row r="124" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A124" s="24"/>
-      <c r="B124" s="25"/>
-      <c r="C124" s="24"/>
-      <c r="D124" s="26"/>
-      <c r="E124" s="28"/>
-      <c r="F124" s="24"/>
+      <c r="A124" s="22"/>
+      <c r="B124" s="23"/>
+      <c r="C124" s="22"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="26"/>
+      <c r="F124" s="22"/>
     </row>
     <row r="125" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A125" s="24"/>
-      <c r="B125" s="25"/>
-      <c r="C125" s="24"/>
-      <c r="D125" s="26"/>
-      <c r="E125" s="28"/>
-      <c r="F125" s="24"/>
+      <c r="A125" s="22"/>
+      <c r="B125" s="23"/>
+      <c r="C125" s="22"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="26"/>
+      <c r="F125" s="22"/>
     </row>
     <row r="126" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A126" s="24"/>
-      <c r="B126" s="25"/>
-      <c r="C126" s="24"/>
-      <c r="D126" s="26"/>
-      <c r="E126" s="28"/>
-      <c r="F126" s="24"/>
+      <c r="A126" s="22"/>
+      <c r="B126" s="23"/>
+      <c r="C126" s="22"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="26"/>
+      <c r="F126" s="22"/>
     </row>
     <row r="127" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A127" s="24"/>
-      <c r="B127" s="25"/>
-      <c r="C127" s="24"/>
-      <c r="D127" s="26"/>
-      <c r="E127" s="28"/>
-      <c r="F127" s="24"/>
+      <c r="A127" s="22"/>
+      <c r="B127" s="23"/>
+      <c r="C127" s="22"/>
+      <c r="D127" s="24"/>
+      <c r="E127" s="26"/>
+      <c r="F127" s="22"/>
     </row>
     <row r="128" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A128" s="24"/>
-      <c r="B128" s="25"/>
-      <c r="C128" s="24"/>
-      <c r="D128" s="26"/>
-      <c r="E128" s="28"/>
-      <c r="F128" s="24"/>
+      <c r="A128" s="22"/>
+      <c r="B128" s="23"/>
+      <c r="C128" s="22"/>
+      <c r="D128" s="24"/>
+      <c r="E128" s="26"/>
+      <c r="F128" s="22"/>
     </row>
     <row r="129" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A129" s="24"/>
-      <c r="B129" s="25"/>
-      <c r="C129" s="24"/>
-      <c r="D129" s="26"/>
-      <c r="E129" s="28"/>
-      <c r="F129" s="24"/>
+      <c r="A129" s="22"/>
+      <c r="B129" s="23"/>
+      <c r="C129" s="22"/>
+      <c r="D129" s="24"/>
+      <c r="E129" s="26"/>
+      <c r="F129" s="22"/>
     </row>
     <row r="130" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A130" s="24"/>
-      <c r="B130" s="25"/>
-      <c r="C130" s="24"/>
-      <c r="D130" s="26"/>
-      <c r="E130" s="28"/>
-      <c r="F130" s="24"/>
+      <c r="A130" s="22"/>
+      <c r="B130" s="23"/>
+      <c r="C130" s="22"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="26"/>
+      <c r="F130" s="22"/>
     </row>
     <row r="131" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A131" s="24"/>
-      <c r="B131" s="25"/>
-      <c r="C131" s="24"/>
-      <c r="D131" s="26"/>
-      <c r="E131" s="28"/>
-      <c r="F131" s="24"/>
+      <c r="A131" s="22"/>
+      <c r="B131" s="23"/>
+      <c r="C131" s="22"/>
+      <c r="D131" s="24"/>
+      <c r="E131" s="26"/>
+      <c r="F131" s="22"/>
     </row>
     <row r="132" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A132" s="24"/>
-      <c r="B132" s="25"/>
-      <c r="C132" s="24"/>
-      <c r="D132" s="26"/>
-      <c r="E132" s="28"/>
-      <c r="F132" s="24"/>
+      <c r="A132" s="22"/>
+      <c r="B132" s="23"/>
+      <c r="C132" s="22"/>
+      <c r="D132" s="24"/>
+      <c r="E132" s="26"/>
+      <c r="F132" s="22"/>
     </row>
     <row r="133" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A133" s="24"/>
-      <c r="B133" s="25"/>
-      <c r="C133" s="24"/>
-      <c r="D133" s="26"/>
-      <c r="E133" s="28"/>
-      <c r="F133" s="24"/>
+      <c r="A133" s="22"/>
+      <c r="B133" s="23"/>
+      <c r="C133" s="22"/>
+      <c r="D133" s="24"/>
+      <c r="E133" s="26"/>
+      <c r="F133" s="22"/>
     </row>
     <row r="134" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A134" s="24"/>
-      <c r="B134" s="25"/>
-      <c r="C134" s="24"/>
-      <c r="D134" s="26"/>
-      <c r="E134" s="28"/>
-      <c r="F134" s="24"/>
+      <c r="A134" s="22"/>
+      <c r="B134" s="23"/>
+      <c r="C134" s="22"/>
+      <c r="D134" s="24"/>
+      <c r="E134" s="26"/>
+      <c r="F134" s="22"/>
     </row>
     <row r="135" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A135" s="24"/>
-      <c r="B135" s="25"/>
-      <c r="C135" s="24"/>
-      <c r="D135" s="26"/>
-      <c r="E135" s="28"/>
-      <c r="F135" s="24"/>
+      <c r="A135" s="22"/>
+      <c r="B135" s="23"/>
+      <c r="C135" s="22"/>
+      <c r="D135" s="24"/>
+      <c r="E135" s="26"/>
+      <c r="F135" s="22"/>
     </row>
     <row r="136" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A136" s="24"/>
-      <c r="B136" s="25"/>
-      <c r="C136" s="24"/>
-      <c r="D136" s="26"/>
-      <c r="E136" s="28"/>
-      <c r="F136" s="24"/>
+      <c r="A136" s="22"/>
+      <c r="B136" s="23"/>
+      <c r="C136" s="22"/>
+      <c r="D136" s="24"/>
+      <c r="E136" s="26"/>
+      <c r="F136" s="22"/>
     </row>
     <row r="137" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A137" s="24"/>
-      <c r="B137" s="25"/>
-      <c r="C137" s="24"/>
-      <c r="D137" s="26"/>
-      <c r="E137" s="28"/>
-      <c r="F137" s="24"/>
+      <c r="A137" s="22"/>
+      <c r="B137" s="23"/>
+      <c r="C137" s="22"/>
+      <c r="D137" s="24"/>
+      <c r="E137" s="26"/>
+      <c r="F137" s="22"/>
     </row>
     <row r="138" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A138" s="24"/>
-      <c r="B138" s="25"/>
-      <c r="C138" s="24"/>
-      <c r="D138" s="26"/>
-      <c r="E138" s="28"/>
-      <c r="F138" s="24"/>
+      <c r="A138" s="22"/>
+      <c r="B138" s="23"/>
+      <c r="C138" s="22"/>
+      <c r="D138" s="24"/>
+      <c r="E138" s="26"/>
+      <c r="F138" s="22"/>
     </row>
     <row r="139" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A139" s="24"/>
-      <c r="B139" s="25"/>
-      <c r="C139" s="24"/>
-      <c r="D139" s="26"/>
-      <c r="E139" s="28"/>
-      <c r="F139" s="24"/>
+      <c r="A139" s="22"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="22"/>
+      <c r="D139" s="24"/>
+      <c r="E139" s="26"/>
+      <c r="F139" s="22"/>
     </row>
     <row r="140" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A140" s="24"/>
-      <c r="B140" s="25"/>
-      <c r="C140" s="24"/>
-      <c r="D140" s="26"/>
-      <c r="E140" s="28"/>
-      <c r="F140" s="24"/>
+      <c r="A140" s="22"/>
+      <c r="B140" s="23"/>
+      <c r="C140" s="22"/>
+      <c r="D140" s="24"/>
+      <c r="E140" s="26"/>
+      <c r="F140" s="22"/>
     </row>
     <row r="141" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A141" s="24"/>
-      <c r="B141" s="25"/>
-      <c r="C141" s="24"/>
-      <c r="D141" s="26"/>
-      <c r="E141" s="28"/>
-      <c r="F141" s="24"/>
+      <c r="A141" s="22"/>
+      <c r="B141" s="23"/>
+      <c r="C141" s="22"/>
+      <c r="D141" s="24"/>
+      <c r="E141" s="26"/>
+      <c r="F141" s="22"/>
     </row>
     <row r="142" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A142" s="24"/>
-      <c r="B142" s="25"/>
-      <c r="C142" s="24"/>
-      <c r="D142" s="26"/>
-      <c r="E142" s="28"/>
-      <c r="F142" s="24"/>
+      <c r="A142" s="22"/>
+      <c r="B142" s="23"/>
+      <c r="C142" s="22"/>
+      <c r="D142" s="24"/>
+      <c r="E142" s="26"/>
+      <c r="F142" s="22"/>
     </row>
     <row r="143" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A143" s="24"/>
-      <c r="B143" s="25"/>
-      <c r="C143" s="24"/>
-      <c r="D143" s="26"/>
-      <c r="E143" s="28"/>
-      <c r="F143" s="24"/>
+      <c r="A143" s="22"/>
+      <c r="B143" s="23"/>
+      <c r="C143" s="22"/>
+      <c r="D143" s="24"/>
+      <c r="E143" s="26"/>
+      <c r="F143" s="22"/>
     </row>
     <row r="144" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A144" s="24"/>
-      <c r="B144" s="25"/>
-      <c r="C144" s="24"/>
-      <c r="D144" s="26"/>
-      <c r="E144" s="28"/>
-      <c r="F144" s="24"/>
+      <c r="A144" s="22"/>
+      <c r="B144" s="23"/>
+      <c r="C144" s="22"/>
+      <c r="D144" s="24"/>
+      <c r="E144" s="26"/>
+      <c r="F144" s="22"/>
     </row>
     <row r="145" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A145" s="24"/>
-      <c r="B145" s="25"/>
-      <c r="C145" s="24"/>
-      <c r="D145" s="26"/>
-      <c r="E145" s="28"/>
-      <c r="F145" s="24"/>
+      <c r="A145" s="22"/>
+      <c r="B145" s="23"/>
+      <c r="C145" s="22"/>
+      <c r="D145" s="24"/>
+      <c r="E145" s="26"/>
+      <c r="F145" s="22"/>
     </row>
     <row r="146" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A146" s="24"/>
-      <c r="B146" s="25"/>
-      <c r="C146" s="24"/>
-      <c r="D146" s="26"/>
-      <c r="E146" s="28"/>
-      <c r="F146" s="24"/>
+      <c r="A146" s="22"/>
+      <c r="B146" s="23"/>
+      <c r="C146" s="22"/>
+      <c r="D146" s="24"/>
+      <c r="E146" s="26"/>
+      <c r="F146" s="22"/>
     </row>
     <row r="147" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A147" s="24"/>
-      <c r="B147" s="25"/>
-      <c r="C147" s="24"/>
-      <c r="D147" s="26"/>
-      <c r="E147" s="28"/>
-      <c r="F147" s="24"/>
+      <c r="A147" s="22"/>
+      <c r="B147" s="23"/>
+      <c r="C147" s="22"/>
+      <c r="D147" s="24"/>
+      <c r="E147" s="26"/>
+      <c r="F147" s="22"/>
     </row>
     <row r="148" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A148" s="24"/>
-      <c r="B148" s="25"/>
-      <c r="C148" s="24"/>
-      <c r="D148" s="26"/>
-      <c r="E148" s="28"/>
-      <c r="F148" s="24"/>
+      <c r="A148" s="22"/>
+      <c r="B148" s="23"/>
+      <c r="C148" s="22"/>
+      <c r="D148" s="24"/>
+      <c r="E148" s="26"/>
+      <c r="F148" s="22"/>
     </row>
     <row r="149" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A149" s="24"/>
-      <c r="B149" s="25"/>
-      <c r="C149" s="24"/>
-      <c r="D149" s="26"/>
-      <c r="E149" s="28"/>
-      <c r="F149" s="24"/>
+      <c r="A149" s="22"/>
+      <c r="B149" s="23"/>
+      <c r="C149" s="22"/>
+      <c r="D149" s="24"/>
+      <c r="E149" s="26"/>
+      <c r="F149" s="22"/>
     </row>
     <row r="150" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A150" s="24"/>
-      <c r="B150" s="25"/>
-      <c r="C150" s="24"/>
-      <c r="D150" s="26"/>
-      <c r="E150" s="28"/>
-      <c r="F150" s="24"/>
+      <c r="A150" s="22"/>
+      <c r="B150" s="23"/>
+      <c r="C150" s="22"/>
+      <c r="D150" s="24"/>
+      <c r="E150" s="26"/>
+      <c r="F150" s="22"/>
     </row>
     <row r="151" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A151" s="24"/>
-      <c r="B151" s="25"/>
-      <c r="C151" s="24"/>
-      <c r="D151" s="26"/>
-      <c r="E151" s="28"/>
-      <c r="F151" s="24"/>
+      <c r="A151" s="22"/>
+      <c r="B151" s="23"/>
+      <c r="C151" s="22"/>
+      <c r="D151" s="24"/>
+      <c r="E151" s="26"/>
+      <c r="F151" s="22"/>
     </row>
     <row r="152" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A152" s="24"/>
-      <c r="B152" s="25"/>
-      <c r="C152" s="24"/>
-      <c r="D152" s="26"/>
-      <c r="E152" s="28"/>
-      <c r="F152" s="24"/>
+      <c r="A152" s="22"/>
+      <c r="B152" s="23"/>
+      <c r="C152" s="22"/>
+      <c r="D152" s="24"/>
+      <c r="E152" s="26"/>
+      <c r="F152" s="22"/>
     </row>
     <row r="153" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A153" s="24"/>
-      <c r="B153" s="25"/>
-      <c r="C153" s="24"/>
-      <c r="D153" s="26"/>
-      <c r="E153" s="28"/>
-      <c r="F153" s="24"/>
+      <c r="A153" s="22"/>
+      <c r="B153" s="23"/>
+      <c r="C153" s="22"/>
+      <c r="D153" s="24"/>
+      <c r="E153" s="26"/>
+      <c r="F153" s="22"/>
     </row>
     <row r="154" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A154" s="24"/>
-      <c r="B154" s="25"/>
-      <c r="C154" s="24"/>
-      <c r="D154" s="26"/>
-      <c r="E154" s="28"/>
-      <c r="F154" s="24"/>
+      <c r="A154" s="22"/>
+      <c r="B154" s="23"/>
+      <c r="C154" s="22"/>
+      <c r="D154" s="24"/>
+      <c r="E154" s="26"/>
+      <c r="F154" s="22"/>
     </row>
     <row r="155" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A155" s="24"/>
-      <c r="B155" s="25"/>
-      <c r="C155" s="24"/>
-      <c r="D155" s="26"/>
-      <c r="E155" s="28"/>
-      <c r="F155" s="24"/>
+      <c r="A155" s="22"/>
+      <c r="B155" s="23"/>
+      <c r="C155" s="22"/>
+      <c r="D155" s="24"/>
+      <c r="E155" s="26"/>
+      <c r="F155" s="22"/>
     </row>
     <row r="156" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A156" s="24"/>
-      <c r="B156" s="25"/>
-      <c r="C156" s="24"/>
-      <c r="D156" s="26"/>
-      <c r="E156" s="28"/>
-      <c r="F156" s="24"/>
+      <c r="A156" s="22"/>
+      <c r="B156" s="23"/>
+      <c r="C156" s="22"/>
+      <c r="D156" s="24"/>
+      <c r="E156" s="26"/>
+      <c r="F156" s="22"/>
     </row>
     <row r="157" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A157" s="24"/>
-      <c r="B157" s="25"/>
-      <c r="C157" s="24"/>
-      <c r="D157" s="26"/>
-      <c r="E157" s="28"/>
-      <c r="F157" s="24"/>
+      <c r="A157" s="22"/>
+      <c r="B157" s="23"/>
+      <c r="C157" s="22"/>
+      <c r="D157" s="24"/>
+      <c r="E157" s="26"/>
+      <c r="F157" s="22"/>
     </row>
     <row r="158" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A158" s="24"/>
-      <c r="B158" s="25"/>
-      <c r="C158" s="24"/>
-      <c r="D158" s="26"/>
-      <c r="E158" s="28"/>
-      <c r="F158" s="24"/>
+      <c r="A158" s="22"/>
+      <c r="B158" s="23"/>
+      <c r="C158" s="22"/>
+      <c r="D158" s="24"/>
+      <c r="E158" s="26"/>
+      <c r="F158" s="22"/>
     </row>
     <row r="159" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A159" s="24"/>
-      <c r="B159" s="25"/>
-      <c r="C159" s="24"/>
-      <c r="D159" s="26"/>
-      <c r="E159" s="28"/>
-      <c r="F159" s="24"/>
+      <c r="A159" s="22"/>
+      <c r="B159" s="23"/>
+      <c r="C159" s="22"/>
+      <c r="D159" s="24"/>
+      <c r="E159" s="26"/>
+      <c r="F159" s="22"/>
     </row>
     <row r="160" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A160" s="24"/>
-      <c r="B160" s="25"/>
-      <c r="C160" s="24"/>
-      <c r="D160" s="26"/>
-      <c r="E160" s="28"/>
-      <c r="F160" s="24"/>
+      <c r="A160" s="22"/>
+      <c r="B160" s="23"/>
+      <c r="C160" s="22"/>
+      <c r="D160" s="24"/>
+      <c r="E160" s="26"/>
+      <c r="F160" s="22"/>
     </row>
     <row r="161" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A161" s="24"/>
-      <c r="B161" s="25"/>
-      <c r="C161" s="24"/>
-      <c r="D161" s="26"/>
-      <c r="E161" s="28"/>
-      <c r="F161" s="24"/>
+      <c r="A161" s="22"/>
+      <c r="B161" s="23"/>
+      <c r="C161" s="22"/>
+      <c r="D161" s="24"/>
+      <c r="E161" s="26"/>
+      <c r="F161" s="22"/>
     </row>
     <row r="162" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A162" s="24"/>
-      <c r="B162" s="25"/>
-      <c r="C162" s="24"/>
-      <c r="D162" s="26"/>
-      <c r="E162" s="28"/>
-      <c r="F162" s="24"/>
+      <c r="A162" s="22"/>
+      <c r="B162" s="23"/>
+      <c r="C162" s="22"/>
+      <c r="D162" s="24"/>
+      <c r="E162" s="26"/>
+      <c r="F162" s="22"/>
     </row>
     <row r="163" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A163" s="24"/>
-      <c r="B163" s="25"/>
-      <c r="C163" s="24"/>
-      <c r="D163" s="26"/>
-      <c r="E163" s="28"/>
-      <c r="F163" s="24"/>
+      <c r="A163" s="22"/>
+      <c r="B163" s="23"/>
+      <c r="C163" s="22"/>
+      <c r="D163" s="24"/>
+      <c r="E163" s="26"/>
+      <c r="F163" s="22"/>
     </row>
     <row r="164" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A164" s="24"/>
-      <c r="B164" s="25"/>
-      <c r="C164" s="24"/>
-      <c r="D164" s="26"/>
-      <c r="E164" s="28"/>
-      <c r="F164" s="24"/>
+      <c r="A164" s="22"/>
+      <c r="B164" s="23"/>
+      <c r="C164" s="22"/>
+      <c r="D164" s="24"/>
+      <c r="E164" s="26"/>
+      <c r="F164" s="22"/>
     </row>
     <row r="165" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A165" s="24"/>
-      <c r="B165" s="25"/>
-      <c r="C165" s="24"/>
-      <c r="D165" s="26"/>
-      <c r="E165" s="28"/>
-      <c r="F165" s="24"/>
+      <c r="A165" s="22"/>
+      <c r="B165" s="23"/>
+      <c r="C165" s="22"/>
+      <c r="D165" s="24"/>
+      <c r="E165" s="26"/>
+      <c r="F165" s="22"/>
     </row>
     <row r="166" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A166" s="24"/>
-      <c r="B166" s="25"/>
-      <c r="C166" s="24"/>
-      <c r="D166" s="26"/>
-      <c r="E166" s="28"/>
-      <c r="F166" s="24"/>
+      <c r="A166" s="22"/>
+      <c r="B166" s="23"/>
+      <c r="C166" s="22"/>
+      <c r="D166" s="24"/>
+      <c r="E166" s="26"/>
+      <c r="F166" s="22"/>
     </row>
     <row r="167" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A167" s="24"/>
-      <c r="B167" s="25"/>
-      <c r="C167" s="24"/>
-      <c r="D167" s="26"/>
-      <c r="E167" s="28"/>
-      <c r="F167" s="24"/>
+      <c r="A167" s="22"/>
+      <c r="B167" s="23"/>
+      <c r="C167" s="22"/>
+      <c r="D167" s="24"/>
+      <c r="E167" s="26"/>
+      <c r="F167" s="22"/>
     </row>
     <row r="168" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A168" s="24"/>
-      <c r="B168" s="25"/>
-      <c r="C168" s="24"/>
-      <c r="D168" s="26"/>
-      <c r="E168" s="28"/>
-      <c r="F168" s="24"/>
+      <c r="A168" s="22"/>
+      <c r="B168" s="23"/>
+      <c r="C168" s="22"/>
+      <c r="D168" s="24"/>
+      <c r="E168" s="26"/>
+      <c r="F168" s="22"/>
     </row>
     <row r="169" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A169" s="24"/>
-      <c r="B169" s="25"/>
-      <c r="C169" s="24"/>
-      <c r="D169" s="26"/>
-      <c r="E169" s="28"/>
-      <c r="F169" s="24"/>
+      <c r="A169" s="22"/>
+      <c r="B169" s="23"/>
+      <c r="C169" s="22"/>
+      <c r="D169" s="24"/>
+      <c r="E169" s="26"/>
+      <c r="F169" s="22"/>
     </row>
     <row r="170" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A170" s="24"/>
-      <c r="B170" s="25"/>
-      <c r="C170" s="24"/>
-      <c r="D170" s="26"/>
-      <c r="E170" s="28"/>
-      <c r="F170" s="24"/>
+      <c r="A170" s="22"/>
+      <c r="B170" s="23"/>
+      <c r="C170" s="22"/>
+      <c r="D170" s="24"/>
+      <c r="E170" s="26"/>
+      <c r="F170" s="22"/>
     </row>
     <row r="171" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A171" s="24"/>
-      <c r="B171" s="25"/>
-      <c r="C171" s="24"/>
-      <c r="D171" s="26"/>
-      <c r="E171" s="28"/>
-      <c r="F171" s="24"/>
+      <c r="A171" s="22"/>
+      <c r="B171" s="23"/>
+      <c r="C171" s="22"/>
+      <c r="D171" s="24"/>
+      <c r="E171" s="26"/>
+      <c r="F171" s="22"/>
     </row>
     <row r="172" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A172" s="24"/>
-      <c r="B172" s="25"/>
-      <c r="C172" s="24"/>
-      <c r="D172" s="26"/>
-      <c r="E172" s="28"/>
-      <c r="F172" s="24"/>
+      <c r="A172" s="22"/>
+      <c r="B172" s="23"/>
+      <c r="C172" s="22"/>
+      <c r="D172" s="24"/>
+      <c r="E172" s="26"/>
+      <c r="F172" s="22"/>
     </row>
     <row r="173" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A173" s="24"/>
-      <c r="B173" s="25"/>
-      <c r="C173" s="24"/>
-      <c r="D173" s="26"/>
-      <c r="E173" s="28"/>
-      <c r="F173" s="24"/>
+      <c r="A173" s="22"/>
+      <c r="B173" s="23"/>
+      <c r="C173" s="22"/>
+      <c r="D173" s="24"/>
+      <c r="E173" s="26"/>
+      <c r="F173" s="22"/>
     </row>
     <row r="174" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A174" s="24"/>
-      <c r="B174" s="25"/>
-      <c r="C174" s="24"/>
-      <c r="D174" s="26"/>
-      <c r="E174" s="28"/>
-      <c r="F174" s="24"/>
+      <c r="A174" s="22"/>
+      <c r="B174" s="23"/>
+      <c r="C174" s="22"/>
+      <c r="D174" s="24"/>
+      <c r="E174" s="26"/>
+      <c r="F174" s="22"/>
     </row>
     <row r="175" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A175" s="24"/>
-      <c r="B175" s="25"/>
-      <c r="C175" s="24"/>
-      <c r="D175" s="26"/>
-      <c r="E175" s="28"/>
-      <c r="F175" s="24"/>
+      <c r="A175" s="22"/>
+      <c r="B175" s="23"/>
+      <c r="C175" s="22"/>
+      <c r="D175" s="24"/>
+      <c r="E175" s="26"/>
+      <c r="F175" s="22"/>
     </row>
     <row r="176" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A176" s="24"/>
-      <c r="B176" s="25"/>
-      <c r="C176" s="24"/>
-      <c r="D176" s="26"/>
-      <c r="E176" s="28"/>
-      <c r="F176" s="24"/>
+      <c r="A176" s="22"/>
+      <c r="B176" s="23"/>
+      <c r="C176" s="22"/>
+      <c r="D176" s="24"/>
+      <c r="E176" s="26"/>
+      <c r="F176" s="22"/>
     </row>
     <row r="177" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A177" s="24"/>
-      <c r="B177" s="25"/>
-      <c r="C177" s="24"/>
-      <c r="D177" s="26"/>
-      <c r="E177" s="28"/>
-      <c r="F177" s="24"/>
+      <c r="A177" s="22"/>
+      <c r="B177" s="23"/>
+      <c r="C177" s="22"/>
+      <c r="D177" s="24"/>
+      <c r="E177" s="26"/>
+      <c r="F177" s="22"/>
     </row>
     <row r="178" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A178" s="24"/>
-      <c r="B178" s="25"/>
-      <c r="C178" s="24"/>
-      <c r="D178" s="26"/>
-      <c r="E178" s="28"/>
-      <c r="F178" s="24"/>
+      <c r="A178" s="22"/>
+      <c r="B178" s="23"/>
+      <c r="C178" s="22"/>
+      <c r="D178" s="24"/>
+      <c r="E178" s="26"/>
+      <c r="F178" s="22"/>
     </row>
     <row r="179" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A179" s="24"/>
-      <c r="B179" s="25"/>
-      <c r="C179" s="24"/>
-      <c r="D179" s="26"/>
-      <c r="E179" s="28"/>
-      <c r="F179" s="24"/>
+      <c r="A179" s="22"/>
+      <c r="B179" s="23"/>
+      <c r="C179" s="22"/>
+      <c r="D179" s="24"/>
+      <c r="E179" s="26"/>
+      <c r="F179" s="22"/>
     </row>
     <row r="180" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A180" s="24"/>
-      <c r="B180" s="25"/>
-      <c r="C180" s="24"/>
-      <c r="D180" s="26"/>
-      <c r="E180" s="28"/>
-      <c r="F180" s="24"/>
+      <c r="A180" s="22"/>
+      <c r="B180" s="23"/>
+      <c r="C180" s="22"/>
+      <c r="D180" s="24"/>
+      <c r="E180" s="26"/>
+      <c r="F180" s="22"/>
     </row>
     <row r="181" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A181" s="24"/>
-      <c r="B181" s="25"/>
-      <c r="C181" s="24"/>
-      <c r="D181" s="26"/>
-      <c r="E181" s="28"/>
-      <c r="F181" s="24"/>
+      <c r="A181" s="22"/>
+      <c r="B181" s="23"/>
+      <c r="C181" s="22"/>
+      <c r="D181" s="24"/>
+      <c r="E181" s="26"/>
+      <c r="F181" s="22"/>
     </row>
     <row r="182" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A182" s="24"/>
-      <c r="B182" s="25"/>
-      <c r="C182" s="24"/>
-      <c r="D182" s="26"/>
-      <c r="E182" s="28"/>
-      <c r="F182" s="24"/>
+      <c r="A182" s="22"/>
+      <c r="B182" s="23"/>
+      <c r="C182" s="22"/>
+      <c r="D182" s="24"/>
+      <c r="E182" s="26"/>
+      <c r="F182" s="22"/>
     </row>
     <row r="183" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A183" s="24"/>
-      <c r="B183" s="25"/>
-      <c r="C183" s="24"/>
-      <c r="D183" s="26"/>
-      <c r="E183" s="28"/>
-      <c r="F183" s="24"/>
+      <c r="A183" s="22"/>
+      <c r="B183" s="23"/>
+      <c r="C183" s="22"/>
+      <c r="D183" s="24"/>
+      <c r="E183" s="26"/>
+      <c r="F183" s="22"/>
     </row>
     <row r="184" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A184" s="24"/>
-      <c r="B184" s="25"/>
-      <c r="C184" s="24"/>
-      <c r="D184" s="26"/>
-      <c r="E184" s="28"/>
-      <c r="F184" s="24"/>
+      <c r="A184" s="22"/>
+      <c r="B184" s="23"/>
+      <c r="C184" s="22"/>
+      <c r="D184" s="24"/>
+      <c r="E184" s="26"/>
+      <c r="F184" s="22"/>
     </row>
     <row r="185" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A185" s="24"/>
-      <c r="B185" s="25"/>
-      <c r="C185" s="24"/>
-      <c r="D185" s="26"/>
-      <c r="E185" s="28"/>
-      <c r="F185" s="24"/>
+      <c r="A185" s="22"/>
+      <c r="B185" s="23"/>
+      <c r="C185" s="22"/>
+      <c r="D185" s="24"/>
+      <c r="E185" s="26"/>
+      <c r="F185" s="22"/>
     </row>
     <row r="186" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A186" s="24"/>
-      <c r="B186" s="25"/>
-      <c r="C186" s="24"/>
-      <c r="D186" s="26"/>
-      <c r="E186" s="28"/>
-      <c r="F186" s="24"/>
+      <c r="A186" s="22"/>
+      <c r="B186" s="23"/>
+      <c r="C186" s="22"/>
+      <c r="D186" s="24"/>
+      <c r="E186" s="26"/>
+      <c r="F186" s="22"/>
     </row>
     <row r="187" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A187" s="24"/>
-      <c r="B187" s="25"/>
-      <c r="C187" s="24"/>
-      <c r="D187" s="26"/>
-      <c r="E187" s="28"/>
-      <c r="F187" s="24"/>
+      <c r="A187" s="22"/>
+      <c r="B187" s="23"/>
+      <c r="C187" s="22"/>
+      <c r="D187" s="24"/>
+      <c r="E187" s="26"/>
+      <c r="F187" s="22"/>
     </row>
     <row r="188" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A188" s="24"/>
-      <c r="B188" s="25"/>
-      <c r="C188" s="24"/>
-      <c r="D188" s="26"/>
-      <c r="E188" s="28"/>
-      <c r="F188" s="24"/>
+      <c r="A188" s="22"/>
+      <c r="B188" s="23"/>
+      <c r="C188" s="22"/>
+      <c r="D188" s="24"/>
+      <c r="E188" s="26"/>
+      <c r="F188" s="22"/>
     </row>
     <row r="189" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A189" s="24"/>
-      <c r="B189" s="25"/>
-      <c r="C189" s="24"/>
-      <c r="D189" s="26"/>
-      <c r="E189" s="28"/>
-      <c r="F189" s="24"/>
+      <c r="A189" s="22"/>
+      <c r="B189" s="23"/>
+      <c r="C189" s="22"/>
+      <c r="D189" s="24"/>
+      <c r="E189" s="26"/>
+      <c r="F189" s="22"/>
     </row>
     <row r="190" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A190" s="24"/>
-      <c r="B190" s="25"/>
-      <c r="C190" s="24"/>
-      <c r="D190" s="26"/>
-      <c r="E190" s="28"/>
-      <c r="F190" s="24"/>
+      <c r="A190" s="22"/>
+      <c r="B190" s="23"/>
+      <c r="C190" s="22"/>
+      <c r="D190" s="24"/>
+      <c r="E190" s="26"/>
+      <c r="F190" s="22"/>
     </row>
     <row r="191" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A191" s="24"/>
-      <c r="B191" s="25"/>
-      <c r="C191" s="24"/>
-      <c r="D191" s="26"/>
-      <c r="E191" s="28"/>
-      <c r="F191" s="24"/>
+      <c r="A191" s="22"/>
+      <c r="B191" s="23"/>
+      <c r="C191" s="22"/>
+      <c r="D191" s="24"/>
+      <c r="E191" s="26"/>
+      <c r="F191" s="22"/>
     </row>
     <row r="192" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A192" s="24"/>
-      <c r="B192" s="25"/>
-      <c r="C192" s="24"/>
-      <c r="D192" s="26"/>
-      <c r="E192" s="28"/>
-      <c r="F192" s="24"/>
+      <c r="A192" s="22"/>
+      <c r="B192" s="23"/>
+      <c r="C192" s="22"/>
+      <c r="D192" s="24"/>
+      <c r="E192" s="26"/>
+      <c r="F192" s="22"/>
     </row>
     <row r="193" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A193" s="24"/>
-      <c r="B193" s="25"/>
-      <c r="C193" s="24"/>
-      <c r="D193" s="26"/>
-      <c r="E193" s="28"/>
-      <c r="F193" s="24"/>
+      <c r="A193" s="22"/>
+      <c r="B193" s="23"/>
+      <c r="C193" s="22"/>
+      <c r="D193" s="24"/>
+      <c r="E193" s="26"/>
+      <c r="F193" s="22"/>
     </row>
     <row r="194" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A194" s="24"/>
-      <c r="B194" s="25"/>
-      <c r="C194" s="24"/>
-      <c r="D194" s="26"/>
-      <c r="E194" s="28"/>
-      <c r="F194" s="24"/>
+      <c r="A194" s="22"/>
+      <c r="B194" s="23"/>
+      <c r="C194" s="22"/>
+      <c r="D194" s="24"/>
+      <c r="E194" s="26"/>
+      <c r="F194" s="22"/>
     </row>
     <row r="195" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A195" s="24"/>
-      <c r="B195" s="25"/>
-      <c r="C195" s="24"/>
-      <c r="D195" s="26"/>
-      <c r="E195" s="28"/>
-      <c r="F195" s="24"/>
+      <c r="A195" s="22"/>
+      <c r="B195" s="23"/>
+      <c r="C195" s="22"/>
+      <c r="D195" s="24"/>
+      <c r="E195" s="26"/>
+      <c r="F195" s="22"/>
     </row>
     <row r="196" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A196" s="24"/>
-      <c r="B196" s="25"/>
-      <c r="C196" s="24"/>
-      <c r="D196" s="26"/>
-      <c r="E196" s="28"/>
-      <c r="F196" s="24"/>
+      <c r="A196" s="22"/>
+      <c r="B196" s="23"/>
+      <c r="C196" s="22"/>
+      <c r="D196" s="24"/>
+      <c r="E196" s="26"/>
+      <c r="F196" s="22"/>
     </row>
     <row r="197" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A197" s="24"/>
-      <c r="B197" s="25"/>
-      <c r="C197" s="24"/>
-      <c r="D197" s="26"/>
-      <c r="E197" s="28"/>
-      <c r="F197" s="24"/>
+      <c r="A197" s="22"/>
+      <c r="B197" s="23"/>
+      <c r="C197" s="22"/>
+      <c r="D197" s="24"/>
+      <c r="E197" s="26"/>
+      <c r="F197" s="22"/>
     </row>
     <row r="198" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A198" s="24"/>
-      <c r="B198" s="25"/>
-      <c r="C198" s="24"/>
-      <c r="D198" s="26"/>
-      <c r="E198" s="28"/>
-      <c r="F198" s="24"/>
+      <c r="A198" s="22"/>
+      <c r="B198" s="23"/>
+      <c r="C198" s="22"/>
+      <c r="D198" s="24"/>
+      <c r="E198" s="26"/>
+      <c r="F198" s="22"/>
     </row>
     <row r="199" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A199" s="24"/>
-      <c r="B199" s="25"/>
-      <c r="C199" s="24"/>
-      <c r="D199" s="26"/>
-      <c r="E199" s="28"/>
-      <c r="F199" s="24"/>
+      <c r="A199" s="22"/>
+      <c r="B199" s="23"/>
+      <c r="C199" s="22"/>
+      <c r="D199" s="24"/>
+      <c r="E199" s="26"/>
+      <c r="F199" s="22"/>
     </row>
     <row r="200" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A200" s="24"/>
-      <c r="B200" s="25"/>
-      <c r="C200" s="24"/>
-      <c r="D200" s="26"/>
-      <c r="E200" s="28"/>
-      <c r="F200" s="24"/>
+      <c r="A200" s="22"/>
+      <c r="B200" s="23"/>
+      <c r="C200" s="22"/>
+      <c r="D200" s="24"/>
+      <c r="E200" s="26"/>
+      <c r="F200" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/spreadsheets/Calculations.xlsx
+++ b/spreadsheets/Calculations.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming_Folder\Cardano\Youtube\Delegation-rewards video\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D53A775-72BA-4EEF-B630-0FA04AD43D52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C91F460-BE40-4E60-8F3C-00C5A9227EC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31B7AC9D-9D33-4366-AB5F-0B01405C06D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Epoch 211" sheetId="1" r:id="rId1"/>
     <sheet name="Epoch 212" sheetId="4" r:id="rId2"/>
-    <sheet name="Reserves-Rewards" sheetId="2" r:id="rId3"/>
-    <sheet name="Probability" sheetId="3" r:id="rId4"/>
+    <sheet name="Epoch 213" sheetId="5" r:id="rId3"/>
+    <sheet name="Reserves-Rewards" sheetId="2" r:id="rId4"/>
+    <sheet name="Probability" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="894">
   <si>
     <t xml:space="preserve">T = </t>
   </si>
@@ -3062,12 +3063,6 @@
     <xf numFmtId="165" fontId="7" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="7" fillId="9" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3146,6 +3141,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4175,6 +4176,1008 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Block assignment probability</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.8430571995494028E-2"/>
+          <c:y val="0.1344236229415105"/>
+          <c:w val="0.92913660302266143"/>
+          <c:h val="0.82424016418731305"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Probability!$E$1:$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="7">
+                  <c:v>%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Probability!$C$9:$C$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="192"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Probability!$E$9:$E$200</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="192"/>
+                <c:pt idx="0">
+                  <c:v>14.567563673616768</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.06824833762392</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.034745104806753</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.355876413730094</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3548878158549247</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2168677375215928</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0319366654482531</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28368382574758971</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.8223284414685822E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4580975947331168E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8040870911179155E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.9013094509485922E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.8514988911405998E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1607515839809243E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5931242948834773E-6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.040352202584074E-7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.4492899874448671E-8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7666525645942198E-9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.9508948020106767E-10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9811236217346114E-11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.8604745029067236E-12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.6134553770217628E-13</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2787511667687301E-14</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.900123096406838E-15</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5180683226651201E-16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1640731350547201E-17</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.5811203059701002E-19</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.0901136092715703E-20</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.166972236254576E-21</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.7522248349256583E-22</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.7568391156424062E-23</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.08504475971499E-24</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.4905728541144E-26</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.7641109962186046E-27</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.1182869751234995E-28</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.1577798388145695E-29</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.1509278555414721E-31</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.1788055390872417E-32</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.5992387252031834E-33</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.8377153226672384E-35</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.7443645990365704E-36</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.7448204109561388E-37</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.9353430188402538E-39</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.5242709849342142E-40</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.5293131644094423E-41</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.4874117998246826E-43</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.6915900394098407E-44</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.0927329457612658E-45</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.342936383963887E-47</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.690463201725139E-48</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.4470597735660414E-50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.4100448614208965E-51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8.8341139317085998E-53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.1764054045490458E-54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.1207236425317635E-55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.8815015095393424E-57</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.3200280976260445E-58</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.4094789262448137E-60</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4472571971352294E-61</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.6686102095912032E-63</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.4805999262127425E-64</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.6176039002677111E-66</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.41658025587424E-67</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.2758673391293139E-69</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.2702090611007169E-70</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.7144982515252771E-72</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.0695518958633264E-73</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.0330530698456329E-75</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8.4728855073146516E-77</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.3321139127791256E-78</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.3259606207237919E-80</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.6914148195672897E-81</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.4586855320794227E-83</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.1589918523897887E-84</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.9713392209116345E-86</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5145278263620376E-88</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.8750202486101125E-89</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.6167909186750362E-91</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.1219607583029504E-92</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.6914710445479785E-94</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.3744968955753226E-96</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.4907819207389325E-97</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.4431861311124784E-99</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7.8550623532462248E-101</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.7702905580102537E-102</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.9419107139779128E-104</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6735407096596297E-106</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.88613238317686E-107</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.054071426994757E-109</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.6141049718439703E-111</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.8096028619630807E-112</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.7589308805212422E-114</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7.7215730455497834E-116</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.5687686467942345E-117</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.1526364067426085E-119</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6.2675798267924206E-121</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.2327782615174258E-122</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.3992542539753459E-124</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.6208293670182481E-126</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8.807672232641999E-128</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.6616678050435695E-129</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F380-41BD-9386-EB8F143821A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="771087631"/>
+        <c:axId val="529170415"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="771087631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="529170415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="529170415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>%</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="771087631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -14570,7 +15573,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -19836,7 +20839,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -20879,10 +21882,13 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -20953,6 +21959,43 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -21531,6 +22574,544 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -22046,7 +23627,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -22548,7 +24129,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -23338,6 +24919,149 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42EB8F65-8413-4A1F-B252-210D9297C701}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>124334</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="A picture containing clock&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC3BB629-753A-49D5-899A-D926097F1093}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10210800" y="3019425"/>
+          <a:ext cx="5953125" cy="2153159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1219656</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47742</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="A picture containing clock&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E99C2E6-CD9F-4BD2-8EF3-7F527F324F5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10210800" y="6010275"/>
+          <a:ext cx="3267531" cy="838317"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>590551</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -23411,7 +25135,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -23752,7 +25476,7 @@
   <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23778,16 +25502,16 @@
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="69"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="67"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="N1" s="5"/>
@@ -23797,18 +25521,18 @@
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="52"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="50"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="N2" s="5"/>
@@ -23818,21 +25542,21 @@
     </row>
     <row r="3" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="37">
         <f>21600 * (1-C7)</f>
         <v>2159.9999999999995</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40" t="s">
+      <c r="D3" s="38"/>
+      <c r="E3" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="52"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="50"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="N3" s="5"/>
@@ -23842,22 +25566,22 @@
     </row>
     <row r="4" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="39">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="42" t="s">
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="54" t="s">
+      <c r="I4" s="52" t="s">
         <v>98</v>
       </c>
       <c r="J4" s="5"/>
@@ -23869,24 +25593,24 @@
     </row>
     <row r="5" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="37">
         <v>0.2</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="43">
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="41">
         <f>C8-C9</f>
         <v>13300000000</v>
       </c>
-      <c r="H5" s="43">
+      <c r="H5" s="41">
         <f>G5*C4</f>
         <v>39900000</v>
       </c>
-      <c r="I5" s="55">
+      <c r="I5" s="53">
         <f>H5*(1-C5)</f>
         <v>31920000</v>
       </c>
@@ -23899,18 +25623,18 @@
     </row>
     <row r="6" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="37">
         <v>150</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="56"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="54"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="N6" s="5"/>
@@ -23920,22 +25644,22 @@
     </row>
     <row r="7" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="37">
         <v>0.9</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40" t="s">
+      <c r="D7" s="38"/>
+      <c r="E7" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="43" t="s">
+      <c r="F7" s="36"/>
+      <c r="G7" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="56"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="54"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="N7" s="5"/>
@@ -23945,23 +25669,23 @@
     </row>
     <row r="8" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="42">
         <v>45000000000</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40" t="s">
+      <c r="D8" s="38"/>
+      <c r="E8" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="45">
+      <c r="F8" s="36"/>
+      <c r="G8" s="43">
         <f>IF(C16 &gt; 0, (I5/(1+C25)) * (C26 + (C28 * C25) * (C26 - (C28 * ((C27 - C26)/C27)))/C27), 0)</f>
         <v>309.86764237060783</v>
       </c>
-      <c r="H8" s="43"/>
-      <c r="I8" s="56"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="54"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="N8" s="5"/>
@@ -23971,20 +25695,20 @@
     </row>
     <row r="9" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="42">
         <v>31700000000</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40" t="s">
+      <c r="D9" s="38"/>
+      <c r="E9" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="56"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="54"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="N9" s="5"/>
@@ -23994,14 +25718,14 @@
     </row>
     <row r="10" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="56"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="54"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="N10" s="5"/>
@@ -24011,20 +25735,20 @@
     </row>
     <row r="11" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="42">
         <v>9870000000</v>
       </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40" t="s">
+      <c r="D11" s="38"/>
+      <c r="E11" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="56"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="54"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="N11" s="5"/>
@@ -24034,20 +25758,20 @@
     </row>
     <row r="12" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="44">
+      <c r="C12" s="42">
         <v>400000</v>
       </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40" t="s">
+      <c r="D12" s="38"/>
+      <c r="E12" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="56"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="54"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="N12" s="5"/>
@@ -24057,20 +25781,20 @@
     </row>
     <row r="13" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="37">
         <v>139000</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40" t="s">
+      <c r="D13" s="38"/>
+      <c r="E13" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="56"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="54"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="N13" s="5"/>
@@ -24080,14 +25804,14 @@
     </row>
     <row r="14" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="56"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="54"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="N14" s="5"/>
@@ -24097,21 +25821,21 @@
     </row>
     <row r="15" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="46">
+      <c r="C15" s="44">
         <f>C3*C18</f>
         <v>8.7537993920972626E-2</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40" t="s">
+      <c r="D15" s="38"/>
+      <c r="E15" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="56"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="54"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="N15" s="5"/>
@@ -24121,20 +25845,20 @@
     </row>
     <row r="16" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="37">
         <v>1</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40" t="s">
+      <c r="D16" s="38"/>
+      <c r="E16" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="57"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="55"/>
       <c r="K16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
@@ -24143,21 +25867,21 @@
     </row>
     <row r="17" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="47">
-        <f>C16/2160</f>
-        <v>4.6296296296296298E-4</v>
-      </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40" t="s">
+      <c r="C17" s="45">
+        <f>C16/C3</f>
+        <v>4.6296296296296303E-4</v>
+      </c>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="57"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="55"/>
       <c r="K17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
@@ -24166,21 +25890,21 @@
     </row>
     <row r="18" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="47">
+      <c r="C18" s="45">
         <f>C12/C11</f>
         <v>4.0526849037487334E-5</v>
       </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40" t="s">
+      <c r="D18" s="38"/>
+      <c r="E18" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="57"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="55"/>
       <c r="K18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
@@ -24189,21 +25913,21 @@
     </row>
     <row r="19" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="39">
+      <c r="C19" s="37">
         <f>IF(C7 &lt; 0.8, C17/C18, 1)</f>
         <v>1</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40" t="s">
+      <c r="D19" s="38"/>
+      <c r="E19" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="38"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="56"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="54"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="N19" s="5"/>
@@ -24213,16 +25937,16 @@
     </row>
     <row r="20" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="43" t="s">
+      <c r="B20" s="51"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="H20" s="43"/>
-      <c r="I20" s="56"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="54"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="N20" s="5"/>
@@ -24232,17 +25956,17 @@
     </row>
     <row r="21" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="45">
+      <c r="B21" s="51"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="43">
         <f>C19*G8</f>
         <v>309.86764237060783</v>
       </c>
-      <c r="H21" s="43"/>
-      <c r="I21" s="56"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="54"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="N21" s="5"/>
@@ -24252,20 +25976,20 @@
     </row>
     <row r="22" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C22" s="39">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40" t="s">
+      <c r="D22" s="38"/>
+      <c r="E22" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="38"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="56"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="54"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="N22" s="5"/>
@@ -24275,23 +25999,23 @@
     </row>
     <row r="23" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="39">
+      <c r="C23" s="37">
         <f>C4*(C8-C9) / 1000000</f>
         <v>39.9</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="38"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="56"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="54"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="N23" s="5"/>
@@ -24301,14 +26025,14 @@
     </row>
     <row r="24" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="56"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="54"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="N24" s="5"/>
@@ -24318,18 +26042,18 @@
     </row>
     <row r="25" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="39">
+      <c r="C25" s="37">
         <v>0.3</v>
       </c>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="56"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="54"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="N25" s="5"/>
@@ -24339,23 +26063,23 @@
     </row>
     <row r="26" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="46">
         <f>C12/C9</f>
         <v>1.2618296529968454E-5</v>
       </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40" t="s">
+      <c r="D26" s="38"/>
+      <c r="E26" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="38"/>
-      <c r="G26" s="49" t="s">
+      <c r="F26" s="36"/>
+      <c r="G26" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="H26" s="42"/>
-      <c r="I26" s="60"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="58"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="N26" s="5"/>
@@ -24365,26 +26089,26 @@
     </row>
     <row r="27" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="50">
+      <c r="C27" s="48">
         <f>1/C6</f>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40" t="s">
+      <c r="D27" s="38"/>
+      <c r="E27" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38" t="s">
+      <c r="F27" s="36"/>
+      <c r="G27" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="H27" s="42">
+      <c r="H27" s="40">
         <f>IF(G21-340 &gt; 0, G21-340, 0)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="52"/>
+      <c r="I27" s="50"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="N27" s="5"/>
@@ -24394,26 +26118,26 @@
     </row>
     <row r="28" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="62">
+      <c r="C28" s="60">
         <f>C13/C9</f>
         <v>4.3848580441640381E-6</v>
       </c>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63" t="s">
+      <c r="D28" s="61"/>
+      <c r="E28" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64" t="s">
+      <c r="F28" s="62"/>
+      <c r="G28" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="H28" s="65">
+      <c r="H28" s="63">
         <f>H27*0.98</f>
         <v>0</v>
       </c>
-      <c r="I28" s="66" t="s">
+      <c r="I28" s="64" t="s">
         <v>105</v>
       </c>
       <c r="J28" s="5"/>
@@ -24462,10 +26186,10 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="37" t="s">
+      <c r="I31" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="J31" s="37"/>
+      <c r="J31" s="35"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="N31" s="5"/>
@@ -24478,10 +26202,10 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="36" t="s">
+      <c r="I32" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="J32" s="36" t="s">
+      <c r="J32" s="34" t="s">
         <v>113</v>
       </c>
       <c r="K32" s="5"/>
@@ -24497,10 +26221,10 @@
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
-      <c r="I33" s="36" t="s">
+      <c r="I33" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="J33" s="36" t="s">
+      <c r="J33" s="34" t="s">
         <v>115</v>
       </c>
       <c r="K33" s="5"/>
@@ -24717,7 +26441,7 @@
   <dimension ref="B7:AE149"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24738,16 +26462,16 @@
   </cols>
   <sheetData>
     <row r="7" spans="2:31" ht="21" x14ac:dyDescent="0.35">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="2:31" ht="21" x14ac:dyDescent="0.35">
@@ -24861,13 +26585,13 @@
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="5"/>
-      <c r="Z13" s="35" t="s">
+      <c r="Z13" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="35"/>
-      <c r="AC13" s="35"/>
-      <c r="AD13" s="35"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="68"/>
+      <c r="AD13" s="68"/>
       <c r="AE13" s="22"/>
     </row>
     <row r="14" spans="2:31" ht="23.25" x14ac:dyDescent="0.35">
@@ -25115,8 +26839,8 @@
         <v>2</v>
       </c>
       <c r="C23" s="16">
-        <f>C22/2160</f>
-        <v>4.6296296296296298E-4</v>
+        <f>C22/C9</f>
+        <v>4.6296296296296303E-4</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
@@ -27117,6 +28841,2410 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715F8DCD-46EB-4054-8827-0116E34D401F}">
+  <dimension ref="B7:AE149"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="B7" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="2:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="B8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="2:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="B9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="6">
+        <f>21600 * (1-C13)</f>
+        <v>4751.9999999999991</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="2:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="B10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="2:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="B11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="10">
+        <f>C14-C15</f>
+        <v>13261000000</v>
+      </c>
+      <c r="H11" s="10">
+        <f>G11*C10</f>
+        <v>39783000</v>
+      </c>
+      <c r="I11" s="11">
+        <f>H11*(1-C11)</f>
+        <v>31826400</v>
+      </c>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="2:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="B12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="6">
+        <v>150</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="2:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="B13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.78</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="5"/>
+      <c r="Z13" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="68"/>
+      <c r="AD13" s="68"/>
+      <c r="AE13" s="22"/>
+    </row>
+    <row r="14" spans="2:31" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="12">
+        <v>45000000000</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="13">
+        <f>IF(C22 &gt; 0, (I11/(1+C31)) * (C32 + (C34 * C31) * (C32 - (C34 * ((C33 - C32)/C33)))/C33), 0)</f>
+        <v>69450.882122523064</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="5"/>
+      <c r="Z14" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA14" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="22"/>
+    </row>
+    <row r="15" spans="2:31" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="12">
+        <f>31700000000 + 39000000</f>
+        <v>31739000000</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="5"/>
+      <c r="Z15" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA15" s="28">
+        <v>4260000</v>
+      </c>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="24"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="22"/>
+    </row>
+    <row r="16" spans="2:31" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B16" s="7"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="5"/>
+      <c r="Z16" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA16" s="28">
+        <v>14000000000</v>
+      </c>
+      <c r="AB16" s="22"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="22"/>
+    </row>
+    <row r="17" spans="2:31" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="12">
+        <v>14000000000</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="5"/>
+      <c r="Z17" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA17" s="28">
+        <f>21600*(1-AA14)</f>
+        <v>4319.9999999999991</v>
+      </c>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="22"/>
+    </row>
+    <row r="18" spans="2:31" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="12">
+        <v>90000000</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="5"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="24"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="22"/>
+    </row>
+    <row r="19" spans="2:31" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="6">
+        <v>300000</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="5"/>
+      <c r="Z19" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA19" s="29">
+        <f>AA15/AA16</f>
+        <v>3.0428571428571429E-4</v>
+      </c>
+      <c r="AB19" s="22"/>
+      <c r="AC19" s="24"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="22"/>
+    </row>
+    <row r="20" spans="2:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="5"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="23"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="24"/>
+      <c r="AD20" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE20" s="22"/>
+    </row>
+    <row r="21" spans="2:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="B21" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="14">
+        <f>C9*C24</f>
+        <v>30.548571428571421</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="5"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="24">
+        <f>_xlfn.BINOM.DIST(AB21,$AA$17,$AA$19,FALSE)</f>
+        <v>0.26863277298773236</v>
+      </c>
+      <c r="AD21" s="25">
+        <f>AC21*100</f>
+        <v>26.863277298773237</v>
+      </c>
+      <c r="AE21" s="5"/>
+    </row>
+    <row r="22" spans="2:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="B22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="6">
+        <v>30</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="5"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="22">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="24">
+        <f t="shared" ref="AC22:AC85" si="0">_xlfn.BINOM.DIST(AB22,$AA$17,$AA$19,FALSE)</f>
+        <v>0.35314733427706629</v>
+      </c>
+      <c r="AD22" s="26">
+        <f t="shared" ref="AD22:AD85" si="1">AC22*100</f>
+        <v>35.314733427706628</v>
+      </c>
+      <c r="AE22" s="22"/>
+    </row>
+    <row r="23" spans="2:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="B23" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="16">
+        <f>C22/C9</f>
+        <v>6.3131313131313148E-3</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="5"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="23"/>
+      <c r="AB23" s="22">
+        <v>2</v>
+      </c>
+      <c r="AC23" s="24">
+        <f t="shared" si="0"/>
+        <v>0.23207176636889745</v>
+      </c>
+      <c r="AD23" s="26">
+        <f t="shared" si="1"/>
+        <v>23.207176636889745</v>
+      </c>
+      <c r="AE23" s="22"/>
+    </row>
+    <row r="24" spans="2:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="B24" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="16">
+        <f>C18/C17</f>
+        <v>6.4285714285714285E-3</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="5"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="23"/>
+      <c r="AB24" s="22">
+        <v>3</v>
+      </c>
+      <c r="AC24" s="24">
+        <f t="shared" si="0"/>
+        <v>0.10164753116938675</v>
+      </c>
+      <c r="AD24" s="26">
+        <f t="shared" si="1"/>
+        <v>10.164753116938675</v>
+      </c>
+      <c r="AE24" s="22"/>
+    </row>
+    <row r="25" spans="2:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="B25" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="6">
+        <f>IF(C13 &lt; 0.8, C23/C24, 1)</f>
+        <v>0.98204264870931568</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="5"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="23"/>
+      <c r="AB25" s="22">
+        <v>4</v>
+      </c>
+      <c r="AC25" s="24">
+        <f t="shared" si="0"/>
+        <v>3.338351119135774E-2</v>
+      </c>
+      <c r="AD25" s="26">
+        <f t="shared" si="1"/>
+        <v>3.338351119135774</v>
+      </c>
+      <c r="AE25" s="22"/>
+    </row>
+    <row r="26" spans="2:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="B26" s="7"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="5"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="23"/>
+      <c r="AB26" s="22">
+        <v>5</v>
+      </c>
+      <c r="AC26" s="24">
+        <f t="shared" si="0"/>
+        <v>8.7691306693096476E-3</v>
+      </c>
+      <c r="AD26" s="26">
+        <f t="shared" si="1"/>
+        <v>0.87691306693096471</v>
+      </c>
+      <c r="AE26" s="22"/>
+    </row>
+    <row r="27" spans="2:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="B27" s="7"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="13">
+        <f>C25*G14</f>
+        <v>68203.728234801005</v>
+      </c>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="5"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="23"/>
+      <c r="AB27" s="22">
+        <v>6</v>
+      </c>
+      <c r="AC27" s="24">
+        <f t="shared" si="0"/>
+        <v>1.9191068919725087E-3</v>
+      </c>
+      <c r="AD27" s="26">
+        <f t="shared" si="1"/>
+        <v>0.19191068919725088</v>
+      </c>
+      <c r="AE27" s="22"/>
+    </row>
+    <row r="28" spans="2:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="B28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="8">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="5"/>
+      <c r="Z28" s="22"/>
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="22">
+        <v>7</v>
+      </c>
+      <c r="AC28" s="24">
+        <f t="shared" si="0"/>
+        <v>3.599103338059581E-4</v>
+      </c>
+      <c r="AD28" s="26">
+        <f t="shared" si="1"/>
+        <v>3.599103338059581E-2</v>
+      </c>
+      <c r="AE28" s="22"/>
+    </row>
+    <row r="29" spans="2:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="B29" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="6">
+        <f>C10*(C14-C15) / 1000000</f>
+        <v>39.783000000000001</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="5"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="23"/>
+      <c r="AB29" s="22">
+        <v>8</v>
+      </c>
+      <c r="AC29" s="24">
+        <f t="shared" si="0"/>
+        <v>5.9046860963779901E-5</v>
+      </c>
+      <c r="AD29" s="26">
+        <f t="shared" si="1"/>
+        <v>5.9046860963779899E-3</v>
+      </c>
+      <c r="AE29" s="22"/>
+    </row>
+    <row r="30" spans="2:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="B30" s="7"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="5"/>
+      <c r="Z30" s="22"/>
+      <c r="AA30" s="23"/>
+      <c r="AB30" s="22">
+        <v>9</v>
+      </c>
+      <c r="AC30" s="24">
+        <f t="shared" si="0"/>
+        <v>8.6088682464115141E-6</v>
+      </c>
+      <c r="AD30" s="26">
+        <f t="shared" si="1"/>
+        <v>8.6088682464115142E-4</v>
+      </c>
+      <c r="AE30" s="22"/>
+    </row>
+    <row r="31" spans="2:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="B31" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="5"/>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="23"/>
+      <c r="AB31" s="22">
+        <v>10</v>
+      </c>
+      <c r="AC31" s="24">
+        <f t="shared" si="0"/>
+        <v>1.1293721255543733E-6</v>
+      </c>
+      <c r="AD31" s="26">
+        <f t="shared" si="1"/>
+        <v>1.1293721255543733E-4</v>
+      </c>
+      <c r="AE31" s="22"/>
+    </row>
+    <row r="32" spans="2:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="B32" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="18">
+        <f>C18/C15</f>
+        <v>2.8356280916222941E-3</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="5"/>
+      <c r="Z32" s="22"/>
+      <c r="AA32" s="23"/>
+      <c r="AB32" s="22">
+        <v>11</v>
+      </c>
+      <c r="AC32" s="24">
+        <f t="shared" si="0"/>
+        <v>1.3465875865343704E-7</v>
+      </c>
+      <c r="AD32" s="26">
+        <f t="shared" si="1"/>
+        <v>1.3465875865343703E-5</v>
+      </c>
+      <c r="AE32" s="22"/>
+    </row>
+    <row r="33" spans="2:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="B33" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="33">
+        <f>1/C12</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H33" s="9">
+        <f>IF(G27-340 &gt; 0, G27-340, 0)</f>
+        <v>67863.728234801005</v>
+      </c>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="Z33" s="22"/>
+      <c r="AA33" s="23"/>
+      <c r="AB33" s="22">
+        <v>12</v>
+      </c>
+      <c r="AC33" s="24">
+        <f t="shared" si="0"/>
+        <v>1.4714407809736893E-8</v>
+      </c>
+      <c r="AD33" s="26">
+        <f t="shared" si="1"/>
+        <v>1.4714407809736893E-6</v>
+      </c>
+      <c r="AE33" s="22"/>
+    </row>
+    <row r="34" spans="2:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="B34" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="20">
+        <f>C19/C15</f>
+        <v>9.4520936387409807E-6</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H34" s="21">
+        <f>H33*0.98</f>
+        <v>66506.45367010498</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J34" s="5"/>
+      <c r="Z34" s="22"/>
+      <c r="AA34" s="23"/>
+      <c r="AB34" s="22">
+        <v>13</v>
+      </c>
+      <c r="AC34" s="24">
+        <f t="shared" si="0"/>
+        <v>1.4838433029767308E-9</v>
+      </c>
+      <c r="AD34" s="26">
+        <f t="shared" si="1"/>
+        <v>1.4838433029767307E-7</v>
+      </c>
+      <c r="AE34" s="22"/>
+    </row>
+    <row r="35" spans="2:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z35" s="22"/>
+      <c r="AA35" s="23"/>
+      <c r="AB35" s="22">
+        <v>14</v>
+      </c>
+      <c r="AC35" s="24">
+        <f t="shared" si="0"/>
+        <v>1.389145587910111E-10</v>
+      </c>
+      <c r="AD35" s="26">
+        <f t="shared" si="1"/>
+        <v>1.389145587910111E-8</v>
+      </c>
+      <c r="AE35" s="22"/>
+    </row>
+    <row r="36" spans="2:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z36" s="22"/>
+      <c r="AA36" s="23"/>
+      <c r="AB36" s="22">
+        <v>15</v>
+      </c>
+      <c r="AC36" s="24">
+        <f t="shared" si="0"/>
+        <v>1.2135100957081645E-11</v>
+      </c>
+      <c r="AD36" s="26">
+        <f t="shared" si="1"/>
+        <v>1.2135100957081646E-9</v>
+      </c>
+      <c r="AE36" s="22"/>
+    </row>
+    <row r="37" spans="2:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z37" s="22"/>
+      <c r="AA37" s="23"/>
+      <c r="AB37" s="22">
+        <v>16</v>
+      </c>
+      <c r="AC37" s="24">
+        <f t="shared" si="0"/>
+        <v>9.9359502182508218E-13</v>
+      </c>
+      <c r="AD37" s="26">
+        <f t="shared" si="1"/>
+        <v>9.9359502182508216E-11</v>
+      </c>
+      <c r="AE37" s="22"/>
+    </row>
+    <row r="38" spans="2:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z38" s="22"/>
+      <c r="AA38" s="23"/>
+      <c r="AB38" s="22">
+        <v>17</v>
+      </c>
+      <c r="AC38" s="24">
+        <f t="shared" si="0"/>
+        <v>7.655006516760561E-14</v>
+      </c>
+      <c r="AD38" s="26">
+        <f t="shared" si="1"/>
+        <v>7.6550065167605603E-12</v>
+      </c>
+      <c r="AE38" s="22"/>
+    </row>
+    <row r="39" spans="2:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z39" s="22"/>
+      <c r="AA39" s="23"/>
+      <c r="AB39" s="22">
+        <v>18</v>
+      </c>
+      <c r="AC39" s="24">
+        <f t="shared" si="0"/>
+        <v>5.5687432997288275E-15</v>
+      </c>
+      <c r="AD39" s="26">
+        <f t="shared" si="1"/>
+        <v>5.5687432997288272E-13</v>
+      </c>
+      <c r="AE39" s="22"/>
+    </row>
+    <row r="40" spans="2:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z40" s="22"/>
+      <c r="AA40" s="23"/>
+      <c r="AB40" s="22">
+        <v>19</v>
+      </c>
+      <c r="AC40" s="24">
+        <f t="shared" si="0"/>
+        <v>3.8369555988536151E-16</v>
+      </c>
+      <c r="AD40" s="26">
+        <f t="shared" si="1"/>
+        <v>3.836955598853615E-14</v>
+      </c>
+      <c r="AE40" s="22"/>
+    </row>
+    <row r="41" spans="2:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z41" s="22"/>
+      <c r="AA41" s="23"/>
+      <c r="AB41" s="22">
+        <v>20</v>
+      </c>
+      <c r="AC41" s="24">
+        <f t="shared" si="0"/>
+        <v>2.510955214222355E-17</v>
+      </c>
+      <c r="AD41" s="26">
+        <f t="shared" si="1"/>
+        <v>2.5109552142223549E-15</v>
+      </c>
+      <c r="AE41" s="22"/>
+    </row>
+    <row r="42" spans="2:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z42" s="22"/>
+      <c r="AA42" s="23"/>
+      <c r="AB42" s="22">
+        <v>21</v>
+      </c>
+      <c r="AC42" s="24">
+        <f t="shared" si="0"/>
+        <v>1.5645910808408802E-18</v>
+      </c>
+      <c r="AD42" s="26">
+        <f t="shared" si="1"/>
+        <v>1.5645910808408802E-16</v>
+      </c>
+      <c r="AE42" s="22"/>
+    </row>
+    <row r="43" spans="2:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z43" s="22"/>
+      <c r="AA43" s="23"/>
+      <c r="AB43" s="22">
+        <v>22</v>
+      </c>
+      <c r="AC43" s="24">
+        <f t="shared" si="0"/>
+        <v>9.3037560334379179E-20</v>
+      </c>
+      <c r="AD43" s="26">
+        <f t="shared" si="1"/>
+        <v>9.3037560334379183E-18</v>
+      </c>
+      <c r="AE43" s="22"/>
+    </row>
+    <row r="44" spans="2:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z44" s="22"/>
+      <c r="AA44" s="23"/>
+      <c r="AB44" s="22">
+        <v>23</v>
+      </c>
+      <c r="AC44" s="24">
+        <f t="shared" si="0"/>
+        <v>5.2906564866665983E-21</v>
+      </c>
+      <c r="AD44" s="26">
+        <f t="shared" si="1"/>
+        <v>5.290656486666598E-19</v>
+      </c>
+      <c r="AE44" s="22"/>
+    </row>
+    <row r="45" spans="2:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z45" s="22"/>
+      <c r="AA45" s="23"/>
+      <c r="AB45" s="22">
+        <v>24</v>
+      </c>
+      <c r="AC45" s="24">
+        <f t="shared" si="0"/>
+        <v>2.8825465444076495E-22</v>
+      </c>
+      <c r="AD45" s="26">
+        <f t="shared" si="1"/>
+        <v>2.8825465444076497E-20</v>
+      </c>
+      <c r="AE45" s="22"/>
+    </row>
+    <row r="46" spans="2:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z46" s="22"/>
+      <c r="AA46" s="23"/>
+      <c r="AB46" s="22">
+        <v>25</v>
+      </c>
+      <c r="AC46" s="24">
+        <f t="shared" si="0"/>
+        <v>1.5073469315395304E-23</v>
+      </c>
+      <c r="AD46" s="26">
+        <f t="shared" si="1"/>
+        <v>1.5073469315395304E-21</v>
+      </c>
+      <c r="AE46" s="22"/>
+    </row>
+    <row r="47" spans="2:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z47" s="22"/>
+      <c r="AA47" s="23"/>
+      <c r="AB47" s="22">
+        <v>26</v>
+      </c>
+      <c r="AC47" s="24">
+        <f t="shared" si="0"/>
+        <v>7.5773203143821581E-25</v>
+      </c>
+      <c r="AD47" s="26">
+        <f t="shared" si="1"/>
+        <v>7.5773203143821584E-23</v>
+      </c>
+      <c r="AE47" s="22"/>
+    </row>
+    <row r="48" spans="2:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z48" s="22"/>
+      <c r="AA48" s="23"/>
+      <c r="AB48" s="22">
+        <v>27</v>
+      </c>
+      <c r="AC48" s="24">
+        <f t="shared" si="0"/>
+        <v>3.6671316713111267E-26</v>
+      </c>
+      <c r="AD48" s="26">
+        <f t="shared" si="1"/>
+        <v>3.6671316713111263E-24</v>
+      </c>
+      <c r="AE48" s="22"/>
+    </row>
+    <row r="49" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z49" s="22"/>
+      <c r="AA49" s="23"/>
+      <c r="AB49" s="22">
+        <v>28</v>
+      </c>
+      <c r="AC49" s="24">
+        <f t="shared" si="0"/>
+        <v>1.7109681259062551E-27</v>
+      </c>
+      <c r="AD49" s="26">
+        <f t="shared" si="1"/>
+        <v>1.7109681259062551E-25</v>
+      </c>
+      <c r="AE49" s="22"/>
+    </row>
+    <row r="50" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z50" s="22"/>
+      <c r="AA50" s="23"/>
+      <c r="AB50" s="22">
+        <v>29</v>
+      </c>
+      <c r="AC50" s="24">
+        <f t="shared" si="0"/>
+        <v>7.705772247152257E-29</v>
+      </c>
+      <c r="AD50" s="26">
+        <f t="shared" si="1"/>
+        <v>7.7057722471522573E-27</v>
+      </c>
+      <c r="AE50" s="22"/>
+    </row>
+    <row r="51" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z51" s="22"/>
+      <c r="AA51" s="23"/>
+      <c r="AB51" s="22">
+        <v>30</v>
+      </c>
+      <c r="AC51" s="24">
+        <f t="shared" si="0"/>
+        <v>3.3540222507136252E-30</v>
+      </c>
+      <c r="AD51" s="26">
+        <f t="shared" si="1"/>
+        <v>3.3540222507136252E-28</v>
+      </c>
+      <c r="AE51" s="22"/>
+    </row>
+    <row r="52" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z52" s="22"/>
+      <c r="AA52" s="23"/>
+      <c r="AB52" s="22">
+        <v>31</v>
+      </c>
+      <c r="AC52" s="24">
+        <f t="shared" si="0"/>
+        <v>1.4124530636188908E-31</v>
+      </c>
+      <c r="AD52" s="26">
+        <f t="shared" si="1"/>
+        <v>1.4124530636188909E-29</v>
+      </c>
+      <c r="AE52" s="22"/>
+    </row>
+    <row r="53" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z53" s="22"/>
+      <c r="AA53" s="23"/>
+      <c r="AB53" s="22">
+        <v>32</v>
+      </c>
+      <c r="AC53" s="24">
+        <f t="shared" si="0"/>
+        <v>5.7609294459329262E-33</v>
+      </c>
+      <c r="AD53" s="26">
+        <f t="shared" si="1"/>
+        <v>5.760929445932926E-31</v>
+      </c>
+      <c r="AE53" s="22"/>
+    </row>
+    <row r="54" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z54" s="22"/>
+      <c r="AA54" s="23"/>
+      <c r="AB54" s="22">
+        <v>33</v>
+      </c>
+      <c r="AC54" s="24">
+        <f t="shared" si="0"/>
+        <v>2.2779586333409248E-34</v>
+      </c>
+      <c r="AD54" s="26">
+        <f t="shared" si="1"/>
+        <v>2.2779586333409248E-32</v>
+      </c>
+      <c r="AE54" s="22"/>
+    </row>
+    <row r="55" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z55" s="22"/>
+      <c r="AA55" s="23"/>
+      <c r="AB55" s="22">
+        <v>34</v>
+      </c>
+      <c r="AC55" s="24">
+        <f t="shared" si="0"/>
+        <v>8.7404303428477644E-36</v>
+      </c>
+      <c r="AD55" s="26">
+        <f t="shared" si="1"/>
+        <v>8.7404303428477642E-34</v>
+      </c>
+      <c r="AE55" s="22"/>
+    </row>
+    <row r="56" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z56" s="22"/>
+      <c r="AA56" s="23"/>
+      <c r="AB56" s="22">
+        <v>35</v>
+      </c>
+      <c r="AC56" s="24">
+        <f t="shared" si="0"/>
+        <v>3.2570867894981017E-37</v>
+      </c>
+      <c r="AD56" s="26">
+        <f t="shared" si="1"/>
+        <v>3.2570867894981018E-35</v>
+      </c>
+      <c r="AE56" s="22"/>
+    </row>
+    <row r="57" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z57" s="22"/>
+      <c r="AA57" s="23"/>
+      <c r="AB57" s="22">
+        <v>36</v>
+      </c>
+      <c r="AC57" s="24">
+        <f t="shared" si="0"/>
+        <v>1.1797501075814234E-38</v>
+      </c>
+      <c r="AD57" s="26">
+        <f t="shared" si="1"/>
+        <v>1.1797501075814233E-36</v>
+      </c>
+      <c r="AE57" s="22"/>
+    </row>
+    <row r="58" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z58" s="22"/>
+      <c r="AA58" s="23"/>
+      <c r="AB58" s="22">
+        <v>37</v>
+      </c>
+      <c r="AC58" s="24">
+        <f t="shared" si="0"/>
+        <v>4.156713664085508E-40</v>
+      </c>
+      <c r="AD58" s="26">
+        <f t="shared" si="1"/>
+        <v>4.156713664085508E-38</v>
+      </c>
+      <c r="AE58" s="22"/>
+    </row>
+    <row r="59" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z59" s="22"/>
+      <c r="AA59" s="23"/>
+      <c r="AB59" s="22">
+        <v>38</v>
+      </c>
+      <c r="AC59" s="24">
+        <f t="shared" si="0"/>
+        <v>1.4256959259512643E-41</v>
+      </c>
+      <c r="AD59" s="26">
+        <f t="shared" si="1"/>
+        <v>1.4256959259512643E-39</v>
+      </c>
+      <c r="AE59" s="22"/>
+    </row>
+    <row r="60" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z60" s="22"/>
+      <c r="AA60" s="23"/>
+      <c r="AB60" s="22">
+        <v>39</v>
+      </c>
+      <c r="AC60" s="24">
+        <f t="shared" si="0"/>
+        <v>4.7634461781700901E-43</v>
+      </c>
+      <c r="AD60" s="26">
+        <f t="shared" si="1"/>
+        <v>4.7634461781700901E-41</v>
+      </c>
+      <c r="AE60" s="22"/>
+    </row>
+    <row r="61" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z61" s="22"/>
+      <c r="AA61" s="23"/>
+      <c r="AB61" s="22">
+        <v>40</v>
+      </c>
+      <c r="AC61" s="24">
+        <f t="shared" si="0"/>
+        <v>1.5513820897884087E-44</v>
+      </c>
+      <c r="AD61" s="26">
+        <f t="shared" si="1"/>
+        <v>1.5513820897884088E-42</v>
+      </c>
+      <c r="AE61" s="22"/>
+    </row>
+    <row r="62" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z62" s="22"/>
+      <c r="AA62" s="23"/>
+      <c r="AB62" s="22">
+        <v>41</v>
+      </c>
+      <c r="AC62" s="24">
+        <f t="shared" si="0"/>
+        <v>4.9282296384805052E-46</v>
+      </c>
+      <c r="AD62" s="26">
+        <f t="shared" si="1"/>
+        <v>4.9282296384805056E-44</v>
+      </c>
+      <c r="AE62" s="22"/>
+    </row>
+    <row r="63" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z63" s="22"/>
+      <c r="AA63" s="23"/>
+      <c r="AB63" s="22">
+        <v>42</v>
+      </c>
+      <c r="AC63" s="24">
+        <f t="shared" si="0"/>
+        <v>1.5279043214300562E-47</v>
+      </c>
+      <c r="AD63" s="26">
+        <f t="shared" si="1"/>
+        <v>1.5279043214300561E-45</v>
+      </c>
+      <c r="AE63" s="22"/>
+    </row>
+    <row r="64" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z64" s="22"/>
+      <c r="AA64" s="23"/>
+      <c r="AB64" s="22">
+        <v>43</v>
+      </c>
+      <c r="AC64" s="24">
+        <f t="shared" si="0"/>
+        <v>4.6257343379904295E-49</v>
+      </c>
+      <c r="AD64" s="26">
+        <f t="shared" si="1"/>
+        <v>4.6257343379904291E-47</v>
+      </c>
+      <c r="AE64" s="22"/>
+    </row>
+    <row r="65" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z65" s="22"/>
+      <c r="AA65" s="23"/>
+      <c r="AB65" s="22">
+        <v>44</v>
+      </c>
+      <c r="AC65" s="24">
+        <f t="shared" si="0"/>
+        <v>1.3682940556553746E-50</v>
+      </c>
+      <c r="AD65" s="26">
+        <f t="shared" si="1"/>
+        <v>1.3682940556553745E-48</v>
+      </c>
+      <c r="AE65" s="22"/>
+    </row>
+    <row r="66" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z66" s="22"/>
+      <c r="AA66" s="23"/>
+      <c r="AB66" s="22">
+        <v>45</v>
+      </c>
+      <c r="AC66" s="24">
+        <f t="shared" si="0"/>
+        <v>3.9565510957171889E-52</v>
+      </c>
+      <c r="AD66" s="26">
+        <f t="shared" si="1"/>
+        <v>3.9565510957171887E-50</v>
+      </c>
+      <c r="AE66" s="22"/>
+    </row>
+    <row r="67" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z67" s="22"/>
+      <c r="AA67" s="23"/>
+      <c r="AB67" s="22">
+        <v>46</v>
+      </c>
+      <c r="AC67" s="24">
+        <f t="shared" si="0"/>
+        <v>1.1189410270240871E-53</v>
+      </c>
+      <c r="AD67" s="26">
+        <f t="shared" si="1"/>
+        <v>1.1189410270240871E-51</v>
+      </c>
+      <c r="AE67" s="22"/>
+    </row>
+    <row r="68" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z68" s="22"/>
+      <c r="AA68" s="23"/>
+      <c r="AB68" s="22">
+        <v>47</v>
+      </c>
+      <c r="AC68" s="24">
+        <f t="shared" si="0"/>
+        <v>3.0963922085986032E-55</v>
+      </c>
+      <c r="AD68" s="26">
+        <f t="shared" si="1"/>
+        <v>3.0963922085986033E-53</v>
+      </c>
+      <c r="AE68" s="22"/>
+    </row>
+    <row r="69" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z69" s="22"/>
+      <c r="AA69" s="23"/>
+      <c r="AB69" s="22">
+        <v>48</v>
+      </c>
+      <c r="AC69" s="24">
+        <f t="shared" si="0"/>
+        <v>8.3880247987466282E-57</v>
+      </c>
+      <c r="AD69" s="26">
+        <f t="shared" si="1"/>
+        <v>8.3880247987466289E-55</v>
+      </c>
+      <c r="AE69" s="22"/>
+    </row>
+    <row r="70" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z70" s="22"/>
+      <c r="AA70" s="23"/>
+      <c r="AB70" s="22">
+        <v>49</v>
+      </c>
+      <c r="AC70" s="24">
+        <f t="shared" si="0"/>
+        <v>2.2253940897380631E-58</v>
+      </c>
+      <c r="AD70" s="26">
+        <f t="shared" si="1"/>
+        <v>2.2253940897380633E-56</v>
+      </c>
+      <c r="AE70" s="22"/>
+    </row>
+    <row r="71" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z71" s="22"/>
+      <c r="AA71" s="23"/>
+      <c r="AB71" s="22">
+        <v>50</v>
+      </c>
+      <c r="AC71" s="24">
+        <f t="shared" si="0"/>
+        <v>5.7846692738150307E-60</v>
+      </c>
+      <c r="AD71" s="26">
+        <f t="shared" si="1"/>
+        <v>5.7846692738150307E-58</v>
+      </c>
+      <c r="AE71" s="22"/>
+    </row>
+    <row r="72" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z72" s="22"/>
+      <c r="AA72" s="23"/>
+      <c r="AB72" s="22">
+        <v>51</v>
+      </c>
+      <c r="AC72" s="24">
+        <f t="shared" si="0"/>
+        <v>1.4738328967361284E-61</v>
+      </c>
+      <c r="AD72" s="26">
+        <f t="shared" si="1"/>
+        <v>1.4738328967361283E-59</v>
+      </c>
+      <c r="AE72" s="22"/>
+    </row>
+    <row r="73" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z73" s="22"/>
+      <c r="AA73" s="23"/>
+      <c r="AB73" s="22">
+        <v>52</v>
+      </c>
+      <c r="AC73" s="24">
+        <f t="shared" si="0"/>
+        <v>3.6819937437459966E-63</v>
+      </c>
+      <c r="AD73" s="26">
+        <f t="shared" si="1"/>
+        <v>3.6819937437459968E-61</v>
+      </c>
+      <c r="AE73" s="22"/>
+    </row>
+    <row r="74" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z74" s="22"/>
+      <c r="AA74" s="23"/>
+      <c r="AB74" s="22">
+        <v>53</v>
+      </c>
+      <c r="AC74" s="24">
+        <f t="shared" si="0"/>
+        <v>9.0228461589625055E-65</v>
+      </c>
+      <c r="AD74" s="26">
+        <f t="shared" si="1"/>
+        <v>9.0228461589625057E-63</v>
+      </c>
+      <c r="AE74" s="22"/>
+    </row>
+    <row r="75" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z75" s="22"/>
+      <c r="AA75" s="23"/>
+      <c r="AB75" s="22">
+        <v>54</v>
+      </c>
+      <c r="AC75" s="24">
+        <f t="shared" si="0"/>
+        <v>2.1696235042500871E-66</v>
+      </c>
+      <c r="AD75" s="26">
+        <f t="shared" si="1"/>
+        <v>2.1696235042500872E-64</v>
+      </c>
+      <c r="AE75" s="22"/>
+    </row>
+    <row r="76" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z76" s="22"/>
+      <c r="AA76" s="23"/>
+      <c r="AB76" s="22">
+        <v>55</v>
+      </c>
+      <c r="AC76" s="24">
+        <f t="shared" si="0"/>
+        <v>5.1209962312387134E-68</v>
+      </c>
+      <c r="AD76" s="26">
+        <f t="shared" si="1"/>
+        <v>5.120996231238713E-66</v>
+      </c>
+      <c r="AE76" s="22"/>
+    </row>
+    <row r="77" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z77" s="22"/>
+      <c r="AA77" s="23"/>
+      <c r="AB77" s="22">
+        <v>56</v>
+      </c>
+      <c r="AC77" s="24">
+        <f t="shared" si="0"/>
+        <v>1.1868541654946357E-69</v>
+      </c>
+      <c r="AD77" s="26">
+        <f t="shared" si="1"/>
+        <v>1.1868541654946358E-67</v>
+      </c>
+      <c r="AE77" s="22"/>
+    </row>
+    <row r="78" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z78" s="22"/>
+      <c r="AA78" s="23"/>
+      <c r="AB78" s="22">
+        <v>57</v>
+      </c>
+      <c r="AC78" s="24">
+        <f t="shared" si="0"/>
+        <v>2.70178986668171E-71</v>
+      </c>
+      <c r="AD78" s="26">
+        <f t="shared" si="1"/>
+        <v>2.7017898666817101E-69</v>
+      </c>
+      <c r="AE78" s="22"/>
+    </row>
+    <row r="79" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z79" s="22"/>
+      <c r="AA79" s="23"/>
+      <c r="AB79" s="22">
+        <v>58</v>
+      </c>
+      <c r="AC79" s="24">
+        <f t="shared" si="0"/>
+        <v>6.0429743861294226E-73</v>
+      </c>
+      <c r="AD79" s="26">
+        <f t="shared" si="1"/>
+        <v>6.0429743861294223E-71</v>
+      </c>
+      <c r="AE79" s="22"/>
+    </row>
+    <row r="80" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z80" s="22"/>
+      <c r="AA80" s="23"/>
+      <c r="AB80" s="22">
+        <v>59</v>
+      </c>
+      <c r="AC80" s="24">
+        <f t="shared" si="0"/>
+        <v>1.3283851413165214E-74</v>
+      </c>
+      <c r="AD80" s="26">
+        <f t="shared" si="1"/>
+        <v>1.3283851413165215E-72</v>
+      </c>
+      <c r="AE80" s="22"/>
+    </row>
+    <row r="81" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z81" s="22"/>
+      <c r="AA81" s="23"/>
+      <c r="AB81" s="22">
+        <v>60</v>
+      </c>
+      <c r="AC81" s="24">
+        <f t="shared" si="0"/>
+        <v>2.8707547428189862E-76</v>
+      </c>
+      <c r="AD81" s="26">
+        <f t="shared" si="1"/>
+        <v>2.870754742818986E-74</v>
+      </c>
+      <c r="AE81" s="22"/>
+    </row>
+    <row r="82" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z82" s="22"/>
+      <c r="AA82" s="23"/>
+      <c r="AB82" s="22">
+        <v>61</v>
+      </c>
+      <c r="AC82" s="24">
+        <f t="shared" si="0"/>
+        <v>6.1008118179350622E-78</v>
+      </c>
+      <c r="AD82" s="26">
+        <f t="shared" si="1"/>
+        <v>6.100811817935062E-76</v>
+      </c>
+      <c r="AE82" s="22"/>
+    </row>
+    <row r="83" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z83" s="22"/>
+      <c r="AA83" s="23"/>
+      <c r="AB83" s="22">
+        <v>62</v>
+      </c>
+      <c r="AC83" s="24">
+        <f t="shared" si="0"/>
+        <v>1.2753087221709356E-79</v>
+      </c>
+      <c r="AD83" s="26">
+        <f t="shared" si="1"/>
+        <v>1.2753087221709357E-77</v>
+      </c>
+      <c r="AE83" s="22"/>
+    </row>
+    <row r="84" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z84" s="22"/>
+      <c r="AA84" s="23"/>
+      <c r="AB84" s="22">
+        <v>63</v>
+      </c>
+      <c r="AC84" s="24">
+        <f t="shared" si="0"/>
+        <v>2.6229629964955751E-81</v>
+      </c>
+      <c r="AD84" s="26">
+        <f t="shared" si="1"/>
+        <v>2.6229629964955752E-79</v>
+      </c>
+      <c r="AE84" s="22"/>
+    </row>
+    <row r="85" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z85" s="22"/>
+      <c r="AA85" s="23"/>
+      <c r="AB85" s="22">
+        <v>64</v>
+      </c>
+      <c r="AC85" s="24">
+        <f t="shared" si="0"/>
+        <v>5.3091811313817807E-83</v>
+      </c>
+      <c r="AD85" s="26">
+        <f t="shared" si="1"/>
+        <v>5.3091811313817809E-81</v>
+      </c>
+      <c r="AE85" s="22"/>
+    </row>
+    <row r="86" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z86" s="22"/>
+      <c r="AA86" s="23"/>
+      <c r="AB86" s="22">
+        <v>65</v>
+      </c>
+      <c r="AC86" s="24">
+        <f t="shared" ref="AC86:AC113" si="2">_xlfn.BINOM.DIST(AB86,$AA$17,$AA$19,FALSE)</f>
+        <v>1.0578582641439406E-84</v>
+      </c>
+      <c r="AD86" s="26">
+        <f t="shared" ref="AD86:AD121" si="3">AC86*100</f>
+        <v>1.0578582641439407E-82</v>
+      </c>
+      <c r="AE86" s="22"/>
+    </row>
+    <row r="87" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z87" s="22"/>
+      <c r="AA87" s="23"/>
+      <c r="AB87" s="22">
+        <v>66</v>
+      </c>
+      <c r="AC87" s="24">
+        <f t="shared" si="2"/>
+        <v>2.0753663286922916E-86</v>
+      </c>
+      <c r="AD87" s="26">
+        <f t="shared" si="3"/>
+        <v>2.0753663286922914E-84</v>
+      </c>
+      <c r="AE87" s="22"/>
+    </row>
+    <row r="88" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z88" s="22"/>
+      <c r="AA88" s="23"/>
+      <c r="AB88" s="22">
+        <v>67</v>
+      </c>
+      <c r="AC88" s="24">
+        <f t="shared" si="2"/>
+        <v>4.0098587954826725E-88</v>
+      </c>
+      <c r="AD88" s="26">
+        <f t="shared" si="3"/>
+        <v>4.0098587954826727E-86</v>
+      </c>
+      <c r="AE88" s="22"/>
+    </row>
+    <row r="89" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z89" s="22"/>
+      <c r="AA89" s="23"/>
+      <c r="AB89" s="22">
+        <v>68</v>
+      </c>
+      <c r="AC89" s="24">
+        <f t="shared" si="2"/>
+        <v>7.631803077343112E-90</v>
+      </c>
+      <c r="AD89" s="26">
+        <f t="shared" si="3"/>
+        <v>7.6318030773431115E-88</v>
+      </c>
+      <c r="AE89" s="22"/>
+    </row>
+    <row r="90" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z90" s="22"/>
+      <c r="AA90" s="23"/>
+      <c r="AB90" s="22">
+        <v>69</v>
+      </c>
+      <c r="AC90" s="24">
+        <f t="shared" si="2"/>
+        <v>1.4311425797245588E-91</v>
+      </c>
+      <c r="AD90" s="26">
+        <f t="shared" si="3"/>
+        <v>1.4311425797245589E-89</v>
+      </c>
+      <c r="AE90" s="22"/>
+    </row>
+    <row r="91" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z91" s="22"/>
+      <c r="AA91" s="23"/>
+      <c r="AB91" s="22">
+        <v>70</v>
+      </c>
+      <c r="AC91" s="24">
+        <f t="shared" si="2"/>
+        <v>2.6447676635801505E-93</v>
+      </c>
+      <c r="AD91" s="26">
+        <f t="shared" si="3"/>
+        <v>2.6447676635801504E-91</v>
+      </c>
+      <c r="AE91" s="22"/>
+    </row>
+    <row r="92" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z92" s="22"/>
+      <c r="AA92" s="23"/>
+      <c r="AB92" s="22">
+        <v>71</v>
+      </c>
+      <c r="AC92" s="24">
+        <f t="shared" si="2"/>
+        <v>4.8175878385360675E-95</v>
+      </c>
+      <c r="AD92" s="26">
+        <f t="shared" si="3"/>
+        <v>4.8175878385360672E-93</v>
+      </c>
+      <c r="AE92" s="22"/>
+    </row>
+    <row r="93" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z93" s="22"/>
+      <c r="AA93" s="23"/>
+      <c r="AB93" s="22">
+        <v>72</v>
+      </c>
+      <c r="AC93" s="24">
+        <f t="shared" si="2"/>
+        <v>8.6515791757903213E-97</v>
+      </c>
+      <c r="AD93" s="26">
+        <f t="shared" si="3"/>
+        <v>8.6515791757903213E-95</v>
+      </c>
+      <c r="AE93" s="22"/>
+    </row>
+    <row r="94" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z94" s="22"/>
+      <c r="AA94" s="23"/>
+      <c r="AB94" s="22">
+        <v>73</v>
+      </c>
+      <c r="AC94" s="24">
+        <f t="shared" si="2"/>
+        <v>1.5320344129352501E-98</v>
+      </c>
+      <c r="AD94" s="26">
+        <f t="shared" si="3"/>
+        <v>1.5320344129352501E-96</v>
+      </c>
+      <c r="AE94" s="22"/>
+    </row>
+    <row r="95" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z95" s="22"/>
+      <c r="AA95" s="23"/>
+      <c r="AB95" s="22">
+        <v>74</v>
+      </c>
+      <c r="AC95" s="24">
+        <f t="shared" si="2"/>
+        <v>2.675657521483269E-100</v>
+      </c>
+      <c r="AD95" s="26">
+        <f t="shared" si="3"/>
+        <v>2.6756575214832689E-98</v>
+      </c>
+      <c r="AE95" s="22"/>
+    </row>
+    <row r="96" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z96" s="22"/>
+      <c r="AA96" s="23"/>
+      <c r="AB96" s="22">
+        <v>75</v>
+      </c>
+      <c r="AC96" s="24">
+        <f t="shared" si="2"/>
+        <v>4.6095729053980467E-102</v>
+      </c>
+      <c r="AD96" s="26">
+        <f t="shared" si="3"/>
+        <v>4.6095729053980462E-100</v>
+      </c>
+      <c r="AE96" s="22"/>
+    </row>
+    <row r="97" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z97" s="22"/>
+      <c r="AA97" s="23"/>
+      <c r="AB97" s="22">
+        <v>76</v>
+      </c>
+      <c r="AC97" s="24">
+        <f t="shared" si="2"/>
+        <v>7.8349495490068319E-104</v>
+      </c>
+      <c r="AD97" s="26">
+        <f t="shared" si="3"/>
+        <v>7.8349495490068317E-102</v>
+      </c>
+      <c r="AE97" s="22"/>
+    </row>
+    <row r="98" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z98" s="22"/>
+      <c r="AA98" s="23"/>
+      <c r="AB98" s="22">
+        <v>77</v>
+      </c>
+      <c r="AC98" s="24">
+        <f t="shared" si="2"/>
+        <v>1.3141115851338268E-105</v>
+      </c>
+      <c r="AD98" s="26">
+        <f t="shared" si="3"/>
+        <v>1.3141115851338268E-103</v>
+      </c>
+      <c r="AE98" s="22"/>
+    </row>
+    <row r="99" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z99" s="22"/>
+      <c r="AA99" s="23"/>
+      <c r="AB99" s="22">
+        <v>78</v>
+      </c>
+      <c r="AC99" s="24">
+        <f t="shared" si="2"/>
+        <v>2.1753144194854098E-107</v>
+      </c>
+      <c r="AD99" s="26">
+        <f t="shared" si="3"/>
+        <v>2.1753144194854099E-105</v>
+      </c>
+      <c r="AE99" s="22"/>
+    </row>
+    <row r="100" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z100" s="22"/>
+      <c r="AA100" s="23"/>
+      <c r="AB100" s="22">
+        <v>79</v>
+      </c>
+      <c r="AC100" s="24">
+        <f t="shared" si="2"/>
+        <v>3.5544871863577063E-109</v>
+      </c>
+      <c r="AD100" s="26">
+        <f t="shared" si="3"/>
+        <v>3.5544871863577062E-107</v>
+      </c>
+      <c r="AE100" s="22"/>
+    </row>
+    <row r="101" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z101" s="22"/>
+      <c r="AA101" s="23"/>
+      <c r="AB101" s="22">
+        <v>80</v>
+      </c>
+      <c r="AC101" s="24">
+        <f t="shared" si="2"/>
+        <v>5.7341170737368265E-111</v>
+      </c>
+      <c r="AD101" s="26">
+        <f t="shared" si="3"/>
+        <v>5.7341170737368264E-109</v>
+      </c>
+      <c r="AE101" s="22"/>
+    </row>
+    <row r="102" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z102" s="22"/>
+      <c r="AA102" s="23"/>
+      <c r="AB102" s="22">
+        <v>81</v>
+      </c>
+      <c r="AC102" s="24">
+        <f t="shared" si="2"/>
+        <v>9.1339511909973062E-113</v>
+      </c>
+      <c r="AD102" s="26">
+        <f t="shared" si="3"/>
+        <v>9.1339511909973063E-111</v>
+      </c>
+      <c r="AE102" s="22"/>
+    </row>
+    <row r="103" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z103" s="22"/>
+      <c r="AA103" s="23"/>
+      <c r="AB103" s="22">
+        <v>82</v>
+      </c>
+      <c r="AC103" s="24">
+        <f t="shared" si="2"/>
+        <v>1.4368767570297665E-114</v>
+      </c>
+      <c r="AD103" s="26">
+        <f t="shared" si="3"/>
+        <v>1.4368767570297665E-112</v>
+      </c>
+      <c r="AE103" s="22"/>
+    </row>
+    <row r="104" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z104" s="22"/>
+      <c r="AA104" s="23"/>
+      <c r="AB104" s="22">
+        <v>83</v>
+      </c>
+      <c r="AC104" s="24">
+        <f t="shared" si="2"/>
+        <v>2.2326139008130778E-116</v>
+      </c>
+      <c r="AD104" s="26">
+        <f t="shared" si="3"/>
+        <v>2.2326139008130779E-114</v>
+      </c>
+      <c r="AE104" s="22"/>
+    </row>
+    <row r="105" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z105" s="22"/>
+      <c r="AA105" s="23"/>
+      <c r="AB105" s="22">
+        <v>84</v>
+      </c>
+      <c r="AC105" s="24">
+        <f t="shared" si="2"/>
+        <v>3.4269204484107444E-118</v>
+      </c>
+      <c r="AD105" s="26">
+        <f t="shared" si="3"/>
+        <v>3.4269204484107444E-116</v>
+      </c>
+      <c r="AE105" s="22"/>
+    </row>
+    <row r="106" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z106" s="22"/>
+      <c r="AA106" s="23"/>
+      <c r="AB106" s="22">
+        <v>85</v>
+      </c>
+      <c r="AC106" s="24">
+        <f t="shared" si="2"/>
+        <v>5.1969943544857348E-120</v>
+      </c>
+      <c r="AD106" s="26">
+        <f t="shared" si="3"/>
+        <v>5.1969943544857344E-118</v>
+      </c>
+      <c r="AE106" s="22"/>
+    </row>
+    <row r="107" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z107" s="22"/>
+      <c r="AA107" s="23"/>
+      <c r="AB107" s="22">
+        <v>86</v>
+      </c>
+      <c r="AC107" s="24">
+        <f t="shared" si="2"/>
+        <v>7.7878643914242226E-122</v>
+      </c>
+      <c r="AD107" s="26">
+        <f t="shared" si="3"/>
+        <v>7.7878643914242228E-120</v>
+      </c>
+      <c r="AE107" s="22"/>
+    </row>
+    <row r="108" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z108" s="22"/>
+      <c r="AA108" s="23"/>
+      <c r="AB108" s="22">
+        <v>87</v>
+      </c>
+      <c r="AC108" s="24">
+        <f t="shared" si="2"/>
+        <v>1.1533500256663881E-123</v>
+      </c>
+      <c r="AD108" s="26">
+        <f t="shared" si="3"/>
+        <v>1.1533500256663881E-121</v>
+      </c>
+      <c r="AE108" s="22"/>
+    </row>
+    <row r="109" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z109" s="22"/>
+      <c r="AA109" s="23"/>
+      <c r="AB109" s="22">
+        <v>88</v>
+      </c>
+      <c r="AC109" s="24">
+        <f t="shared" si="2"/>
+        <v>1.6882542420636437E-125</v>
+      </c>
+      <c r="AD109" s="26">
+        <f t="shared" si="3"/>
+        <v>1.6882542420636438E-123</v>
+      </c>
+      <c r="AE109" s="22"/>
+    </row>
+    <row r="110" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z110" s="22"/>
+      <c r="AA110" s="23"/>
+      <c r="AB110" s="22">
+        <v>89</v>
+      </c>
+      <c r="AC110" s="24">
+        <f t="shared" si="2"/>
+        <v>2.4428938797801746E-127</v>
+      </c>
+      <c r="AD110" s="26">
+        <f t="shared" si="3"/>
+        <v>2.4428938797801747E-125</v>
+      </c>
+      <c r="AE110" s="22"/>
+    </row>
+    <row r="111" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z111" s="22"/>
+      <c r="AA111" s="23"/>
+      <c r="AB111" s="22">
+        <v>90</v>
+      </c>
+      <c r="AC111" s="24">
+        <f t="shared" si="2"/>
+        <v>3.4947506356193525E-129</v>
+      </c>
+      <c r="AD111" s="26">
+        <f t="shared" si="3"/>
+        <v>3.4947506356193523E-127</v>
+      </c>
+      <c r="AE111" s="22"/>
+    </row>
+    <row r="112" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z112" s="22"/>
+      <c r="AA112" s="23"/>
+      <c r="AB112" s="22">
+        <v>91</v>
+      </c>
+      <c r="AC112" s="24">
+        <f t="shared" si="2"/>
+        <v>4.9434052959963647E-131</v>
+      </c>
+      <c r="AD112" s="26">
+        <f t="shared" si="3"/>
+        <v>4.9434052959963647E-129</v>
+      </c>
+      <c r="AE112" s="22"/>
+    </row>
+    <row r="113" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z113" s="22"/>
+      <c r="AA113" s="23"/>
+      <c r="AB113" s="22">
+        <v>92</v>
+      </c>
+      <c r="AC113" s="24">
+        <f t="shared" si="2"/>
+        <v>6.9149190908832964E-133</v>
+      </c>
+      <c r="AD113" s="26">
+        <f t="shared" si="3"/>
+        <v>6.9149190908832964E-131</v>
+      </c>
+      <c r="AE113" s="22"/>
+    </row>
+    <row r="114" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z114" s="22"/>
+      <c r="AA114" s="23"/>
+      <c r="AB114" s="22">
+        <v>93</v>
+      </c>
+      <c r="AC114" s="24" t="e">
+        <f t="shared" ref="AC114:AC121" si="4">_xlfn.BINOM.DIST(AB114,$B$5,$B$7,FALSE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD114" s="26" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE114" s="22"/>
+    </row>
+    <row r="115" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z115" s="22"/>
+      <c r="AA115" s="23"/>
+      <c r="AB115" s="22">
+        <v>94</v>
+      </c>
+      <c r="AC115" s="24" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD115" s="26" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE115" s="22"/>
+    </row>
+    <row r="116" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z116" s="22"/>
+      <c r="AA116" s="23"/>
+      <c r="AB116" s="22">
+        <v>95</v>
+      </c>
+      <c r="AC116" s="24" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD116" s="26" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE116" s="22"/>
+    </row>
+    <row r="117" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z117" s="22"/>
+      <c r="AA117" s="23"/>
+      <c r="AB117" s="22">
+        <v>96</v>
+      </c>
+      <c r="AC117" s="24" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD117" s="26" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE117" s="22"/>
+    </row>
+    <row r="118" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z118" s="22"/>
+      <c r="AA118" s="23"/>
+      <c r="AB118" s="22">
+        <v>97</v>
+      </c>
+      <c r="AC118" s="24" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD118" s="26" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE118" s="22"/>
+    </row>
+    <row r="119" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z119" s="22"/>
+      <c r="AA119" s="23"/>
+      <c r="AB119" s="22">
+        <v>98</v>
+      </c>
+      <c r="AC119" s="24" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD119" s="26" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE119" s="22"/>
+    </row>
+    <row r="120" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z120" s="22"/>
+      <c r="AA120" s="23"/>
+      <c r="AB120" s="22">
+        <v>99</v>
+      </c>
+      <c r="AC120" s="24" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD120" s="26" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE120" s="22"/>
+    </row>
+    <row r="121" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z121" s="22"/>
+      <c r="AA121" s="23"/>
+      <c r="AB121" s="22">
+        <v>100</v>
+      </c>
+      <c r="AC121" s="24" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD121" s="26" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE121" s="22"/>
+    </row>
+    <row r="122" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z122" s="22"/>
+      <c r="AA122" s="23"/>
+      <c r="AB122" s="22"/>
+      <c r="AC122" s="24"/>
+      <c r="AD122" s="26"/>
+      <c r="AE122" s="22"/>
+    </row>
+    <row r="123" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z123" s="22"/>
+      <c r="AA123" s="23"/>
+      <c r="AB123" s="22"/>
+      <c r="AC123" s="24"/>
+      <c r="AD123" s="26"/>
+      <c r="AE123" s="22"/>
+    </row>
+    <row r="124" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z124" s="22"/>
+      <c r="AA124" s="23"/>
+      <c r="AB124" s="22"/>
+      <c r="AC124" s="24"/>
+      <c r="AD124" s="26"/>
+      <c r="AE124" s="22"/>
+    </row>
+    <row r="125" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z125" s="22"/>
+      <c r="AA125" s="23"/>
+      <c r="AB125" s="22"/>
+      <c r="AC125" s="24"/>
+      <c r="AD125" s="26"/>
+      <c r="AE125" s="22"/>
+    </row>
+    <row r="126" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z126" s="22"/>
+      <c r="AA126" s="23"/>
+      <c r="AB126" s="22"/>
+      <c r="AC126" s="24"/>
+      <c r="AD126" s="26"/>
+      <c r="AE126" s="22"/>
+    </row>
+    <row r="127" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z127" s="22"/>
+      <c r="AA127" s="23"/>
+      <c r="AB127" s="22"/>
+      <c r="AC127" s="24"/>
+      <c r="AD127" s="26"/>
+      <c r="AE127" s="22"/>
+    </row>
+    <row r="128" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z128" s="22"/>
+      <c r="AA128" s="23"/>
+      <c r="AB128" s="22"/>
+      <c r="AC128" s="24"/>
+      <c r="AD128" s="26"/>
+      <c r="AE128" s="22"/>
+    </row>
+    <row r="129" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z129" s="22"/>
+      <c r="AA129" s="23"/>
+      <c r="AB129" s="22"/>
+      <c r="AC129" s="24"/>
+      <c r="AD129" s="26"/>
+      <c r="AE129" s="22"/>
+    </row>
+    <row r="130" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z130" s="22"/>
+      <c r="AA130" s="23"/>
+      <c r="AB130" s="22"/>
+      <c r="AC130" s="24"/>
+      <c r="AD130" s="26"/>
+      <c r="AE130" s="22"/>
+    </row>
+    <row r="131" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z131" s="22"/>
+      <c r="AA131" s="23"/>
+      <c r="AB131" s="22"/>
+      <c r="AC131" s="24"/>
+      <c r="AD131" s="26"/>
+      <c r="AE131" s="22"/>
+    </row>
+    <row r="132" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z132" s="22"/>
+      <c r="AA132" s="23"/>
+      <c r="AB132" s="22"/>
+      <c r="AC132" s="24"/>
+      <c r="AD132" s="26"/>
+      <c r="AE132" s="22"/>
+    </row>
+    <row r="133" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z133" s="22"/>
+      <c r="AA133" s="23"/>
+      <c r="AB133" s="22"/>
+      <c r="AC133" s="24"/>
+      <c r="AD133" s="26"/>
+      <c r="AE133" s="22"/>
+    </row>
+    <row r="134" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z134" s="22"/>
+      <c r="AA134" s="23"/>
+      <c r="AB134" s="22"/>
+      <c r="AC134" s="24"/>
+      <c r="AD134" s="26"/>
+      <c r="AE134" s="22"/>
+    </row>
+    <row r="135" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z135" s="22"/>
+      <c r="AA135" s="23"/>
+      <c r="AB135" s="22"/>
+      <c r="AC135" s="24"/>
+      <c r="AD135" s="26"/>
+      <c r="AE135" s="22"/>
+    </row>
+    <row r="136" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z136" s="22"/>
+      <c r="AA136" s="23"/>
+      <c r="AB136" s="22"/>
+      <c r="AC136" s="24"/>
+      <c r="AD136" s="26"/>
+      <c r="AE136" s="22"/>
+    </row>
+    <row r="137" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z137" s="22"/>
+      <c r="AA137" s="23"/>
+      <c r="AB137" s="22"/>
+      <c r="AC137" s="24"/>
+      <c r="AD137" s="26"/>
+      <c r="AE137" s="22"/>
+    </row>
+    <row r="138" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z138" s="22"/>
+      <c r="AA138" s="23"/>
+      <c r="AB138" s="22"/>
+      <c r="AC138" s="24"/>
+      <c r="AD138" s="26"/>
+      <c r="AE138" s="22"/>
+    </row>
+    <row r="139" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z139" s="22"/>
+      <c r="AA139" s="23"/>
+      <c r="AB139" s="22"/>
+      <c r="AC139" s="24"/>
+      <c r="AD139" s="26"/>
+      <c r="AE139" s="22"/>
+    </row>
+    <row r="140" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z140" s="22"/>
+      <c r="AA140" s="23"/>
+      <c r="AB140" s="22"/>
+      <c r="AC140" s="24"/>
+      <c r="AD140" s="26"/>
+      <c r="AE140" s="22"/>
+    </row>
+    <row r="141" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z141" s="22"/>
+      <c r="AA141" s="23"/>
+      <c r="AB141" s="22"/>
+      <c r="AC141" s="24"/>
+      <c r="AD141" s="26"/>
+      <c r="AE141" s="22"/>
+    </row>
+    <row r="142" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z142" s="22"/>
+      <c r="AA142" s="23"/>
+      <c r="AB142" s="22"/>
+      <c r="AC142" s="24"/>
+      <c r="AD142" s="26"/>
+      <c r="AE142" s="22"/>
+    </row>
+    <row r="143" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z143" s="22"/>
+      <c r="AA143" s="23"/>
+      <c r="AB143" s="22"/>
+      <c r="AC143" s="24"/>
+      <c r="AD143" s="26"/>
+      <c r="AE143" s="22"/>
+    </row>
+    <row r="144" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z144" s="22"/>
+      <c r="AA144" s="23"/>
+      <c r="AB144" s="22"/>
+      <c r="AC144" s="24"/>
+      <c r="AD144" s="26"/>
+      <c r="AE144" s="22"/>
+    </row>
+    <row r="145" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z145" s="22"/>
+      <c r="AA145" s="23"/>
+      <c r="AB145" s="22"/>
+      <c r="AC145" s="24"/>
+      <c r="AD145" s="26"/>
+      <c r="AE145" s="22"/>
+    </row>
+    <row r="146" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z146" s="22"/>
+      <c r="AA146" s="23"/>
+      <c r="AB146" s="22"/>
+      <c r="AC146" s="24"/>
+      <c r="AD146" s="26"/>
+      <c r="AE146" s="22"/>
+    </row>
+    <row r="147" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z147" s="22"/>
+      <c r="AA147" s="23"/>
+      <c r="AB147" s="22"/>
+      <c r="AC147" s="24"/>
+      <c r="AD147" s="26"/>
+      <c r="AE147" s="22"/>
+    </row>
+    <row r="148" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z148" s="22"/>
+      <c r="AA148" s="23"/>
+      <c r="AB148" s="22"/>
+      <c r="AC148" s="24"/>
+      <c r="AD148" s="26"/>
+      <c r="AE148" s="22"/>
+    </row>
+    <row r="149" spans="26:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z149" s="22"/>
+      <c r="AA149" s="23"/>
+      <c r="AB149" s="22"/>
+      <c r="AC149" s="24"/>
+      <c r="AD149" s="26"/>
+      <c r="AE149" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="Z13:AD13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{422029BB-26D5-4829-A2BB-89D7E036DEEC}">
   <dimension ref="A1:D830"/>
   <sheetViews>
@@ -41246,7 +45374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611BBB6C-D32A-47CA-95FF-94D7D241318A}">
   <dimension ref="A1:AE200"/>
   <sheetViews>
@@ -41265,13 +45393,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
       <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:31" ht="23.25" x14ac:dyDescent="0.35">

--- a/spreadsheets/Calculations.xlsx
+++ b/spreadsheets/Calculations.xlsx
@@ -2848,14 +2848,14 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="9"/>
+      <color rgb="FF595959"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -3321,7 +3321,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3368,10 +3368,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0584344593855909"/>
-          <c:y val="0.134440795827699"/>
-          <c:w val="0.9291024379578"/>
-          <c:h val="0.824158135342219"/>
+          <c:x val="0.0584284388139573"/>
+          <c:y val="0.134449452672247"/>
+          <c:w val="0.929066783159504"/>
+          <c:h val="0.824082421120412"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -4066,11 +4066,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="36635002"/>
-        <c:axId val="10762102"/>
+        <c:axId val="55348527"/>
+        <c:axId val="96798734"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="36635002"/>
+        <c:axId val="55348527"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4111,12 +4111,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10762102"/>
+        <c:crossAx val="96798734"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="10762102"/>
+        <c:axId val="96798734"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4194,7 +4194,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36635002"/>
+        <c:crossAx val="55348527"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4222,7 +4222,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4269,10 +4269,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0584344593855909"/>
-          <c:y val="0.134440795827699"/>
-          <c:w val="0.9291024379578"/>
-          <c:h val="0.824158135342219"/>
+          <c:x val="0.0584284388139573"/>
+          <c:y val="0.134449452672247"/>
+          <c:w val="0.929066783159504"/>
+          <c:h val="0.824082421120412"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -4967,11 +4967,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="49783825"/>
-        <c:axId val="31553012"/>
+        <c:axId val="77169670"/>
+        <c:axId val="62229710"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="49783825"/>
+        <c:axId val="77169670"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5012,12 +5012,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31553012"/>
+        <c:crossAx val="62229710"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="31553012"/>
+        <c:axId val="62229710"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5095,7 +5095,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49783825"/>
+        <c:crossAx val="77169670"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5123,7 +5123,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -15259,16 +15259,16 @@
         </c:ser>
         <c:gapWidth val="269"/>
         <c:overlap val="0"/>
-        <c:axId val="84"/>
-        <c:axId val="83652365"/>
+        <c:axId val="92095809"/>
+        <c:axId val="40498622"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84"/>
+        <c:axId val="92095809"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
-        <c:axPos val="t"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -15295,19 +15295,19 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83652365"/>
+        <c:crossAx val="40498622"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83652365"/>
+        <c:axId val="40498622"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="r"/>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -15331,7 +15331,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84"/>
+        <c:crossAx val="92095809"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15383,7 +15383,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -20482,11 +20482,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="6407559"/>
-        <c:axId val="44617670"/>
+        <c:axId val="79374311"/>
+        <c:axId val="25622819"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="6407559"/>
+        <c:axId val="79374311"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20518,7 +20518,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44617670"/>
+        <c:crossAx val="25622819"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20526,7 +20526,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44617670"/>
+        <c:axId val="25622819"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20565,7 +20565,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6407559"/>
+        <c:crossAx val="79374311"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20593,7 +20593,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -20640,10 +20640,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0584328623356747"/>
-          <c:y val="0.134440795827699"/>
-          <c:w val="0.929104375632021"/>
-          <c:h val="0.824158135342219"/>
+          <c:x val="0.0584284388139573"/>
+          <c:y val="0.134449452672247"/>
+          <c:w val="0.929066783159504"/>
+          <c:h val="0.824082421120412"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -21338,11 +21338,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="47316913"/>
-        <c:axId val="2337759"/>
+        <c:axId val="25195085"/>
+        <c:axId val="91712229"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="47316913"/>
+        <c:axId val="25195085"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21383,12 +21383,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2337759"/>
+        <c:crossAx val="91712229"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2337759"/>
+        <c:axId val="91712229"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21466,7 +21466,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47316913"/>
+        <c:crossAx val="25195085"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -21505,9 +21505,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1860480</xdr:colOff>
+      <xdr:colOff>1860120</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>90720</xdr:rowOff>
+      <xdr:rowOff>90360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -21520,8 +21520,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11007000" y="1859760"/>
-          <a:ext cx="7464960" cy="1733400"/>
+          <a:off x="11007720" y="1859760"/>
+          <a:ext cx="7463880" cy="1733040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21542,9 +21542,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1279080</xdr:colOff>
+      <xdr:colOff>1278720</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>41400</xdr:rowOff>
+      <xdr:rowOff>41040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -21557,8 +21557,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11066760" y="4957920"/>
-          <a:ext cx="3387240" cy="837720"/>
+          <a:off x="11067480" y="4957920"/>
+          <a:ext cx="3386520" cy="837360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21584,9 +21584,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
-      <xdr:colOff>95040</xdr:colOff>
+      <xdr:colOff>94680</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>218520</xdr:rowOff>
+      <xdr:rowOff>218160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -21594,8 +21594,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="35013960" y="4743000"/>
-        <a:ext cx="13171320" cy="5590800"/>
+        <a:off x="35026560" y="4743000"/>
+        <a:ext cx="13185000" cy="5590440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -21614,9 +21614,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1896120</xdr:colOff>
+      <xdr:colOff>1895760</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>266400</xdr:rowOff>
+      <xdr:rowOff>266040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -21629,8 +21629,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10772280" y="3018960"/>
-          <a:ext cx="7471080" cy="1733400"/>
+          <a:off x="10774440" y="3018960"/>
+          <a:ext cx="7470360" cy="1733040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21651,9 +21651,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1218960</xdr:colOff>
+      <xdr:colOff>1218600</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>199800</xdr:rowOff>
+      <xdr:rowOff>199440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -21666,8 +21666,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10772280" y="6010200"/>
-          <a:ext cx="3387240" cy="837720"/>
+          <a:off x="10774440" y="6010200"/>
+          <a:ext cx="3386520" cy="837360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21693,9 +21693,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
-      <xdr:colOff>95040</xdr:colOff>
+      <xdr:colOff>94680</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>218520</xdr:rowOff>
+      <xdr:rowOff>218160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -21703,8 +21703,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="35013960" y="4743000"/>
-        <a:ext cx="13171320" cy="5590800"/>
+        <a:off x="35026560" y="4743000"/>
+        <a:ext cx="13185000" cy="5590440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -21723,9 +21723,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>685440</xdr:colOff>
+      <xdr:colOff>685080</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>123840</xdr:rowOff>
+      <xdr:rowOff>123480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -21738,8 +21738,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10772280" y="3018960"/>
-          <a:ext cx="6260400" cy="2152800"/>
+          <a:off x="10774440" y="3018960"/>
+          <a:ext cx="6259680" cy="2152440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21760,9 +21760,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1218960</xdr:colOff>
+      <xdr:colOff>1218600</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>47520</xdr:rowOff>
+      <xdr:rowOff>47160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -21775,8 +21775,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10772280" y="6010200"/>
-          <a:ext cx="3387240" cy="1218960"/>
+          <a:off x="10774440" y="6010200"/>
+          <a:ext cx="3386520" cy="1218600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21802,9 +21802,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1860480</xdr:colOff>
+      <xdr:colOff>1860120</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>175680</xdr:rowOff>
+      <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -21817,8 +21817,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11007000" y="1876320"/>
-          <a:ext cx="7464960" cy="1733400"/>
+          <a:off x="11007720" y="1876320"/>
+          <a:ext cx="7463880" cy="1733040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21839,9 +21839,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1279080</xdr:colOff>
+      <xdr:colOff>1278720</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>211680</xdr:rowOff>
+      <xdr:rowOff>211320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -21854,8 +21854,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11066760" y="4941360"/>
-          <a:ext cx="3387240" cy="837720"/>
+          <a:off x="11067480" y="4941360"/>
+          <a:ext cx="3386520" cy="837360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21881,9 +21881,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>9000</xdr:colOff>
+      <xdr:colOff>8640</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>180720</xdr:rowOff>
+      <xdr:rowOff>180360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -21891,8 +21891,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13355640" y="190440"/>
-        <a:ext cx="9825120" cy="6848280"/>
+        <a:off x="13363920" y="190440"/>
+        <a:ext cx="9835200" cy="6847920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -21911,9 +21911,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>570960</xdr:colOff>
+      <xdr:colOff>570600</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>18720</xdr:rowOff>
+      <xdr:rowOff>18360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -21922,7 +21922,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4835880" y="195120"/>
-        <a:ext cx="8500320" cy="6872040"/>
+        <a:ext cx="8508240" cy="6871680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -21946,9 +21946,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>95040</xdr:colOff>
+      <xdr:colOff>94680</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>218520</xdr:rowOff>
+      <xdr:rowOff>218160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -21956,8 +21956,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7590600" y="1999800"/>
-        <a:ext cx="13171680" cy="5590800"/>
+        <a:off x="7592040" y="1999800"/>
+        <a:ext cx="13185000" cy="5590440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -21981,7 +21981,7 @@
       <selection pane="topLeft" activeCell="G40" activeCellId="0" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.01"/>
@@ -21989,17 +21989,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="3.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="3.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="36.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="36.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="30.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="48.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="48.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="91.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="52.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="23.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="15.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="15" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="15" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="12.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="19" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="19" style="1" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22955,21 +22955,21 @@
       <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="3.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="3.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="36.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="36.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="30.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="48.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="30.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="29.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="14.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="14.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="10.13"/>
   </cols>
   <sheetData>
     <row r="7" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25368,21 +25368,21 @@
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="3.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="3.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="36.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="36.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="30.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="48.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="30.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="29.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="14.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="14.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="10.13"/>
   </cols>
   <sheetData>
     <row r="7" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27778,10 +27778,10 @@
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.01"/>
@@ -27789,17 +27789,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="3.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="3.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="36.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="36.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="30.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="48.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="48.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="91.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="52.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="23.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="15.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="15" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="15" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="12.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="19" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="19" style="1" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28773,7 +28773,7 @@
       <selection pane="topLeft" activeCell="O92" activeCellId="0" sqref="O92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18"/>
@@ -42911,14 +42911,14 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="52" width="29.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="53" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="53" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="17.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
